--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyeongseop/Documents/MalJunSang/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61203A4-0C93-0144-A2D5-6E6FC3D4AEE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04199158-4681-FE43-B6DD-8E45891ABCB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6900" yWindow="460" windowWidth="14400" windowHeight="16060" xr2:uid="{0E4C0141-0D5E-2540-AC59-84C2071AAAB2}"/>
+    <workbookView xWindow="0" yWindow="1280" windowWidth="14400" windowHeight="16060" xr2:uid="{0E4C0141-0D5E-2540-AC59-84C2071AAAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1311">
   <si>
     <t>오히려 공교육 살릴라면 하고자 할 의지가 있는 애들끼리 모아서 가르치는게 낫지않나? 진심 일반고 수업, 자습 분위기는 그냥 시간 버리는 상황을 조성하는데.. 망할 애들은 그런 애들끼리 지지고 볶는게 맞지 왜 애먼 애들한테 피해를 주냐?</t>
   </si>
@@ -2960,6 +2960,1346 @@
   </si>
   <si>
     <t>와 여기 댓글 왜이래?ㅋㅋㅋ알지도 못하는 사람들이 페이가 적네 사람이 별로네 막말쩌네ㅋㅋ뇌에 개념좀 채우고 즈그 인성이나 돌아보시길</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정전협정 가야지. 외교는 실리가 중요하지. 우린 평화를 원합니다.  싱가폴 회담 잘 열리게 잘해주이소. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트럼프가 잘 알아서 하겠지. 장소가 중요하냐. 만나서 대화하는게 중요하지. 3</t>
+  </si>
+  <si>
+    <t>한반도 평화를 위한 노력이 계속되니 좋네요. 이젠 평화롭게 살아야죠!! 5</t>
+  </si>
+  <si>
+    <t>비핵화 완전 폐기전까지는 믿지말자 3</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ 실리? 죽고싶지 않으면 트럼프가 오라는데로 가야제? 2</t>
+  </si>
+  <si>
+    <t>연합뉴스 북한대변인인가?ㅋㅋㅋ 문재인은 우리국민 6명도 못구하면서 어떻게 평화를 만든다고하지? 2</t>
+  </si>
+  <si>
+    <t>싱가폴로 장소가 결정된다는 사실은 트럼프가 노벨상에 대한 환상을 깨고 확실한 협상을 하겠다는 의지라고 볼 수 있지. 다시말하면 분위기만 잔뜩 띄운 우리의 기대와는 전혀 다른 방향으로 전환될 가능성이 매우 높다고 볼 수 있음. 3</t>
+  </si>
+  <si>
+    <t>김정은이 시진핑한테 물어보고 결정한듯. 주인님 이럴땐 어디로 할깝쇼? 노예민족답다 2</t>
+  </si>
+  <si>
+    <t>트럼프 뜻대로 되어서 참 좋다. 트럼프만 믿는다. 4</t>
+  </si>
+  <si>
+    <t>1945년이래 우리가 평화를 원하지 않은적은 없다. 북괴의 적화통일야욕 돈뽑아내기 목적으로 우리를 계속 쳐댔을 뿐이다. 문재앙의 평화도 우리 세금으로 쳐바르는 거래일 뿐이다. 3</t>
+  </si>
+  <si>
+    <t>종전선언은 판문점에서 하자^^ 3</t>
+  </si>
+  <si>
+    <t>우리민족끼리 평화협정 맺었다면서 왜 납북자는 돌려 보내달라고 강하게 요구 못하는지 살아 있는 모든 이산 가족 한 번에 자유롭게 왜 만나게 못하는지 진정 평화를 위한 것이라면 그것이 전제되어야 하지 않는가 미국이 부럽다 말로만 사람이 먼저다하면 뭐하나 3</t>
+  </si>
+  <si>
+    <t>여기서 결렬되면 말 그대로 뒤지는 건데 김정은한테 거부권이 어디있냐. 3</t>
+  </si>
+  <si>
+    <t>일단 북한이 항복하는 모양새다 　안하면 전쟁이므로 　트럼프와 오바마의 차이 　정상이 만난다는건 이미 사전 조율을 다한걸로 보임 　미국요구 북한이 수용한다는뜻 　김일성 김정일처럼 속였다간 전쟁 ㅎㅎ 　트럼프 8년할듯하고 ㅎㅎ 트럼프가 오바마보다 낫다는건 미국인들도 다인정함 3</t>
+  </si>
+  <si>
+    <t>트럼프가 싱가폴로 장소를 정한 이유는 단 한가지\n  문재인의 친북 장난에 장단을 절대 맞춰주기 싫었기 때문이다.\n  판문점에서 하게되면 문재인은 이걸 세계에 알려 또다시 껄떡거리며 다음 장난을 칠려고 하기 때문이다.\n  싱가포르로 결정 한 것은 껄떡쇠 문재인의 기를 죽이기 위함이다. 2</t>
+  </si>
+  <si>
+    <t>대한항공 오너의 갑질에 대해서는 그렇게 분노하더니, 오직 김정은을 위한 사상교육 공산당 독재정치에 대해서는 아무말 안하는 이중성은 무엇이죠? 오히려 북한 독재자 체제보장으로 평화챙기겠다는 마인드? 그럼 그 독재자 밑에서 수탈받는 북한 주민들은 대한항공 갑질보다 더한 상상을 초월하는 억압받고 김정을만을 위해서 일하는데 이부분은 왜 가만히 있는지 좌로정렬해 있는 문슬람들의 설명을 듣고싶어요. 2</t>
+  </si>
+  <si>
+    <t>미북 평화협정 맺으면 대한민국 미군철수 수순이다.. 북한은 단한번도 미군철수 적화.통일.을 포기한적이 없다. 그들은 대한민국을 자유주의에서 공산주의로 해방시켜야한다고 세뇌되어있다. 2</t>
+  </si>
+  <si>
+    <t>흥미로운 회담이 될 것 같네요. 뭐, 북한팔이 짝퉁보수들은 배 아프겠지만 2</t>
+  </si>
+  <si>
+    <t>아직도   드루킹일당과유사한것들이활동중이구나...50대비율이지나치게높은데도   댓글상태가   ㅋㅋㅋㅋㅋ   이것이   너희가말하는민주주의더냐?   게다가   검증가능하고돌이킬수없는비핵화를하라고한거지   무든엉뚱한   동결이나   쓸모없는핵실험장없애는정도로끝내는게아니라는것이다. 2</t>
+  </si>
+  <si>
+    <t>한반도 평화가 동북아 평화죠. 싱가폴에서도 잘 도와주길 바랍니다. 5</t>
+  </si>
+  <si>
+    <t>이제 북한에 쿠데타 폭동 나야한다 지금이 기회다 2</t>
+  </si>
+  <si>
+    <t>공산국가 되고 있는데 평화가 왔다고 들뜬... 그래서 우린 개 돼지다. 2</t>
+  </si>
+  <si>
+    <t>환영합니다. 북미정상회담! 5</t>
+  </si>
+  <si>
+    <t>지선 하루 전 대박나라 3</t>
+  </si>
+  <si>
+    <t>정부와언론  판단 능력이  상당이  부족하다. 북치고  장구치고   하기전에  치밀한  계획도  없이  언론  플래이만  하니.  문제다.  거기에  맞는 사람도 없고,   준비가  안된  정부같다.    미국이나  중국도  사람이  없어  그런 것이다. 3</t>
+  </si>
+  <si>
+    <t>그동안 평화롭지 않아서 평화찾냐? 의도를 생각해. 문재인 주둥이에서 '자유'와 '북한인권' 나오는걸 본적이 없다. 북한체제보장에만 목숨건 문재인 주사파가 아니고 뭐냐? 3</t>
+  </si>
+  <si>
+    <t>북한 옹호하는 댓글이나 북한 찬양하는 댓글 은 머냐?? 한국내 고정간첩 대놓고 활기치냐? 아니면 북사이버 전사 댓글다냐? 개이버 너네들 외국사이트 댓글 차단해라. 아니면 댓글 자체를 없애든지. 드루킹사건 터지니까 되지도 않는 정책내놓고 수습하는척하면서 물타기 하고, 언젠간 너네도 폭망할때 올꺼다. 그때를 대비해 미리미리 손봐놔라. 3</t>
+  </si>
+  <si>
+    <t>다 트럼프의 대북제재 덕분이지\n문재인이야 예전 김대중 노무현대통령처럼\n대화를 끌아냈겠지만 트럼프 아녔음 북은\n받기만하고 쉽게 변화의 마당에 못나왔을듯 3</t>
+  </si>
+  <si>
+    <t>솔직히 김정은이 이렇게까지 하는건 모두\n트럼프덕분이지 문재인이야 숫가락 얹은정도\n,트럼프아녓음 설령 문제인의 콜에 김정은이\n대화테이블로 나왔으도 예전처럼 받고\n원점으로 돌아갔을거다 3</t>
+  </si>
+  <si>
+    <t>문재인 숟가락 못올려 속타겠네 한심한놈 2</t>
+  </si>
+  <si>
+    <t>문재인은  북이핵을 갖고있어도  경제지원 한다고 해고~~북핵 폐기전이라도 ~~서둘러  평화협정 체결하려는데 ~~북핵ㆍ화학무기ㆍ전쟁도발 가능성의 확실한 제거없는~~공산체제와의 공존인 ~~평화협정~~은  꾸준히~북괴가 주장한  대남전술 아닌가요? ~문재인은 열심히일하는 동맹 미국과 반대하고 친중ㆍ종북과 동일한주장을하나요 ? ~문재인은 정말 공산주의자인가요? 2</t>
+  </si>
+  <si>
+    <t>대한민국 국민들은  살림 걱정이  최우선인데   대통령과  정권주변것들은    뺠갱이 놀이에   나라전체가  휘청거리는것도  무시하고있구나~~^!!\n우매한백성들~~~!!ㅉㅉ \n계속 당해봐라\n우리 후손들이  북한것들하고    같이  \n추위와굶주림에   몸서리칠것이다~~^!! 2</t>
+  </si>
+  <si>
+    <t>치매걸린 문재인새끼가 트럼프한테,, 각하님 저도 같이 꼽싸리끼면 안될까요 ?? 트럼프가 야앂ㅍ플ㅍ알새 끼야 치매걸린 새끼가 벽에똥칠할려구끼냐. 확 배때지를 차뿔라..ㅋㅋㅋ 1</t>
+  </si>
+  <si>
+    <t>진짜 애초부터 북한은 선택권도 없었는데 ,   한국 언론사, 정부에서 국민들 상대로 사기치는것 같다.  만약 북한이 싱가폴을 거절했다면 결국 회담은 무산되는건데 ,  그러면 누가 손해일까?  북한은 대북제제만 해지되면 문재인이 역대급으로 퍼줄테고, 중국 시진핑도 퍼줄테고 , 전세계가 북한한테 퍼줄텐데 ,  트럼프는 어차피 임기제 대통령이니까  어차피 몇년후에 사라질테고 ,  김정은은 90살까지 해먹을수 있는데  , 핵무기 숨겨놓고 ,   적화통일, 고려연방제 할수 있는 절호의 기회인데, 3</t>
+  </si>
+  <si>
+    <t>우리나라 국민들은 재앙이 못 믿고 트럼프를 신뢰하고 믿는다. 3</t>
+  </si>
+  <si>
+    <t>한걸레 회담 장소 평양유력이라고 정은이 똥꼬 빨더니\n쪽팔린지 기사 삭제 ㅋㅋ 좌파 언론답다. 무책임한 쓰레기 언론 폐간이 답이다. 2</t>
+  </si>
+  <si>
+    <t>비행기 날아가다 독재자 사망하다 2</t>
+  </si>
+  <si>
+    <t>문재인 개 븅ㆍ신 새끼가 주제파악 못하고 나대니까 그렇지 1</t>
+  </si>
+  <si>
+    <t>당연히 싱가폴이지! 누구 좋으라고 판문점이야?!~안돼! 문죄인에게 띠끌만한 공이 돌아가게 하면 좌빨들이 그것을 이용하기 때문에 트럼프가 단호히 결정한거야~! 역씨 미국 다운 판단! 문재앙과 북괴는 잘못을 뉘우치고 무릎을 꿇는 것 밖에 없어!!! 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이번에 돼지잡아서 바베큐 파티하자 </t>
+  </si>
+  <si>
+    <t>기레기들아 소설을 써라~~ 북한은 항복만이 답이다~~</t>
+  </si>
+  <si>
+    <t>문대통령과  임실장은  판문점을  추천한  것  같은데   미국이   바보가  아닌다음에야  중국과  남한정부  눈치보면서  협상할  필요가  없지  영어가 자유로운  싱가폴을  선호한  것  같네</t>
+  </si>
+  <si>
+    <t>트럼프 대단하다 운둔 살인마 독재자를 중국동참 경제제제랑 문치매를 이용해서 세계무대로 끌어내다니 천조국 대통답다. 미국서 사업가로 성공했다면 알만하지.. 웃기는건 문치매 트럼프가 한 일을 지가한것 모냥 지가 뭐라고 중일이랑 만나고 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>어짜피 정으니는 맞아죽으나 말라죽든지 죽는거다. 오직 살길은 망명이다. 정으나 망명할 때 남한간첩 명단 갖고와라</t>
+  </si>
+  <si>
+    <t>지금 트럼프 노벨상에 꽂혀 있다.....트럼프가 한반도 종전협정 이끌어 내면 노벨상 확정이다. 트럼프 화이팅!!!</t>
+  </si>
+  <si>
+    <t>다행이네 외국이라 이전처럼 문재앙은 못 낄듯 ㅋㅋㅋㅋ 판문점은 사실상 정으니 홈그라운든데 ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>김정은이 집권하고 나서 지난 6년여간 고모부 장성택과 친형 김정남을 비롯해 수천명을 잔혹하게 처형 암살했다. 권력기반강화에 조금이라도 걸리몰이 될거 같으면 가차없이 쳐죽이는 인간백정이 따로 없었다.그런 김정은이 핵이 완성되자 180도 돌변해 국제사회에 나와 국제평화와 민생안정,국가경제발전을 위해 헌신하는 정상적인 국가지도자 이미지를 연출하기위해 비핵화쇼를 벌이며 이미지메이킹에 열을 올리고있다.정은이 연예인하면 정말 잘 하겠다.배우 뺌치게 연출을 잘해 아주 쇼를 제대로 하는구나 악마본성을 숨기고 양의 탈을 쓴 평화연출 정말 기막히다!</t>
+  </si>
+  <si>
+    <t>문 : 이러면 나가린데...</t>
+  </si>
+  <si>
+    <t>우리나라 판문점에서 하면 하도 문제니가 평화 평화 미리하니깐 제재분위기에서 얻어야하는데 이미 통일된마냐?? 문슬람들 북한에 퍼줄꺼부터 마치 트럼프대통령이 평화를 깨는거처럼 언론 플레이 하는 우리나라 문슬람들 때문에 싱가폴에서 하는듯!?ㅉㅉㅉㅉ</t>
+  </si>
+  <si>
+    <t>판문점에서 쑈~판 벌이려던 문죄인 파견정부의 계획이 좌초.미국은 문죄인이 부카니스탄 편이라 한국에 들어오면 불리한 환경이라 본것이지.혈맹인 두나라 미국과 한국이 점점 멀어지는 느낌.누구때문에...</t>
+  </si>
+  <si>
+    <t>남북회담때 문죄인은 미국입장인 CVID완전하고 검증가능하며 불가역적인 핵폐기방법을 아예거론도 않하고 문서에서 빼버렸다 핵문제는 미국과 북한이 당사자가 아니라 엄격히 따지면 일이북한과 우리나라 문제인데도 불구하고 5500백만 우리국민 목숨을 뒤로한체 북한뭘믿고 북한위해 충성하는건지 이해할수없다 시진핀김정은문재앙이는 CVID식은 수용할수없다하고 드럼프와아베는CVID식핵폐기아니면자리에서 뜨겠다고 얼음장놓고 미국품폐오전CIA국장은 PVID\n영구적이고검증가능한불가역적인핵폐기 아니면\n북한은각오해야 될거라고말한상황 재앙아이번에속으면 재앙온다잘해</t>
+  </si>
+  <si>
+    <t>유승민의 인생은 탄핵과 함께 끝났었다.  입 닥치고 식당이나 하세요! 그리고 망하세요!</t>
+  </si>
+  <si>
+    <t>너같은 가짜정치인과 통합안해도 된다</t>
+  </si>
+  <si>
+    <t>넌 그냥 정계 은퇴해라. 뭐하러 정치 하냐?</t>
+  </si>
+  <si>
+    <t>황대표야..승민이가 니네 깠다..꼬라지 좋네..다른건 다 필요없고 박근혜 탄핵 가담자들이나 빨리 짤라라..그래야 한국당 승\n산 있다니까</t>
+  </si>
+  <si>
+    <t>너는  이제 끄~~~~~~~~~~~읕  쉐키야</t>
+  </si>
+  <si>
+    <t>유승민은 황교안 대표를 공격하지마라 황대표님이 보수를 이끌어주셔야 총선대선에서 진보진영이 승리할 수 있다</t>
+  </si>
+  <si>
+    <t>유승민은 우파가 아닙니다. 좌파가 심어 놓은 좌파의 트로이 목마입니다.</t>
+  </si>
+  <si>
+    <t>좌빨 언론 유승민 띄워 우파 통합 분열 시키려 노오력 하네.  우파 민심은 탄핵과 함께 배신자들 공동 묘지에 이름 올렸다.</t>
+  </si>
+  <si>
+    <t>자꾸 간보지마  넌 절대 아니라는데도 못알아듣겠니?</t>
+  </si>
+  <si>
+    <t>변절자 유승민 오든가든 관심없다\n변절자로만 기억이된단다\n이더러운 변절자야</t>
+  </si>
+  <si>
+    <t>보수대통합은 황대표가 중심이어야지 왜 이 양반이 나대지,</t>
+  </si>
+  <si>
+    <t>유승민을 까는 사람도 있구나 신기하다..  솔직히 그런 사람만 정치 한다고 하면 정치인은 존경의 대상이 된다. 유승민 만한 사람 몇 없다 여의도 아니 대한민국 다 뒤져도 공부안하고 화염병 처 던지고 그걸 훈장삼어 정치 하는 애들보다 100배 좋다고 본다.</t>
+  </si>
+  <si>
+    <t>유승민 의원 동구 지역구에 사는데 내년에는 국회의원 꿈도 꾸지마세요\n주위에 유의원님 찍는다는 사람 한명도 없어요  나대지 마세요</t>
+  </si>
+  <si>
+    <t>아무 영향력없는것들이 참 말도 많고 탈도 많고</t>
+  </si>
+  <si>
+    <t>보수좋아하네 니가보수면 똥이된장일듯 마이쳐먹어라</t>
+  </si>
+  <si>
+    <t>더러운 기회주의자</t>
+  </si>
+  <si>
+    <t>유간신 아가리해라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변혁은... 자유당 보다는 정의당 과 함께하는 것이 대한민국 의 새정치를 위한 큰 그림이 될것이다 !\n  유승민 의원!   정의당 으로 가서 큰정치를 맘껏 펼쳐 보시라 !!</t>
+  </si>
+  <si>
+    <t>유승민? ㅋㅋ\n 누구지??? 쟤가 뭘 할 수 있죠?\n 퇴물 클럽에서도 인기없는데...\n 박지원은 잔대가리라도 굴리지.\n 김무성은 용퇴라도 하고.</t>
+  </si>
+  <si>
+    <t>유승민 빼고 합처서 더불당 이깁시다 .</t>
+  </si>
+  <si>
+    <t>OOO 꼴값떤다..개새</t>
+  </si>
+  <si>
+    <t>유승민 의원을 묵묵히 응원합니다</t>
+  </si>
+  <si>
+    <t>지금 당장 힘들다고 절대 친박잔당들과 야합하지 말고 건전보수의 가치를 지키시길!!!</t>
+  </si>
+  <si>
+    <t>바른미래당은 민주당과 통합하여 썩어빠진 개누리당과 개검을 박살내주시기 부탁드립니다.무엇이 대한민국을 위한 길인가 통찰하시고 민주당과 통합하여 주세요.</t>
+  </si>
+  <si>
+    <t>유승민님 화이팅 입니다.\n지지합니다.</t>
+  </si>
+  <si>
+    <t>유승민 김무성 보다 더 나쁜 놈이 황교안이다. 저 자식 대표되고 개무성 꼬봉으로 전락한 순간부터 지지율 폭락  짝퉁 황가놈은 ,개무성 허수아비놈은 당장 대표를 그만두라.</t>
+  </si>
+  <si>
+    <t>민주는 페미랑 손잡고 적으로 돌아섰고 자한당은 아예 논외고..2~30대 남성들은 솔직히 바미당 아니면 지지할데가 없다</t>
+  </si>
+  <si>
+    <t>유승민은 정체불명인 정치이고 여기저기 간보는 사람이다. 즉, 언제든 보수를 배신할수 있는 인간이지.</t>
+  </si>
+  <si>
+    <t>대구 시민을 바보로보나  어리섞은놈 넌쓰래기다</t>
+  </si>
+  <si>
+    <t>변화와  혁신  이 가치  꼭  소신을  가지구  지켜  주세요  소신을  지키는게  얼마나  힘든줄은  알고 계시죠  고  김영삼  김대중  대통령  그외  군사정권에  맞선 민주주의를  이루기 위해  목숨도  잃을뻔 했구 옥고도  여러번  치르셨던  민주 투사들...어렵고  힘들겠지만\n그  가치를  믿고  이겨나가  주세요   언졘가  그 가치가  대다수  국민들에게   호응을  얻을  날이  반드시 올  겁니다</t>
+  </si>
+  <si>
+    <t>그래...오의원도 권의원도 이제 의원 할 날 얼마 안 남았다. 마지막 추억 잘 쌓으시기 바란다.</t>
+  </si>
+  <si>
+    <t>김무성, 유승민이는 보수에 씻을 수 없는 상처를 안긴주여들 아닌가? 제발  조용히  잏으면좋겠다.  김무성은 그래도분출마 선언이라도 하는데   너무뻔뻔한거 아닌가?</t>
+  </si>
+  <si>
+    <t>제발 유승민과 옄이지 않았으면 좋겠다~~~!!</t>
+  </si>
+  <si>
+    <t>제발 97년도 이인제 짓만 하지마라. 이인제 자기 자신도 그게 후회로 남는단다.</t>
+  </si>
+  <si>
+    <t>승민아 따뜻한보수를 걸어가면 중도층도 \n흡수하고 국민신뢰를 얻는다  통합하는순간 끝난다ㅡㅡ</t>
+  </si>
+  <si>
+    <t>아직도 503 추종자들이 득세하고 있어서 그 무리들을 누르기가 쉽지 않겠다.</t>
+  </si>
+  <si>
+    <t>박근혜 탄핵이 잘못된게 아니라 같은 잣대로 문재인도 탄핵시켜야한다는 거지. 박근혜가 일개 아줌마에 놀아난거라면 문재인은 종북빨갱이한테 놀아나고 있는데 더하면 더한거지.</t>
+  </si>
+  <si>
+    <t>지금 그려지는 그림을 보면 자한당은 황교안에 의해 자멸 테크트리 탄거 같고, 바미당은 그냥 가만히 있어도 중간은 갈듯..ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>어차피 다음 총선에서 자유한국당이 필패해야 박근혜 멍에로부터 자유로운 건전한 보수들이 새롭게 태어날 수 있다. 지금 자유한국당은 박근혜로부터 자유로울 수 없어 건전 중도 보수를 품기에는 한계가 있다. 국민 평균연령도 높아가는데 오히려 민주당이 아마 보수화될 것이다.</t>
+  </si>
+  <si>
+    <t>유가 너의 말로가 어째 손학규를 연상하게 되는지 모르겠다  자꾸 추해 지지 마라  네 정체성도 의심스럽고 스스로 자기반성과 성찰을 해보긴 하는지도 의심스럽다.  네 계산속엔 아직도 네 사익이 우선한다는 것이 강하게 보이는 것 같다. 유가야 그만 물러나서 정계를 떠나는 것도 가치가 있는 일이다</t>
+  </si>
+  <si>
+    <t>승민아 그냥 떠나라 구차한 변명 씨부리지 말고</t>
+  </si>
+  <si>
+    <t>매국자한당보다 더 나쁜세0키가 유승민 원희룡이다</t>
+  </si>
+  <si>
+    <t>유승민의 능력은 차치하고 신뢰를 져버린 정치인으로 정치를 떠나는게 답이다.</t>
+  </si>
+  <si>
+    <t>유승민아 통합할거면 조용히 통합해라 스크래치 주고 통합해봐야 누가 그 통합을 좋게 봐주겠냐</t>
+  </si>
+  <si>
+    <t>시체파인더 문크로멘서 새끼 자다가도 시체냄새만 맡으면 벌떡 일어나서 \민주...민주...\" 하면서 노란리본 주섬주섬 들고 시체찾아감. 문크로멘서가 진짜 무서운게 시체 앞에 조문갈때 그 웃는지 우는지 모를 소름끼치는 표정으로 끅끅거릴때 온몸에 한기가 돋아날 정도임..... 세월호 기일에도 찾아가서 \"얘들아 미안하고 고맙다\" ㄷㄷㄷ 시체만뜨면 그냥~~ 뭐가 고마운건데?? 죽어서 고마운게 정상이니?"</t>
+  </si>
+  <si>
+    <t>바미당은 진짜 리더 부재인듯~~</t>
+  </si>
+  <si>
+    <t>보수도 진보도 아닌 궤변론자</t>
+  </si>
+  <si>
+    <t>자한당 보수는 이젠 부패되고 붕괴되었다.. 그만큼 예전의 보수지지자들 50~70대의 틀딱들 밖에 없는것이다. 새로운 보수로 탈바꿈하지 않는이상 진보에게 이길수 없을것이다</t>
+  </si>
+  <si>
+    <t>두 양반 모두 도지개지다..둘다 권력에 눈이 멀어 정치를 하는게 아니라 양아치 짓거리만 일삼고 있다..주둥이는 국가와 국민을 말하나 실제는 본인 권력을 위해 세치 혀로 말장난하는 정치는 이제 그만하자</t>
+  </si>
+  <si>
+    <t>납작한얼굴 기가약한아재 집에가세요.</t>
+  </si>
+  <si>
+    <t>한국당들어가려고 그렀게 지랄하더니 인젠 몸값올리려고 별 수작 다부리네,그래서 배신자는 영원한 배신자인거다.언제든 동지의 뒤통수치고 정의를 위해서라고 변명하지.</t>
+  </si>
+  <si>
+    <t>유승민이 보수의 희망이라는 분들을 보면 참 세상을 낙관적으로 본다는 생각이 든다.</t>
+  </si>
+  <si>
+    <t>기득권 싸움에, 해피엔딩이 나올까?</t>
+  </si>
+  <si>
+    <t>개혁보수 유승민! 언제쯤 유승민의 시대가 올까</t>
+  </si>
+  <si>
+    <t>박근혜탄핵을 부정한건헌법을 부정한거다 헌재판결부정한건 국민돨자격이 없는거다. 왜놈들나라로 가라,</t>
+  </si>
+  <si>
+    <t>안철수가 욕심만 부리지 않았다면 지금은 한국정치의 희망이 되었을텐데..\n\n결국 자기 지지자들에 둘러쌓여 대의를 소홀히 한 결과 먹지도 버리지도 못하는 계륵이 되었구나.\n\n커밍아웃해서 자한당에 가자니 김문수가 밟히고\n중도에서 세를 넖히자니 손옹이 틈을 안주고\n눈치 봐서 어디든 대권주자로 나서야는데  참 뜻대로는 안되고..  한번 죽었어야 하는데 죽기는 싫고..\n그래서 초딩소리듣는걸 아직도 모르는 안철수 어린이..</t>
+  </si>
+  <si>
+    <t>황교안은 유승민 그냥 네버려두는게좋다\n올려면오고  모시는 정도는아니고 깜이안되는 사람이다</t>
+  </si>
+  <si>
+    <t>유승민은 정계은퇴가 그나마보수에게지은죄를 조금이나마 속죄하는거다</t>
+  </si>
+  <si>
+    <t>보수의 희망!승민이</t>
+  </si>
+  <si>
+    <t>박근혜 비판하면서 소신있는 여당정치인 컨셉으로 나간 유승민, 정작 선거할때는 박근혜 이름 수십차례 팔아서 국회의원되자마자 다시 박근혜 등에 칼을 꽂은 기회주의행태를 보이죠. 이제는 보수통합과정에서 조금이라도 더 얻어보겠다는 장사꾼 마인드로 겨우겨우 재건해가는 한국당에 큰 스크래치 긁고 있는 유승민.. 진짜 유권자들이 이런 사람을 뽑을 이유가 있나요?</t>
+  </si>
+  <si>
+    <t>니놈은  퇴출되고  문재인놈하고세트로   처벌받아야한다</t>
+  </si>
+  <si>
+    <t>역사는 후일 당신을 자유민주주의의 역적으로 평할 것이다. 사내시키가 그리도 곧음이 없어서...당신은 어딜 가도 분탕질 한다</t>
+  </si>
+  <si>
+    <t>황은 유승민과 통합하면 선거에 필패하게된다 . 유승민은 국민대다수가  배신의 아이콘으로 생각하고 있기 때문이다.</t>
+  </si>
+  <si>
+    <t>간보기는 안철수와 버금가는 유승민은 영원한 배신의 아이콘 일뿐이다.</t>
+  </si>
+  <si>
+    <t>멋지네</t>
+  </si>
+  <si>
+    <t>여러말 하지말고 유승민 안철수 신당만들어서 내년총선에 나가라. 구차하고 비겁한 변명은 니혼자하고, 황교안이가 뭐가 아쉬워서 7명 탄핵배신자들 복당시키고 싶겟나, 니네들이랑 탄핵찬성한 김무성이랑 탄핵파들이 너네들 자한당으로 복당시키라는 거지...자한당이 뭐가 아쉬워서 너네들 7명에게 복당하라고 하겟나. 너네들끼리 신당창당해서 국민심판받아라 언플로 장난그만치고...</t>
+  </si>
+  <si>
+    <t>당신네들이 '박통 탄핵은 잘못되었습니다. 잘못했습니다'하고 나와야 보수우파가 통합됨</t>
+  </si>
+  <si>
+    <t>치고 빠지기~</t>
+  </si>
+  <si>
+    <t>아직도 역적패륜아 간신유승미니를 숭배하는인간들이 있는걸보니 좌빨들의 역선택교란작전에 황교아니도 말려들고말았구만.그런혜안으로 정치를하겠다고 무작정뛰어드니.희대의변절자 손햑규에게도 한소리듣지.애초에 개 무성을등에업고 정치를하겠다고생각한 자체가 너무 바보짓아니던가?자당대통령을 앞장서서탄핵시킨 희대의패륜아 역적개무성이놈의 감언이설을.박근혜대통령으로인해 황교안이란 이름을알린자가.냉큼받아드린자체가 역적짓인줄 몰랐던가?나라와 국민들을위한 정치가아니라 지놈탐욕으로 나라도팔아먹을.개역적놈이 무성인데.!그놈과 같이하는한.교안이는 희망없음을알아야한다!</t>
+  </si>
+  <si>
+    <t>배신자하고 놀지 말라  황교안대표</t>
+  </si>
+  <si>
+    <t>웃김........유가 대선후보??? 딥다 웃김 ㅎㅎㅎ......탄핵의 강을 건너자==&amp;gt;반역 배신 역적질한 내죄를 덮어 주세요.../개혁보수로 나가자==&amp;gt;좌로 좌로 회색지대로 나가는게 개혁? 국민 혼동시키지 말라..../헌 집을 헐고 새 집을 짓자==&amp;gt;나만 빼고 다른 사람들은 모두 갈아치우자? ............국민을 우습게 보지 말고 정계은퇴 선언을 하라.</t>
+  </si>
+  <si>
+    <t>좌파들은 하여간 웃기고 자빠져라~~~~검찰힘빼기 작전을 보란듯 하고 있고만 이것들은 지국상에서 비열한 선전책동짓이구만</t>
+  </si>
+  <si>
+    <t>법무부 개혁 이란 것이  결국 조국의 수사를 하지 못하게 하고 검찰의 기능을 하지 못하게 하는 그야말로 북한의 김정은 세력 같은 빨갱이 공산당 짓거리를 지금 대한민국 법무부라는 곳에서 할려고 한다니 참으로 기각 막힐 노릇이다..!!  온갖 거짓선동질과 부정부패그리고 위선으로 똘똘 뭉친 문재인과 더불어공산당 시끼들은 범죄자 조국과 정경심의 그리고 북한의 돼지 김정은의 인권은 중요시 하면서.. 탈북민.,웜비어 와 북한 공산당  에게 죽음을 당한 대한민국 국민의 인권은 짓밟아 버린 악마이자 빨갱이 공산당과 똑같은 시끼들이다..!!</t>
+  </si>
+  <si>
+    <t>검찰을 없애고 ~~보위부를 만들어라~~~</t>
+  </si>
+  <si>
+    <t>미친당 일마들은 검찰개혁 외엔 할수있는게 없어...경제는 다 찌그러져 개판 오분전인데 자화자찬만 하고있고....ㅉㅉ</t>
+  </si>
+  <si>
+    <t>개혁이란게 이정권 범죄자 수사못하게하는거냐? 견 새끼덜아</t>
+  </si>
+  <si>
+    <t>검찰 손발 묶는 개혁?  개민주당</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 니들부터 개혁해 쓰랙 민주당</t>
+  </si>
+  <si>
+    <t>야 경찰 개혁부터 해라 경찰 개판이더만  정작 필요한곳은 안하고 조국이 때문에 검찰개혁을하냐 미친</t>
+  </si>
+  <si>
+    <t>조국 빨리 구해내겠다는 말로 들리네</t>
+  </si>
+  <si>
+    <t>ㅋㅋ 민주당 갑자기 급해졌어.  국민이 대깨문들처럼 다 바보인 줄 아나?</t>
+  </si>
+  <si>
+    <t>왼쪽 사람들의 차기 대통령 조국교수님 덕분에 왼쪽 사람들의 민낮을 보게되어 이젠 믿음이 안가네요.</t>
+  </si>
+  <si>
+    <t>공수처설치하라</t>
+  </si>
+  <si>
+    <t>좌빨 정권. 너네는 이젠 아웃이야.</t>
+  </si>
+  <si>
+    <t>청와대 법무부도 개혁 해야지</t>
+  </si>
+  <si>
+    <t>니네가  개혁을  한다고  엿같은  소리하고  자빠졌네  쓰레기당   니그들같은    시궁창  쓰레기당은  태어나서  처음봐    콩으로  메주를  쑨다고  해도  니네말은  못 믿어</t>
+  </si>
+  <si>
+    <t>그만 해라 이 빨갱이들아 검찰개혁이 아니라 네들 정권 유지하고픈 게지 이런 대통은 왜 탄핵이 안될까 ㅋ</t>
+  </si>
+  <si>
+    <t>민주당과 법무부 니들만 개혁하면 된다는걸 이번 조국 사태로 잘 알았다</t>
+  </si>
+  <si>
+    <t>민좃당과 법원개혁이 먼저랑께</t>
+  </si>
+  <si>
+    <t>이인영은 저 시 키는 입만열면 검찰개혁이래..딴건 아는거 없나바</t>
+  </si>
+  <si>
+    <t>검찰 개혁이 아니라 법무부랑 청와대 개혁이나 해야 한다고 생각이 더 드는데요~</t>
+  </si>
+  <si>
+    <t>에라이 개/잡//놈들아, 니들 스스로나 개혁해라. 자격도 없는 것들이 뭘 개혁한다고. 촛불혁명에 무임승차해서 단물만 빨아먹고 있는 기생충///색히들.</t>
+  </si>
+  <si>
+    <t>아직도 구기놈 그러케 찾는 것들이 잘도 하겠다..  궁금해서 그러는데 그 노마 왜 그러케 빠는거냐.. 문가노미 그러라고 하디.. ㅋ</t>
+  </si>
+  <si>
+    <t>조국이 비공개 소환했다고 하는데 기사가 왜이래?</t>
+  </si>
+  <si>
+    <t>검찰개혁의 핵심은 검찰의 정치 중립성입니다. 검찰의 정치중립성은 검찰에게 인사권의 독립과 예산편성권의 독립을 해주면 해결되는 문제다! 전세계에서 중국과 북한에만 존재하는 공수처 절대반대!</t>
+  </si>
+  <si>
+    <t>윤 검찰은 감히 개검을 건드린 죄로 조국 가족을 인질삼아 개혁 저항하는데\n그러다가 해산된다. 변호사들 대기중이다.\n나베가 공수처 막아 줄것만 믿는데 안되면 담 총선 나베와 왜구당은 사라진다.\n그 다음에는 니들 전부 아웃이다. 감히 국민을 상대로 협박해?</t>
+  </si>
+  <si>
+    <t>공수처법도 개혁을 하여야지요.. 검찰만 개혁하면 뭐지?</t>
+  </si>
+  <si>
+    <t>조국의 핸드폰 모든 계좌 압수영장 기각하는 판사개혁이 먼저지, 그리고 조국 수사를 방해하려는 의도 법무부 개혁이 우선이지</t>
+  </si>
+  <si>
+    <t>2것들은 일단질러놓구 여론이 심각하면 사과하고  하는짓들하고는   아니면 말고를 밥 쳐먹듯이 하는인간들</t>
+  </si>
+  <si>
+    <t>세월호 침몰당시 전남도시사 였는데 그당시 머하셨나요?</t>
+  </si>
+  <si>
+    <t>이넘은 뭐하는넘이길래 운대가이렇게좋은가?세월호사고해역 도지사아니었던가?  근데영전하고 또 입으로만하는가 본인이사과하면 안되더냐?</t>
+  </si>
+  <si>
+    <t>왜 이낙연 이름 나오면 sm그룹 회장 별달고 군부대 사열이랑 카퍼레이드 받은게 생각날까?</t>
+  </si>
+  <si>
+    <t>니도 가 이 색히야</t>
+  </si>
+  <si>
+    <t>차기대통령  0순위    이낙연 대통령이다    대통령관상</t>
+  </si>
+  <si>
+    <t>문베는 쑈!! 낙베는 사과 전문.ㅋㅋ</t>
+  </si>
+  <si>
+    <t>정부가 책임을 통감한다 이렇게 해야지 뭔 장관이 죄있나. 철책 둟은롬이 죄인이지 그롬한테 석고사죄 해라 그렇지</t>
+  </si>
+  <si>
+    <t>ㅋ 사과하지말고  애초부터 이런 사태예방 및 철저한 사후관리 어때? ㅋ 사람죽여놓고 사과하면 끝나는건가?</t>
+  </si>
+  <si>
+    <t>대책마련이 시급 보여주기식만 좋아하는 정부와 여당</t>
+  </si>
+  <si>
+    <t>이등시느은  누구보러 사과 하래 니넘과 재앙이 사괴햐라.</t>
+  </si>
+  <si>
+    <t>주둥아리로 사고 백번 천번 해봐야 소용없다!! 직접 처리해서 깨끗하게 만들어라!!!</t>
+  </si>
+  <si>
+    <t>대통령이   사과해야지!    끄나풀들이?</t>
+  </si>
+  <si>
+    <t>아프리카  돼지 열병  매장한 침출수  민주당 촘리부터 한사발씩 아침저녁으로 마시게 하라</t>
+  </si>
+  <si>
+    <t>침출수 떠서 재앙이 줘라.</t>
+  </si>
+  <si>
+    <t>수질에 문제 없다는 그 물을 퍼다가 문가 대통령과 장관들에게 퍼먹여야 한다!</t>
+  </si>
+  <si>
+    <t>지는 안가고 ㅋ. 그저 남탓</t>
+  </si>
+  <si>
+    <t>역시 짱입니다</t>
+  </si>
+  <si>
+    <t>자한당에서는 일 터지면 사과를 하기는했냐?\n명박.근혜 때..\n세월호 때 근혜는 거울만 처다보고있었자.\n그러니까 감방에서 쉬고이짜나.</t>
+  </si>
+  <si>
+    <t>나라 한참 잘못 만들어놨다.. 만들어놓은대로 너네도 거둬야지? 대통령이 가서 사과해야되는거 아님?</t>
+  </si>
+  <si>
+    <t>이사람은 더도말고딱중간 대통령감은아님</t>
+  </si>
+  <si>
+    <t>국무총리께서 중저음을 깔고 정중히 사과하시는데 쿨하게 받아 줍시다. 그대신 대통령과 총리 이하 각부 장관님들 앞으로 빨간 딸기라떼 한잔씩 드리자구요.  좌파님들, 어이없으세요? 불과 3년전 님들이 줄창 이런 식이었잖아요?</t>
+  </si>
+  <si>
+    <t>이게나라냐? 핏물이 강을 이루는데 대통령이랑 총리는 뭔짓 하고 있는거냐?</t>
+  </si>
+  <si>
+    <t>뭐던지 저질러놓고 시끄러우면 저음으로 사과를 하네...버릇인가.</t>
+  </si>
+  <si>
+    <t>근본적인대책없이 아무대나  묻드니  사과한단다  토양 오염다되었다   하는꼬라지하고는~</t>
+  </si>
+  <si>
+    <t>무조건 송구에 죄송에 사과에? 뭐하는 짓들이여?\n순서대로 차분히 하면될걸 뭐 주워 먹을려고 서두르다 이꼴이 난건가?당신부터 모두 다 사퇴하시요~!!</t>
+  </si>
+  <si>
+    <t>대통령이 문가자나요.</t>
+  </si>
+  <si>
+    <t>4대강 욕하더니 돼지핏물강 선물했냐? 애초에 상수원보호지에 돼지 파묻는 법이 어딨냐고, 평범한 국민들도 어이 없어하는데, 니들은 편하게 앉아 사과만 쳐하고 있니? 민간헬기도 아니고 국민안전 책임지는 소방헬기가 저래됐으면  소방헬기 전수검사하고 대통도 사과했어야지. 컨트롤타워라며 낚시배사고에 노란잠바 쳐입고 앉아  개그하더니 더 중차대한 일은 입 싹 닦냐?</t>
+  </si>
+  <si>
+    <t>니가가라. 냄새나는 사고현장...</t>
+  </si>
+  <si>
+    <t>먹어도 문제 없다는분 댈꼬 한번먹여보세요. 저짝동네 농산물 돼지피 이미지때문에 타격 어마어마할듯.</t>
+  </si>
+  <si>
+    <t>장관 총리 같이 가서 핏물 한대접식 마시고와라 오염하고는 상관없다며</t>
+  </si>
+  <si>
+    <t>장관다운 장관이 있나???</t>
+  </si>
+  <si>
+    <t>문재인은 아무말 안하는데 왜 총리가 나서서 장관한태 이래라 저래라</t>
+  </si>
+  <si>
+    <t>니들 하던데로 정부에서 책임져야지ㅋ 안그냐 ? ㅋㅋ</t>
+  </si>
+  <si>
+    <t>사과쑈는    됐고    일  쫌   제대로  해라  문능  재앙  재거리들아~~~~</t>
+  </si>
+  <si>
+    <t>옷벗어야지 먼 사과하면 끝이냐 이번 정부는..ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>지금까지 대충대충 처리하고 보는 복지부동이 몸에 밴듯 합니다. 총리님께서는 완벽한 선제 대응을 바라는데, 관련 부처에서 따라 주질 못하는게 안타깝습니다.^^</t>
+  </si>
+  <si>
+    <t>현시대에 ?? 대처방한도 생각안하고 죽여놓고 사과??현시대에 ??  완전문재인이네</t>
+  </si>
+  <si>
+    <t>사과만 허지 말고 그런일이 또 발생할때 대처할 수 있는 메뉴얼을 만들어라. 매번 반복되는 상황이 지겹지도 않냐 ?</t>
+  </si>
+  <si>
+    <t>사과총리~ㅎㅎ</t>
+  </si>
+  <si>
+    <t>갈수록 좌파 새키들은 도라이 많네</t>
+  </si>
+  <si>
+    <t>사과 말고 사퇴를 해야지요</t>
+  </si>
+  <si>
+    <t>낙연할아버지 딱 전라도분처럼 생기셨네.</t>
+  </si>
+  <si>
+    <t>총리가 행정부 총괄 담당인데\n왜 장관이 사과해</t>
+  </si>
+  <si>
+    <t>빨갱이두목김정은돼지침출수인가</t>
+  </si>
+  <si>
+    <t>이낙연 너는 총리로 가짜뉴스 퍼트리는 인간에 능글하니 진짜밥맛 떨어지는데 게다가 쇼정치까지 문재앙한테 전수받았냐?</t>
+  </si>
+  <si>
+    <t>넌 책임 없고?\n사과는.개나.소나 하는거다.</t>
+  </si>
+  <si>
+    <t>니가가라</t>
+  </si>
+  <si>
+    <t>돼지아닌 탈북민총살시켜서 사과해야</t>
+  </si>
+  <si>
+    <t>사과? ㅋㅋ 책임지고 물러나시죠</t>
+  </si>
+  <si>
+    <t>사선사고마다 장관이.직접 현장 다 챙겨야지??낙연아?? 그럼 재앙이는 그시간에 꾸벅꾸벅 졸고 있었겠지???</t>
+  </si>
+  <si>
+    <t>철책없애고, 지뢰도없애서, 오만잡것 국경구분없이\n맘대로 오고가게해서, 이런 개난리가났으니 국가 운영자가 책임지고, 사과하는것이 이치에맞는것이지...</t>
+  </si>
+  <si>
+    <t>원래부터 공무원이 바뀌지 않으면 어쩌다 공무원을 누굴 앉혀도 똑같다.</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 인성 나오네.</t>
+  </si>
+  <si>
+    <t>공무원 급여와 연금 주기 아깝다는 생각이 든다.</t>
+  </si>
+  <si>
+    <t>총선다가오니 행동들이 엄청빨라졌네! 평상시에도 그리 민심을챙겨봐라.</t>
+  </si>
+  <si>
+    <t>포기할수 없다 용자네 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 수구틀딱들! 열등감 폭발하네요, 이젠 조국물러나니 이낙연비방에 열 올리시는구만. 지역감정조장까지 해가면서.... 이게 니들이 맨날 지는 이유지. 솔직히 말해서 이낙연총리만한 인물이 여야 통틀어 있냐? 정치적 경륜과 식견, 자질과 품격면에서 내세울만한 인간이 있냐고? ㅋㅋㅋ 황교안 나경원 진희경 이은재 황보라? 비난만 하지말고 대안을 내라</t>
+  </si>
+  <si>
+    <t>장관간다고바뀌냐? 이낙연은 이중성 쩔어보어..ㅡ.ㅡ</t>
+  </si>
+  <si>
+    <t>이낙연씨..당신 정부에 들어와서 지금 몇번째 사과인줄 아나? 자격도 없고, 일도 못하면 잘하는 사람에게 맡기고 물러나..무슨 제대로 하는 일이 있어야지..너 또라이 맞지? 세금충!</t>
+  </si>
+  <si>
+    <t>청와대 지시 없이 저따구로 했을까~????</t>
+  </si>
+  <si>
+    <t>이미 해외에서 문재인 살인정권으로 규탄입니다.국제인권기구도 이문제를 그냥 넘기지 안을겁니다.중요한것은 확실한 귀순의사를 어덯게 그렇게 국민들에게 거짓으로 사기를 치고 속였는지 그대로 넘기면 절대 안될 것입니다.평소에 인권을 외치던 대한민국 인권단체들은 지금 무엇을 하는지 그놈들이 인권을 말할 자격이 있는지 국민들은 평가할겁니다.</t>
+  </si>
+  <si>
+    <t>아아..안돌려보내면...16명 죽인 살인마를 북한주민이라는 이유로 끌어안는 빨갱이가 되는거고?????? 넌 어째 하는일 마다 삐꾸고, 쳐씨뷰리는것 마다 맹탕이냐?</t>
+  </si>
+  <si>
+    <t>북한 빨갱이라고 욕하고 지랄하더니 이제는 북한주민도 우리 국민이란다!!\n개!모!순!\n생각좀 하면서 일관성 있게 얘기해라쫌</t>
+  </si>
+  <si>
+    <t>강제북송은 정말 정말 정말 잘못된 일이다. 제발 상식에 맞는 정치를 해달라\n박근혜보다도 더 잘못되고 있다 이러려고 초불들고 정권 잡았나.</t>
+  </si>
+  <si>
+    <t>황교안, 니놈은 살인자들을 북송하지않았으면 빨갱이 살인자를 우리나라 교도소에 수감하였다고 난리칠 놈이다. 뭘 해도 반대하니까. 그리고 니놈이 민주주의를 말하는 것 웃기지 않나? 암울한 시기에 머리 위로 떨어지는 최류가스 마시면서 이 나라 민주주의를 위해 싸웠던 사람들을 빨갱이라고 잡아가두고 고문했던 공안검사 주제에 감히 민주화라니! 교활하고 야만적인 놈이다. 계속 반대를 위한 반대만 하다가 나라는 어떻게 다스릴 것인가? 집안 단속도 못하는 주제에.</t>
+  </si>
+  <si>
+    <t>북한에   대한   인도적  지원도   퍼주기니   뭐니   게거품    물던것들이  ~   난데없이     살인자   북한선원   옹호하고   나오네   !    살인자   대한민국에   귀순시키면    황교안이가   본인   집에   데리고   살건가   ?</t>
+  </si>
+  <si>
+    <t>대권 등 모든것을 내려 놓고 사심없이 종북주의 정권에 치열하게 맞서 싸우면 그결과로 국민들이 힘을 몰아줄것이다..사즉생의 각오로!!!</t>
+  </si>
+  <si>
+    <t>전두환 골프를 그렇게 비판해보세요. 박근혜 대통령도 했잖아요? 그 사람은 정말 대한민국 국민을 군대로 살인한 사람입니다. 왜 아무말 안하나요?</t>
+  </si>
+  <si>
+    <t>ㅎㅎㅎㅎ.. 국내법으로 처벌할 규정도 없어요.. 그러면 16명 살인한 사람들에게 정착비 지원해주고 생활비주고 편안하게 살게 해줘야하나?? 그랬으면 반대로 게거품을 물었을 사람들이 ㅎㅎㅎㅎ. 태영호 봐봐.. 별 짓다하고 와서 수구들의 영웅으로 추앙받고 살쟎아..ㅎㅎㅎ 정신들좀 차려라..</t>
+  </si>
+  <si>
+    <t>고환이의  공안검사시절이  알고싶다</t>
+  </si>
+  <si>
+    <t>민주당이랑 싸우는 정당은 자한당밖에 없다. 어찌됏든 응원할수밖에 없다</t>
+  </si>
+  <si>
+    <t>진짜 살인마는 변호하고 살인하지도않고 살려고 이나라 찾아온 진짜 탈북민은  사형장으로 되돌려보내는 문정권.  하나님앞에 벌을 안당할줄아냐!</t>
+  </si>
+  <si>
+    <t>교활은 교활이다. 북의 인권을 생각??  그런 살인자들한테 베푸는 인권은 뭐냐??? 니들 정권을 위하여 그동안 빨갱이프레임으로 세상을 뒤집어 거꾸로 살아온 집단이.. 기가 차다~~~ 그럼 그 두사람을 인도적 차원에서 니가 데리고 살래???</t>
+  </si>
+  <si>
+    <t>16명 살인 저지른 살인마 옹호 하는 자한당,,,그럼 울나에서는 살인 무죄이냐? 아니면 평생 깜빵에 쳐 넣고서 국민혈세로 먹여주고 입혀주고 재워 줘야 하냐? 멍청한 극수수구 꼴통당 자한당 쓰레기들...</t>
+  </si>
+  <si>
+    <t>대한민국 국민둘을 공개 처형장으로보낸 대갈통 저걸 어찌해야하나 끌어내서 북으로 보내야..</t>
+  </si>
+  <si>
+    <t>귀순을요구하는북한주민을비밀리에추방한자가있다면특검을통하여반드시처벌해야한다,,,,살인을했는지누가조사하여추방결정한자는지위고하을막론하고법에따라반드시처벌해야한다,,,아오지탄광에실존하는국군포로는누가귀환시킬것인가,,,미국같으면전쟁을하더라도귀환했을텐데,,,</t>
+  </si>
+  <si>
+    <t>교활헌 넘  언제부터 지가 북한사람들 챙겼다고</t>
+  </si>
+  <si>
+    <t>문재앙이 죽였지.</t>
+  </si>
+  <si>
+    <t>그럼너희들이그살인자들데리고살어</t>
+  </si>
+  <si>
+    <t>ㅍㅎㅎ 자한당이 언제부터 북한 인권에 관심이 있었나?</t>
+  </si>
+  <si>
+    <t>황교안 -아  그렇다면 16명을 죽인 범법자를 이남에서 살도록 해야 그게 인권이냐 공안검사 출신이 그렇게 말하면 안되지 에 -이 못된사람</t>
+  </si>
+  <si>
+    <t>왜 그랬을까 뭣이 캥겨서 그렇게 급하게 처형장으로 돌려 보냈을까 김정은이 방한과 2명의 생명을 바꾼건가 \n이자들이 이러고도 김정은이를 환호 한단 말인가</t>
+  </si>
+  <si>
+    <t>사법부 판단없이 무단으로 북송한 정부관계자를 수사의뢰하고 모두 구속수사해라~</t>
+  </si>
+  <si>
+    <t>북한은 살인, 실종, 사기, 심지어 고난의 행군처럼 인육사건도 있을정도로 인민의 고통이 심한상태. 좌파 니들이 추앙하는 공산주의야말로 진짜 지옥이다.</t>
+  </si>
+  <si>
+    <t>저러는 새끼들이 지들 여당 때 평택에서 쌍용차 노동자 17명 죽어나갈땐 대놓고 쌩깜. 당시 대통령이랑 새끼는 오바마가 불렀다고 좋다고 미국 의회 가서 디트로이트 노동자들에게 당신들의 일자리는 보장될거다.</t>
+  </si>
+  <si>
+    <t>탄핵 사유 다ㅠ 박근혜 탄핵사유가 헌법 수호의지가 없어서인데 헌법3조에 탈북민은 대한민국 국민인데 국민을 죽으라고 북으로보냈으니 헌법을 어긴거다. 탈북자 관련 법에도 범죄자일경우 정챡금 과 임대아파트를 제공 안한 다고 되어있으나 외국으로 추방하라는법 조항은 어디에도 없다 ㅋ  헌법에 의하면  탈북자는 난민이 아니다.</t>
+  </si>
+  <si>
+    <t>16명죽인살인자들인데죽어도되</t>
+  </si>
+  <si>
+    <t>우리나라 인권위원회와 시민단체들은 그냥 인권에 죽었습니다. 그러면서 조국 가족들에게는 최대한 인권을 보장하라며 시위를 하고 있습니다. 참으로 부끄러운 나라입니다.</t>
+  </si>
+  <si>
+    <t>탈북민들이 피눈물을 흘리며 .......대한민국 국민되려는 저들을...........북한 사형대로 보낸 문재인의 잔혹한 행동을 보며.....같이 분노하고........이정부를 퇴출시켜야한다고 생각한다</t>
+  </si>
+  <si>
+    <t>살인마들 잔인한것들. 고대로 자손대대로 벌받을거다 악마보다 악한것들아</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 왜이리 웃기냐?만일 정부가 그들을 받아들였다면 자한당 뭐라고 했을까? 극악무도한 살인자 빨갱이들을 받아들인 정부는 괴뢰정권이라고 맹비난을 했겠지??? 난 자한당을 이해할 수가 없다. 정말 그들에게 국가와 국민을 생각하는 맘이 있기는 한건가? 맨날 저모양이니 지지율 급락 소리나 듣지. 어이쿠야~~ 답없다</t>
+  </si>
+  <si>
+    <t>북한 주민도 우리 국민이다.국민의 기본권을 유린하였다? 언제부터 북한 주민을 우리 국민이라고 생각하셨나요? 16명을 살인한 사람들을 우리 국민이라 받아들이면 우리 법률로,우리 법원에서 재판할 수 있나요? 정치적 망명도 아니고...받아들이면 국민의 안전을 외면한다고 난리칠거면서..실정법 위반한 나의원이 검찰 수사를 받는게 야당 탄압인가요?유례없이 100곳 이상 압색한 조국 수사는 여당 탄압인가요?그런 이야기는 친구랑 술자리에서 이야기해도 손가락질 당하기 십상이네요..이 시대의 화두는 \공정한 사회\"입니다....."</t>
+  </si>
+  <si>
+    <t>또악수를두는것이다.사건직후국민들모두잘돌려보냈다고했다.반인륜적인극악한범죄자를받아들이는건국민정서상용납못한다.인권을따진다면사형제도가없어야한다.무덤이있는곳엔이유가있듯이인권을따지는이유를밝혀라.</t>
+  </si>
+  <si>
+    <t>군대도 안갔다온 새끼가 야만을 논하다니... 토 나온다</t>
+  </si>
+  <si>
+    <t>하다하다... 자한당 써글놈들이 북한인권운운하면 태클걸고 자빠졌네.</t>
+  </si>
+  <si>
+    <t>지들이 가겠다고 했다며...중이 잘이싫으면 떠나는거 당연한거 아니냐. 언제부터 자한당에서 북한인민들을 챙기셨다고 그러시나...니들 정권때..6.25참전용사가..헌국포로 할아버지..대사관 기집년 통화 잊혀지질 않는다..니들이나 잘해..</t>
+  </si>
+  <si>
+    <t>귀순자를 북송을 하든 잡아다 국을 끓여 먹든 왜구들이 왜 남의 나라 일에 상관하냐? 교활이는 니들 본국 걱정이나 해.</t>
+  </si>
+  <si>
+    <t>황교안  이 빨갱이식키</t>
+  </si>
+  <si>
+    <t>항교안 나경원 살인자를 받아준다고 넌 어느나라 사람인고 \n죄을 지은사람을 한국에 살인자는 한국에서 추방해야 맞다 황교안 억지좀쓰지마라 제발\n국민들은 한국당 지지하지 않는다 총사퇴는 언제하나요</t>
+  </si>
+  <si>
+    <t>죄짓고 미국으로  도망가봐라.. 미국에서 살겠다고 해도 우리나라에 보내지.</t>
+  </si>
+  <si>
+    <t>그럼 안 보내면  우리라에서 잘살아보라고 풀어주리?</t>
+  </si>
+  <si>
+    <t>16명 운운은 .......  메시지로 몰래하려던 강제북송이 들통나자 ........  문재인 정권이 일방적으로 우긴거. ......  거기에서부터 문제가 있는거</t>
+  </si>
+  <si>
+    <t>16명이나 죽인 살인마를 면죄부를 주고 받아주면 우리 세금으로 저 살인마들을 먹여살리라고?</t>
+  </si>
+  <si>
+    <t>아무리 여당을 지지 한다 해도 이건 좀 아닌것 같아요</t>
+  </si>
+  <si>
+    <t>당신은 싸운다 싸운다 말만하고 머리깍는정도로  강성임을 자임하지만  실은 너무약해빠졌다 필패다!\n거기에 준표처럼 내부총질만 하는 양아치도 한국당 필패의 앞장서고...모두 먹고살기위해 자기 배만 채우는떳떳치 못한  불쌍한 인생들이다  모두 국개 다    전광훈 목사는 목숨걸고 싸우는데 지원이 넘 없고 몸만 사린다    이율배반의 극치다</t>
+  </si>
+  <si>
+    <t>그래도 대한민국에서 안보를 걱정할려면 최소한 다녀와서 말씀하세요 그게 올바른 보수입니다.</t>
+  </si>
+  <si>
+    <t>거럼 그놈들 데려다가 황교환이와 같이 살게 해줘라~~~~~..누가 12명이나 살인한 자들과 어울리겠는가...북한으로 보내는게 최선이다...</t>
+  </si>
+  <si>
+    <t>인권변호사 OOO.라.그래</t>
+  </si>
+  <si>
+    <t>머저리들은 정책도 없고 전략도없고 무조건 우기는것밖에 없지 ㅡㅡ</t>
+  </si>
+  <si>
+    <t>니가 군대갔다온 정상적인 인간이라면 얼마나 좋았을까.  북괴군과 맞서는 것이 무서워서 담마진 걸린 주제에 말이 많아.  거렁뱅이 같은 녀석</t>
+  </si>
+  <si>
+    <t>\조국 같은 불의한 자?~~..참,,여물먹던 소가 요절복통 하겠다,,나중에 나,황 너거 둘이를 조국 처럼 이잡듯이 캐면, 그나마 조국은 좀도둑 이었구나,,할거다,,\"자유민주주의 라는 말은 니 입으로 할수 있는 말이 아니다~~.."</t>
+  </si>
+  <si>
+    <t>하하하   공안검사출신이   ㅎㅎㅎ  우리국민 간첩누명씌워서  간첩만든것이   공안검사들인데   16명죽여서  추방한건데  ㅋㅋㅋ아이고  교활아   웃기지좀마라  이석기도  솔직 난  누명이50% 이상이라고본다</t>
+  </si>
+  <si>
+    <t>왜 살인자를 옹호하나 왜 살인자를 보호하냐 이건아니다 달창들를 비판하면서 달창들과 같이행동하냐 그러면 너희가 달창들과 뭐가 다르냐 언제 정신차릴레 너희 때문에 우리 보수가 죽어가고 있다는걸 언제 깨다를레 이 일베간은당아</t>
+  </si>
+  <si>
+    <t>이춘재  14건 살인사건 \n 풀어줘라  인권으로다</t>
+  </si>
+  <si>
+    <t>자국민 인권이나 생각해주라. . 교활아. .\n 16명 죽인 살인마 한국 교도소에서 국민세금으로\n 먹이고 입히고 해야하냐. .</t>
+  </si>
+  <si>
+    <t>자한당 찍을건데? 요새 문재인빨면 욕먹어</t>
+  </si>
+  <si>
+    <t>밥상차려줘도 못 먹는 바보당~ 해체해라</t>
+  </si>
+  <si>
+    <t>ㅋㅋ 조작여론업체가  문씨정권한테  잘보일려고 열일하네</t>
+  </si>
+  <si>
+    <t>정상적 사고를 한다면 자한당을 어떻게 지지하지? 매번 국가발전에 해악 반드시 필요한 법개정 혹은 만드는것에 발목잡기!  존재 자체가 피곤하고 분노유발을 너무 자주함!</t>
+  </si>
+  <si>
+    <t>황교안 ㅋㅋㅋㅋㅋㅋㅋㅋ 대통합은 박근혜 내각제 만큼 뻘소리...</t>
+  </si>
+  <si>
+    <t>자한당이 과하게 악마프레임 씌워진게 팩트다. 이놈 저놈 같다고 쳐도 민주당이 더 나빠보인다. 기득정당이되면 어쩔수없는듯하고 자한당은 바보같이 그러려니하지말고 의혹이나 과포장된거 낱낱히 걸고넘어가라. 나경원 아들문제도 조국이랑 비교하는건 누가봐도 어거지다. 너무 답답함. 황교안 계엄령건 의혹도 그걸 참고있냐고 에휴 ㅠ 진보들 처럼 선하게 포장도하고 언플도하고 좀 제발. 이댓 쓰는 나는 맹세컨데 자한당 지지가 아님. 근데 이건 해도해도 정말..</t>
+  </si>
+  <si>
+    <t>엿가락  맘대로 주문제작 여론조사</t>
+  </si>
+  <si>
+    <t>제발 사라져라 일 안할거면 나랏일하지말고 사업해서 혼자망해라</t>
+  </si>
+  <si>
+    <t>리얼미터  야 ㅡ\n여론조사  나에게  물어봐\n조작여론 조사 하지마  ㅡ</t>
+  </si>
+  <si>
+    <t>문재인이 조국건으로 나 잡아잡수쇼 하는 상황인데 자한당은 국정농단 공범을 당대표로 세워다가 기회도 못잡고 지지율 다 놓치고 있다 니들이 민주당보다 더 무능함</t>
+  </si>
+  <si>
+    <t>친박하고 자유한국당 같이 소멸 할 것이다.</t>
+  </si>
+  <si>
+    <t>아직도 문재인 빨아주는 뇌빠진것들이있냐???</t>
+  </si>
+  <si>
+    <t>한국당이나 민주나 둘다 ㄷㅅ들인데..어디 찍을당이 없네..</t>
+  </si>
+  <si>
+    <t>믿고 거르는 리얼미터</t>
+  </si>
+  <si>
+    <t>저건 누가봐도 안믿음 민주당이 왜 39 프로냐?  절대 두당 지지 하지 않는다 했는데 왜 이럴까? 리얼미터 산하기관들 진짜 해도 너무했다 새꺄</t>
+  </si>
+  <si>
+    <t>20%대도 과하다 자유일본당...</t>
+  </si>
+  <si>
+    <t>아직도 20%씩이나 개.돼지 들이 있는겨..세월이 지나도 저 노예 색히들은 안변한다니까...문정부 2년 반동안..민생을 위해 한일이 한개도 없다는 욕사상 최악의 자한당 들이다...닝기미...경제파탄..국민들 다죽는데..아직도 정신못차리는 색히들...</t>
+  </si>
+  <si>
+    <t>이거다 다 조작이다  아니 뭐 가난뱅이들이야 몰라도  중도층이라함은  자기집있고 차있고 먹구사는데 지장없는 분들인데 그런분들은 대부분 배운분들이다  그런분들이 정의로우신데  당연히  청념애국안보정당 자유한국당을 지지하지  그럼 어딜지지한다는 말인가?</t>
+  </si>
+  <si>
+    <t>황나베 로 총선하면 완패 하것은 자명한 일이다? 아담 스미스에 국부론으로 총선을 치른다는게 말이나 되냔 말이다? 국부론 공부하는 대학생들보고 국부론을 가지고 총선 하라고하면 황나베 보다 백배는 잘할것이다? 황나베 는 평생을 공안검사로 세모로 성공한사람이 자한당에 좌장이 되었으니. 쪽바리새끼 추종자들 참 사람볼줄 모른다고 생각한다? 빨리 황나베 끌어내고 비대위로 가는길이 보수에 유리할것이다? 황나베 는 친박 눈치 비박눈치 유승민 안철수 눈치  공화당 눈치 김무성 홍준표 눈치 눈치보다 끝난다? 황나베 떠들어봐야 민폐다? 지식이 없으니</t>
+  </si>
+  <si>
+    <t>리얼미터냐.. 나는 리얼미터보다 유튜브에서 자유의창이나 한국인의 진실같은 채널에서 길거리 조사를 더욱 믿는다.</t>
+  </si>
+  <si>
+    <t>지지율 조사는 ㅋㅋ뭔가 문제가 있어 재인이 지지율만봐도 그렇구</t>
+  </si>
+  <si>
+    <t>전화와서 한국당 지지한다고 했더니 바로 끊어버리더라</t>
+  </si>
+  <si>
+    <t>민주당의 삽질이 있을때마다..  자한당 지지여론은 약간은 반등이 있을지 모르나.. 근본적 해결은 되지 않는다..  그것은  아직 자한당이... 기득권을 버리지 못하고. 보수 통합을 이루지 못하는것이다...  현정권 반대 진영이 모두 뭉치는것이 보수 통합이 아니라.. 탄핵과 광주민주화운동 부정세력을 공화당으로 내몰고.. 중도층을 끌어 안아야  보수통합이 되는것이다..  황교안은 그정도 리더쉽도 역량도 부족하다.. 새로운 리더가 절실히 필요하다~</t>
+  </si>
+  <si>
+    <t>믿을수없다대구 갱북 포함10퍼 미만이다ㅎ 꼰대들아</t>
+  </si>
+  <si>
+    <t>민주당 자한당 지지율 비슷할때는 여론이 뒤집어졋다 이카다가 ㅋㅋ 격차 벌어지니 여론조작이다? ㅋㅋㅋㅋ 민주당 ㅈ같은데 개누리당 못찍어 ㅋㅋ 센세이션 불러올 3세력이 없냐? 결선투표제 부터 통과시켜야 뉴페이스가 비집고 들어오지. 양당 고인물 계파 광신도 정치에 우리는 지쳤다.</t>
+  </si>
+  <si>
+    <t>자한당은 영남 자민련으로 갈듯... 박근혜 치마폭이 그리좋은지 벗어나지 못하네....</t>
+  </si>
+  <si>
+    <t>■ 美, 다시 韓의 통신업계 反화웨이 요청 &amp;amp; 화웨이장비 도입한 EU 비난D\n★ 리셉션에 참석하지 않은 LGU+\n리셉션엔 공교롭게도 국내 3대 이통사 중 LGU+만 빠졌다.\nLGU+ 관계자\n美 대사관 만찬에 참석해달라는 초청이 들어왔지만 임원의 일정상 참석하지 못했다\n■ 지소미아 파기 &amp;amp; 日 수출규제 자살골 文\n■ 文 총선 경제폭망/무능/실패 → 反日/김정은 답방/朴 석방/中人 韓 이민 → 必大勝 文 심판\n■ 文 종북좌파독재 → 北 비핵화 不 연방제\n■ 文 5.18 명단 까 ■ 反中親美 LGU+ 불매\n■ 文 퇴진 공수처 연동형 파기</t>
+  </si>
+  <si>
+    <t>● 출근도 안하고 막말만 하고 국회 폭력에 자녀취업 의혹에  월급만 받아가는 친일 정치집단은 국민이 퇴출 ●</t>
+  </si>
+  <si>
+    <t>배반자 같이 가면 뻔한 일 잘해 보라구.</t>
+  </si>
+  <si>
+    <t>자찍이다,, ㅆ]발 놈들아,,</t>
+  </si>
+  <si>
+    <t>리얼조작미터!</t>
+  </si>
+  <si>
+    <t>자유당이  한심한  꼬라지인것은 인정하지만 민주당 독재를  막을 대안 있나. 일단 총선만 자유당 손 들의주고 더 지켜봐야지.  자유당이 한심하다고 민주당이 잘 한다는게 아님.</t>
+  </si>
+  <si>
+    <t>ㅋㅋ 리얼미터 인줄알았다</t>
+  </si>
+  <si>
+    <t>기성 세대 절멸</t>
+  </si>
+  <si>
+    <t>차려줘도 못먹는 등심들.....</t>
+  </si>
+  <si>
+    <t>문재능ㆍ조국 정치 잘하니까 ㅡ지지율 99%   ㅋㅎㅎ</t>
+  </si>
+  <si>
+    <t>좇국뽑아놓은거보면 참잘하구잇어^^더민당 ㅋㅋㅋ 내년에는 지지율 100%라해라 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>오합지졸들 ㅎ</t>
+  </si>
+  <si>
+    <t>아직도  정신병자들이 많네..</t>
+  </si>
+  <si>
+    <t>ㅋ 나경원 황교안 미끄덩 미끄덩 재미있겠다</t>
+  </si>
+  <si>
+    <t>리이이이이얼 미터~</t>
+  </si>
+  <si>
+    <t>통합 뻘짓하니</t>
+  </si>
+  <si>
+    <t>tk왜구와 일베 노인들이 그렇게 많나?</t>
+  </si>
+  <si>
+    <t>20프로대?\n이런 당을 지지하는 사람들이 20프로나 된다고?</t>
+  </si>
+  <si>
+    <t>황교안이가 하는 짓이 헛발질하고 있으니 \n중도 지지층들이 싫어 하지..황교안과 박근혜\n지지 국회의원들을 모두 내보내라...</t>
+  </si>
+  <si>
+    <t>관망파인데    일잘하는  정당에지지한다.   비리를 얼렁뚱땅넘어가려는 자를   보호해주는당도 .  무조건당선만   돼면가서   깽판치고   일안하면   국민은   무기가  표밖에없다.   느그들까지   넣어서  공수처법   통과시켜라.  상위5퍼센트에   해당돼는법을    안하는것은   뒤가  구리니까.   안할려고하겠지</t>
+  </si>
+  <si>
+    <t>유일하게 할 줄 아는게 국내에서 선동하는건데 경제, 국방, 외교에서는 그게 안통하니까 무능함이 드러나는거지~</t>
+  </si>
+  <si>
+    <t>문재앙의 한 번도 경험해보지 못한 나라 1. 안보 초토화(한미동맹파기) 2. 경제 초토화(디플레 돌입 초읽기) 3. 미래 초토화(저출산 세계 1위 이미 달성)</t>
+  </si>
+  <si>
+    <t>재앙아 지소미아 종료 이후에 퍼펙트 스톰이랜다. 중국몽, 중국똥파리가 중국도 못감당하는 미국에 대항해서야 되겠냐</t>
+  </si>
+  <si>
+    <t>문재인 정부 외교의 결과가 참으로 비참하다, 가는 곳마다 밟히고 깨지고 국민들이 함께 창피해하며 하루하루를 견디고 있다, 이미 예상된 일이었지만 역시나 주사파 운동권 정부의 말로가 보이는 것만 같아 애잔하다, 그보다 이 나라가 더이상 망가지는 일은 없어야 할텐데 정말 걱정이다, 한번도 경해보지 않은 나라_국민이 날마다 나라를 걱정해야 하는 나라가 되어버렸다. 오늘 슬프다^^</t>
+  </si>
+  <si>
+    <t>고민되면 그냥 떄려치고 내려와</t>
+  </si>
+  <si>
+    <t>얼마나 외교를 못하면 미국까지 우리는 무시하고 일본편들고... 북한하고 평화만 외쳐대다가 주변국한테 모조리 왕따만 당하고 있네... 도대체 어디까지 무능한거야??? 정말 답도없을정도로 무지하고 무능한인간... 그리고 이런와중에도 잘하고 있다는 문빠들... 이러니 우리나라 수준이 아직 이러지...</t>
+  </si>
+  <si>
+    <t>도대체 누구를 위해서 지소미아 파기를 결정한거냐? 아무도움도 안되는 결정하고 지금까지 전전긍긍.. 모든 분야에 걸쳐서 무능함을 보여주는구나..</t>
+  </si>
+  <si>
+    <t>아니 그럼.. 지소미아 파기한다고 하면 미국은 뒷짐지고있고 일본만 아둥바둥 어쩔줄 모를줄 알았냐? 결국 미국이 개입하고,, 일본은 미국 뒤에서 한국이 어찌하나 구경할거고 한국만 제 목을 조르게 되는 상황이 올 거라는 삼척동자도 알만한 단순 계산도 못하고 대통령 놀이나 하고 있으니 나라가 이모양 이꼴이지 ㅉㅉㅉ</t>
+  </si>
+  <si>
+    <t>쪽팔리더라도 실리적 외교를 했으면 합니다. 좋든 싫든 미국과는 절대 대립하면 안됩니다. 한미일 vs 북중러 이게 현실입니다. 이 대열에서 이탈하면 미국 말처럼 상상할 수 없는 파장이 옵니다....   광해군이 비록 쫓겨났지만.. 외교만큼은 참 잘했지요...   부디 국민들을 위한 현명한 판단을 하시길....</t>
+  </si>
+  <si>
+    <t>일단 종료한다고 질러놧으니 일본 태도 변화 없이는 그대로 가야겟는데 미국 압박 들어오니 난처하지 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>댓글들 보면서 드는 생각은..지금이라도 전교조,민노총 새끼들을 뿌리뽑아버려야 된다는것</t>
+  </si>
+  <si>
+    <t>진짜 지소미아 파기는 최악의 자충수....진짜 할줄 아는게 선동밖에 없으니 저 꼬라지가 난거지..쯧쯧</t>
+  </si>
+  <si>
+    <t>나라와 국익을 생각해라~ 똥고집 피우다가 나라경제 안보 경제 다 무너지고 문죄인 너도 끝장난다 왜 애시당초 판도라의 상자를 열었냐 반일하면 너 살줄 알았니</t>
+  </si>
+  <si>
+    <t>고민? 쩝접 거리며 초밥 처먹고 있겠지. 무슨 고민이냐..</t>
+  </si>
+  <si>
+    <t>지소미아 일본이 경제전쟁 종전하지 않는이상 절대로 연장하면 안된다. 미국은 왜, 일본이 원인제공 했음에도 일본에 경제전쟁 끝내라 압박하지 않고 우리에게 지소미아 연장만 요구하는가? 우리가 그렇게 만만하냐?! 일본이 먼저 풀지 않는이상 어떤 경우라도 안된다고 해야할것이다!!</t>
+  </si>
+  <si>
+    <t>가장이란 어떤굴욕도 가족을 지키기위해서 참아내는법, 지소미아파기하면 미국의신뢰를 얻지못하고 한미일  동맹이 파기되면 국가신용도가 떨어집니다 ,  수출로먹고사는 나라인대  심사숙고하시고 국가를 위해서  현명한 판단을 내려주세요 ,</t>
+  </si>
+  <si>
+    <t>능력도 없는 것이 똥고집만 오지게 있네</t>
+  </si>
+  <si>
+    <t>일본이 한국의 우방임을 입증하지 않으면 잠재적인 적국에게 군사정보을 넘길수는 없지요?\n선결조건은 일본이 한국의 우방이여야 한다는것이다.</t>
+  </si>
+  <si>
+    <t>좌파 주사파운동권 정부 싹다 물러나라</t>
+  </si>
+  <si>
+    <t>세월호, 5.18, 적폐 청산 선동은 국제 관계에서 안 먹히죠. 착한 척, 정의로운 척 해봐야 소용없어요. 문무능이라 불러주세요.</t>
+  </si>
+  <si>
+    <t>선빵날린 일본은 태도변화가 없는데 맞은 우리나라가 왜 지소미아를 연장해주남. 미국 정치인들도 똑똑하지 못하네</t>
+  </si>
+  <si>
+    <t>밀고 나가라.  지난 과거 가지고 장난 놀 때는 언제고    미국도 방위비로  가지고 노는데  협상으로  이끌어 내지  못하면  그냥 밀고가라. 방위비 계속 압박하면  러시아 전투기 사고   감축하라고 하고.</t>
+  </si>
+  <si>
+    <t>더불어공산당   속마음은 일본,미국과  결별하고 중화권에  편입하여 사회주의국가 건설이 목표인데, 대놓고  말은 못하고  미국,일본이  스스로 한국 버리기를 바라고있다. 이런 맥락에서  일본에게 하는행동보면  명확히 보인다.  그런것도 파악못한 국내의 개돼지들은 일본타도 외치는것이 애국인양  착각하고있다.  미,일본이 없다면 적화는  시간문제이다. 이것이 더불어공산당 의 목표다.</t>
+  </si>
+  <si>
+    <t>문통은  흔들리없이  대한민국  자주권을  행사하라!!   아베는   지금  미국을  이용하여  삼페인 마시면서  느긋하게  즐기고있다!!  \n지금  물러서면  당신은  대한민국  대통령을  포기한것입니다!!</t>
+  </si>
+  <si>
+    <t>이웃집이랑 싸우다가 갑자기 칼로 손목긋고 자해한꼴이다 이웃집 사람은 이상한 사람 취급하고 문틀어잠구고 대화 거부, 신고받고 나온 경찰은 손목그은곳 치료하라고 하지만 이웃집 사람이 사과하지 않으면 치료하지 않겠다고하는 기가막힌 상황</t>
+  </si>
+  <si>
+    <t>처음부터 종료선언 하지를 말던가 했으면 애초 의도대로 입장을 고수해야 한다. 여기서 돌이키면 국격은 실추되고 그야말로 웃음거리 ㅂ ㅅ 같은 나라가 된다.</t>
+  </si>
+  <si>
+    <t>주변에 모자란 인간만 가득하고 본인은 더 모자라니 모자란 소리 듣고 모자란 짓 하지. 지소미아 파기가 이용해 먹을 카드라고 생각하는 수준의 쓰레기들을 데리고 정권운용이 되니 신기하다. 저런걸 지지하는 쓰레기들이 40%라니 여차하면 준비 해둔 나라로 이민 가는 수밖에.</t>
+  </si>
+  <si>
+    <t>미국이 주는것 보다는 받을려는것만 있네. 미군도 이제 짐싸야 될듯하다.</t>
+  </si>
+  <si>
+    <t>문재앙이 북괴간첩이 아니라면 지소미아종료를 취소하고 다시 연장해야한다. 지소미아가 최종 파기되면 주한미군 감축 및 철군으로 이어질 가능성이 충분하다. 북괴가 바라는것이 바로 그것!</t>
+  </si>
+  <si>
+    <t>한일관계에 왜 우리가 고심하죠? 쟤네가 문제 일으켰으니 쟤네가 해결하라고 합시다. 지소미아 역시 동일 선상이죠. 괜히 쓸데없는 일에 신경쓰지 맙시다. 다른 일도 바쁜데</t>
+  </si>
+  <si>
+    <t>멍.........청한 대똥령이 지가 지발등 찍은격</t>
+  </si>
+  <si>
+    <t>토착쪽바리색히들 신경쓰지마시고 원칙적으로 하세요. 한국을 적국으로 간주한 쪽바리와 무슨 군사정보를 교류합니까? 한국을 일본의 식민지로 만든 가쓰라테프트 밀약도 미일 두나라입니다. 지금부터라도 자주국방하세요.</t>
+  </si>
+  <si>
+    <t>일본과의 경제문제를 안보와 연관시켜 일만 커지고 뒷수습은 못하고. 저렇게 한가하게 배부른 짓이나 하고 있으니 미국에서 5조원짜리 청구서가 날아오지. 암튼 재앙이는 머 하나 제대로 하는게 없고, 부작용 같은 거 사전 인지도 못하는 빡 대가리야.</t>
+  </si>
+  <si>
+    <t>病           身 같은 게, 간단하게 풀 수 있는 문제를 순전히 지 자존심 앞세우다가 국민 전체 개돼지 만들고 결국 동맹국한테도 무쓸모 취급받으니 좋나? 이게 다 니 때문이다.</t>
+  </si>
+  <si>
+    <t>홍콩 문제는 한마디도 못하는 겁쟁이 문통ㅇ이 중국가서 쳐 맞을 까바 !!!\n완전 쫄아 벌벌떨고 일본놈들에게 지가 갑인줄 알고 까불다가 !!! \n외통수 걸려가꼬 ㅋㅋㅋㅋㅋㅋ니꼴이 주인잃은 개같구나</t>
+  </si>
+  <si>
+    <t>그 재앙만 일으키는 .....  빡대가리로 고민해 봤자지 ..... 경제 외교 정치 ..... 머 하나 제대로 된게 있어야 말이지\n.... 에혀</t>
+  </si>
+  <si>
+    <t>정권의 이익보다 국익을 앞세워야 함은 지도자의 당연한 의무입니다. 노무현도 정권의 이익보다 국익을 위하여 한미FTA를 체결하고 제주 해군기지를 건설하였습니다. 그러나, 문재인은 여전히 국익보다 정권의 이익을 앞세우기 바쁩니다. 값싼 선동에 속아 저런 자를 선택한 우리 국민이 한없이 불쌍하기만 합니다.</t>
+  </si>
+  <si>
+    <t>내정간섭 수준.....대한민국을 지들의 속국으로 아는 미국과 일본......이명박 박근혜 외교의 결과인 것 같다......지소미아와 방위비 협상은 별개.......방위비 협상과 미군 철수도 별개.......대한민국에 주둔하고 있는 미군 철수하면 실업자 된다......평택기지 같은 곳을 공짜로 제공하는 나라 전세계 어디에도 없다.</t>
+  </si>
+  <si>
+    <t>지소미아 종료 지지. 이번에 번복하면 열강에 굴복하는 또다른 치욕을 역사에 남기게 된다.</t>
+  </si>
+  <si>
+    <t>문재인씨~~ 지소미아 파기는 전략적판단이 우선 입니다. 일본 싫으니까 파기!! 국가간 협약을 그런식으로 파기하는건 후진국 대통령이나 하는 짓 입니다. 노무현이 그렇게 안 가르쳤을 텐데?</t>
+  </si>
+  <si>
+    <t>문재인은 지소미아 관련 고만 안합니다.  아베 앞에서 무룹 조아리고 쇼한번 했으니, 고민 안합니다.  고민하는 그런 수준이 아닌 개대가리 수준입니다.</t>
+  </si>
+  <si>
+    <t>일본이 우리를 자기네 안보 위협국가로 지정했다... 그런 일본이 우리와 군사정보협정 유지를 요구하고 있다.. 미국이 할 일은 우선 일본을 설득하는 것이다... 우리에게 일방적인 희생만 강요하는 미국... 미국은 더 이상 우리의 우방이 아니다. 주한미군도 미국의 이익이 있기에 주군하는 것이다. 강도 같이 5배 돈 강탈하려는 미국</t>
+  </si>
+  <si>
+    <t>▶ 국민 여론이 이렇게 압도적인데 뭘 고민하는가 ? ▶문재인 대통령은 국민의 대표인가 ? 미국의 신하인가 ? 국민 뜻대로 지소미아 절대 다시하면 안된다 ▶ 미국에게 자꾸 압박하면 주한미군 철수 여론 생기니 조심하라고 해라 ▶ 평택기지에서 쫓겨나고 싶지않으면 한국인들 자존심 자꾸 건드리지 말라 미국에게 꼭 전해줘라 ▶</t>
+  </si>
+  <si>
+    <t>복잡하다고? 그거 다대부분 문재인 니가 만든작품들이잖어 무능하고 무식한 어리버리 퉤!통령</t>
+  </si>
+  <si>
+    <t>목숨을 걸고 탈북한 주민을   안대씌워 북송시킨  자칭  인권변호사출신  문재앙이가  할수 있는건  핵돼지 지령에 충실히 수행하는  주사파종자일뿐</t>
+  </si>
+  <si>
+    <t>미국한테도 죽창 어쩌고 해봐라 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>역사적으로 중국 러시아에 붙은 나라는 북한처럼 다 가난하고 착취당하고 특권층 1%인 김정은 3대 독식 독재 살인 백두혈통과 주변 딸랑이들이 부를 거머쥐고 인민은 굶겨죽이고 수 많은 사람들을 민주 노동자를 위한다며 문제인이 그토록 원하는 공수처같은 보위부를 세워 입맛에 맛지않는 정치적으로 껄끄러운 자들을 제거했다 죽였다.    문씨 일당이 나라를 더이상 망쳐놓지 않도록 국민이 저지해야 한다.</t>
+  </si>
+  <si>
+    <t>뭐야...뒷수습도 어떻게 할지는 당연히 다 준비하고 있는건줄 알았는데 아니었어?ㄷㄷㄷㄷㄷ이건 뭐.....정말 할말이 없어요..어쩔려구 그러지..????? 결국 자기손으로 대한민국의 국제사회로의 동아줄을 한개씩 다 끊어버릴 심산인듯....대한민국의 파멸이 이양반의 목적인가.....????</t>
+  </si>
+  <si>
+    <t>처음엔 국제적으로 호소해서 일본이 부당한 조치를 했다는걸 증명하겠다고 여론몰이 했지?근대 국제적으로 어떻게 됐냐?우리편이 없지?왜그럴까?어쨌든 이미 합의하고 끝난걸 일방적으로 뒤집고 파기한게 우리라서 그런거다 여기서 이미 시비는 가려진건대 표팔이 하느라고 국내언론만 동원해서 반일몰이 하면서 버팅기다가 이 사단이 난거고 말이다 간경화 얼마전에 하는소리 못봤냐?지소미아 파기가 북한 중국에 이득이 된다고 인정했지?그리고 우리가 무슨 득을 보냐니까 한마디도 못하는거 못봤냐?bbal갱이 3ki들아</t>
+  </si>
+  <si>
+    <t>미~~~~~~~~~~~친~~~~~~~~~넘~~~~~~~~~~~~~~~징용배상  돈40억에~영혼까지  팔아쳐먹네~~~~~~~~~~~1</t>
+  </si>
+  <si>
+    <t>쪽팔리게 정치적 쑈로 일본에 구걸하지 말고 일제에 의해 고생하신 위안부 할머니들, 강제징용자들 정부에서 지원책 마련해 지원해 줍시다.  국제법도 아니고 국내법으로 외국자본 제한하는 정치적 쑈는 그만 했으면 합니다.</t>
+  </si>
+  <si>
+    <t>지소미아 연장은 이제 한미동맹의 유지에 기반을 둔 국가 생존의 필수이다. 지소미아를 연장시키면 한미동맹과 한일관계가 좋아질 것이다. 이는 곧 수출의존도가 매우 높은 우리 경제에 긍정적인 영향을 미칠 것이다.  반대로 지소미아가  파기되면, 한일 관계는 말할 것도 없고 한미관계마저 파국으로 치달을 것이다. 그러면 곧바로 우리경제에  핵폭탄 폭발로 작용할 것이고, 외국 자본의 탈출러시가 발생하면서, 미국의 영향을 받는 국제신평사들이 국가신용 등급을 대폭 낮출 것이고, 이내 외환위기로 치달으면서, 문재인 정권의 붕괴를 초래할 것이다.</t>
+  </si>
+  <si>
+    <t>지소미아 종료 하느냐 안하느냐가 문제인놈이 간첩이냐 아니냐를 판가름하는 시험지가 될겁니다 간첩의 역할중 미군철수도 중요하니까요</t>
+  </si>
+  <si>
+    <t>막말로 지소미아 종료 선언하기전에 우리 국민 대부분이 그런거 있는지도 몰랐을텐데, 타도일본 외치면서 반일 선동하면서 지소미아 종료 카드를 내밀었지만 오히려 그게 역으로 우리를 공격하고 있는 상황... 그리고 일본과 협상하자는 사람은 무조건 토착왜구란 이상한 신조어를 만들면서 죽창가 부를땐 언제고 총리부터 시작해서 대통령까지 일본총리한테 머리나 조아리고 있고... 물어뜯을 자신없으면 짖지도 마라~ 쪽팔리게 만들지말고...</t>
+  </si>
+  <si>
+    <t>북한의 개가된 한국대통령 문재인....</t>
+  </si>
+  <si>
+    <t>북한 살인돼지 지시에 따라..문재앙이 미군을 우리나라에서 철수시키려고 한다.... 지소미아를 종료시키는 이유가..바로 미군철수를 시키기 위해서다...문재앙이다..재앙..</t>
+  </si>
+  <si>
+    <t>반일할 때는 미국과 등질 계산까지 한 것 아니었나? 어차피 망했는데 단순무식한 문빠들 입맛에 맞게 반일·반미 자주노선 표방해서 아시아의 배내주일라 꼴 나보시지. ㅋ</t>
+  </si>
+  <si>
+    <t>동맹이란  친해서가  아니라  공통의 적이 있냐  없냐의  의미다.  북한이나  중국을  문정권이  적으로  보냐  안보냐가  한미  동맹의  유지를  가름하게  될것이다.  5년짜리  단임  정권이  나라의  기틀을  너무  흔드는것은  정말  문제다.   목숨이나 실리보다  너무  명분만  따지는것  보면  정말  유교의  나라같다는  생각이  든다.</t>
+  </si>
+  <si>
+    <t>북괴가 정상국가라 생각하고 짱깨의 속국이라 생각하는 삶은 소대가리가 고민은 개뿔</t>
+  </si>
+  <si>
+    <t>무능한 사람특징 황소고집 자존심강하고 누구와도 타협할줄모른다 자기주장만 할뿐</t>
+  </si>
+  <si>
+    <t>미군철수한다고  나오면  국민들에게 너는 맞아 죽어</t>
+  </si>
+  <si>
+    <t>이게 고민할 일 입니까? 5년짜리 정부가 그것도 2년반 남은 정부가 국가의 100년 대계를 바꿀려고 하는게 고민할 일 입니까? 이 좌빠 공산주의자 일당들아............................</t>
+  </si>
+  <si>
+    <t>치매 환자가 무슨 고민이 깊어지냐? 지소미아 파기 원하는 뻘갱이들 적와대 득실득실 있는데</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 문재인 내려오면 누구를 대통령 시키나? 설마 황교안, 나경원? ㅋㅋㅋ  그 성조기 들고 쪽빠리 편드는 늬들의 꿈이 그거냐? ㅋㅋㅋㅋㅋ 꿈을 참 야무지게   꾸고 자빠들졌네.</t>
+  </si>
+  <si>
+    <t>12.3 공수처법 부의(발의) 문희상예정,전국민이 집결 막아야 합니다.미친 주사파들 이게 나라냐!\nhttp://blog.naver.com/osy082200</t>
+  </si>
+  <si>
+    <t>자 이제 미국한테도 토착왜구 죽창들자 해보자 달창들아ㅎㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>조국구하기로 지소미아종료를 이용했음을 솔직히 시인하고 검찰 조사 받아라---죄인아----</t>
+  </si>
+  <si>
+    <t>이놈은 지소미아 종료시킬겁니다 그래야 미군이 떠나가고 그게 간첩 본연의 임무이기 때문입니다</t>
+  </si>
+  <si>
+    <t>문똥통은 고민 안한다...이미 파기하기로 임종석등의 주사파 지도부가 결정한거다....국민에게 사기칠 방법만 생각하고 있다...아마도 미국책임으로 미룰것...그 대표적 술책이 방위비 분담금을 높이기 위해서 미국이 압박한다고 있다고 여론전을 벌이는것...방위비가 목표라고 말하는 청와대의 선전선동에 속아서는 않됩니다...</t>
+  </si>
+  <si>
+    <t>이나라 대통령인지, 동네이장인지 분간 못하고 있다고 봅니다.5천만의 생명줄을 허접한 인간에게 맏겨지고 있다고 생각하니 분통이 터집니다.</t>
+  </si>
+  <si>
+    <t>탈북자도  ..누명씌워.....북으로   ...압송하는....문재인....간첩세력.....처형되야</t>
+  </si>
+  <si>
+    <t>남북으로 대치된 현상황에서 신중하게 판단하여야 합니다. 개인적인 판단으로는 월남이 어떻게 무너져 갔으며, 그러한 베트남이 어떻게 공산화 되었는지도 교훈으로 삼아야 할 것으로 보입니다.</t>
+  </si>
+  <si>
+    <t>근데 문슬람들아 하나 물어보자. 미국경제 보뵈 뒷감당은 할수있어서 계속 지소미아 파기 외치는거냐? 미국경제보복 들어오면 문재앙 바로 탄핵당할건데?</t>
+  </si>
+  <si>
+    <t>고민 깊어지는? 조국도  고민 했다면서 임명했지? 설마 이번에도 파기 하진 않겠지? 제발 국민들 맘편히 좀 해줘라~!!!</t>
+  </si>
+  <si>
+    <t>문재인대통령이 한,일 지소미아 폐기에 따른 미국의 전방위적인 압박에 벗어날수 있는길이 전혀 없는것은 아니다. 한국보다 미국이 더 한,밀 지소미아 연장을 요구하는 상황이기때문에 문재인대통령이 한,일 지소미아 연장 댓가로 한국도 일본과 같은 대우를 받을수 있도록 요구를 하는것이다. 쌓여만가는 핵폐기물을 재처리할수 있도록 해줄것과 1,000km이내로 제한된 미사일사거리 협정을 폐기하고 고체 연료를 탄도미사일에 사용할수 있도록 해줄것과 미국이 주기로한 군수무기 도입시 이양하기로한 군수무기 기술을 찌질하게 제한하지말고 줄것을 요구하면된다.</t>
+  </si>
+  <si>
+    <t>투표해 모르겠으면</t>
+  </si>
+  <si>
+    <t>터키  대통령은   드럼프가  압력넣었을때   미군철수하라고하고    앞으로  미국 전략자산대신   러시아제  미사일구매하는   강력한  자주권을행사했다!!  이후   미국은  꼬리내렸다!!</t>
+  </si>
+  <si>
+    <t>미군방위비올려달라는거랑 일본이 싫은건싫은거지 지소미아 파기하고 주한미군철수하라고 선동하는것들은 주사파 간첩이거나 그에 선동당한 무뇌 광신도들 아니냐..</t>
+  </si>
+  <si>
+    <t>당신이 싸지른 떵 당신이 치우시길...뭣땜시 씰데없는 떵을 싸질렀는지 모르겠다만....총선결집? 아님 좌파결집? 암튼 그로인한 고통은 오롯이 국민들 몫인거고...ㅉㅉㅉㅉ</t>
+  </si>
+  <si>
+    <t>나라 안보를 본인의 선동에 이용해서 아주 나라를 개박살 내주시는 우리의 무뇌 문가님..한나라에 수장이란 사람이 본인의 얄팍한 감정에 국가와 국가간의 신뢰를 무너트리고 국제 왕따가 되서 선진국은 가지도 못하며,가서도 혼밥이나 쳐드시고 동남아나 기웃거리며 신남방정책이라고 잘한다고 또 선동질..박대통령과 이명박 대통령이 이뤄놓은 성과에 자기가 한거냥 숟가락 슬쩍올려서 자축하고..국내질문은 받지않지만 위안부 문제에 대해서는 계속 물고늘어지며, 일본의 만행은 끝없이 외치지만 6.25를 일으키고 지금도 독재를 일삼는 북에대해서는 끝없이 관대함</t>
+  </si>
+  <si>
+    <t>문재인과  그 잔당은...공산주의.사회주의.북의 간첩행위를   하고있음이  틀림없다.....북괴.중국,러시아....공산당이...좋아할...안보파괴...중단하고...사법처리  받으라....!!!!</t>
+  </si>
+  <si>
+    <t>미군철수로 자주국방 이루자\n핵 개발하고 군사력 키우면 된다\n북한과는 평화조약 맺고  이제 미군이 없어도 되는 강한나라 만들자</t>
+  </si>
+  <si>
+    <t>일본이 미국때문에 마지못해 체결할거 같지? 미국이나 국제사회 시선은 문재앙 다 니 책임인거 다 알아.과거 문제와 외교를 감정적으로 지 지지율 끌어올리려 이용하니까 다방면에서 다굴처맞지 ㅉㅉ</t>
+  </si>
+  <si>
+    <t>국민들한테 반일 선동질 하다가 이제 미국에서 압박 들어오니 고민하는척 하는 모습 역겹다.</t>
+  </si>
+  <si>
+    <t>댓글들 뭐 그래 ㅋㅋ 다 좋다. 근데 이상적인 얘기들 집어치우고 현실적으로 미국 일본 등한시하면 앞으로 대한민국에 번영은 없다. 매국노라고 욕해도 좋은데, 후대가 평가하겠지. 지금의 우리나라의 번영은 굳건한 한미동맹 아래 안보가 보장되서 위태롭긴하지만 평화가 유지되었고 우린 혜택을 받았다. 일본 역시 우리의 성장에 도움을 준건 맞지 않나? 역사적 갈등은 언젠가는 해소해야겠지만 현안의 어려운 문제들을 위해 잠시 갈등을 봉합하는 것 역시 지혜로운 지도자의 몫이다. 한미일 / 북중러 이 신 냉전구도에서 우리가 이탈하는 순간..번영 끝</t>
+  </si>
+  <si>
+    <t>미군은 한국내정에 간섭하지마라!!!  미군은 ㅇ너희나라로 돌아가라!!!  미군철수 찬성....</t>
+  </si>
+  <si>
+    <t>문어 대가리가 하는일이 맨날 검토 중 고민중 고심중 ㅉㅉㅉㅉ 저걸 대통령이라고 뽑은자들 반성문 글자 크기 4에 띄어 쓰기 없이 30장 임기말 까지 매일 써야 한다 ㅉㅉ 쩝</t>
+  </si>
+  <si>
+    <t>만약 우리가 지소미아 종료를 철회하면 세계의 조롱거리가 될 것이고 국민의 자존심은 나락으로 떨어질 것이다. 그리고 한국당은 정부를 이 기회로 개처럼 물어 뜯을 것이고 결국 문정부는 그 것으로 탄핵 될 것이다.</t>
+  </si>
+  <si>
+    <t>미국 대통령이 와도 지소미아 연장을 해서는 않된다.</t>
+  </si>
+  <si>
+    <t>고민할거 없다 능력 안되는 자리에서 내려오면 돼</t>
+  </si>
+  <si>
+    <t>안보우려국이라고 수출을 금지하는데 어떻게 군사정보를 교환해 이 상식없는것들아. 미국은 억지 그만부리고 꺼져라.</t>
+  </si>
+  <si>
+    <t>분명하게 no를 외쳐야 방위비 문제도 함부로 하지 못한다. 두가지 모두 양보할수 없는 사안이고 태극기 성조기들고 트럼프 각하, 아베 수상님 외치는 노인들 신경쓰지 말고 굳굳하게 나가야 한다.\n노인들 일본 재제에 겁먹고 우리나라 망한다고 데모하던때가 바로 얼마 전이고 우리가 잘 이겨내는걸 보여주었다.외국의 힘이 없어도 이제는 스스로 지켜나갈수 있다.언제까지 주변국들 미국 중국 눈치보며 살아갈 것인가.침략적이지 않고도 자존감을 지닌 우리나라가 되었으면 좋겠다.</t>
+  </si>
+  <si>
+    <t>헐~~~~~~언제는 우리가 미국에 대우받은적 잇엇나?  새삼스럽게 문(통)이 대접을 못받는다는 논리는 뭐야?   오히려 당당하게 지소미아 종료결정을 내린 문대통령이 자랑스럽다~~  무능같은소리하네 ~~ 미국이 하라는대로 하는게 무능이지 ~~~ 자기결정권을 가지고 내린 지소미아 종료결정을 무능하다고 하는 무뇌아들은 대가리에 뭐가 들은거지?</t>
+  </si>
+  <si>
+    <t>어쩔수 없는 선택   ,,,,,질질 끌여다닐순 없지,,,,,,,,일본한태 굴복하면  웬지  식민지 시대로 가는 느낌</t>
+  </si>
+  <si>
+    <t>고민 깊히 하지 마십시오. 원리원칙대로 처음 뜻했던대로 밀고 나가십시오. 일본과 미국 양아치들의 협박과 협잡에 무슨 고민을 하신단 말씀입니까?</t>
+  </si>
+  <si>
+    <t>미국은 일본에 수출규제 철폐하고 한국에 사과하라고 압력을 가해라!. 그리고 할머니들과 징용자분들께 사죄하면 지소미아 연장한다고 전하라 해라!</t>
+  </si>
+  <si>
+    <t>지소미아 없을때는 도대체 어떻게 살았냐? 그냥 지금 이대로 살자 뭘 자꾸 하라마라 그러냐 미국넘들아</t>
+  </si>
+  <si>
+    <t>댓글보니 로그인 하게 만드는구나. 지소미아가 뭔지 언제 어떻게 생겼는지 알기는 하고 하는소리인지 모르겠다. 쥐박이가 하려다 못한거고 닭이 기습적으로 처리한거야. 그리고 쪽바리들은 의미있는 정보 제공이 2건에 뿐이고 주지도 않는데 우리만 좋은정보 지금까지 줬어 그러니 쪽바리들이 정보받을때 없으니 난리치는거고 뭐 좀 알고 까던가. 무조건 정부 까는 인간들 생각이 없는건지 태생이 쪽바리 인지 모르겠다.</t>
+  </si>
+  <si>
+    <t>지소미아 종료와 더블어 우리나라 국익이 대폭 줄어들 것이다. 우리나라 차량, 철근 관세 최대한 끌어올려질 것이고 국민소득 15000불로 떨어질 것이다. 하지만 민족 화합, 친일 숙청을 위해서는 언젠가는 고난의 행군이 필요하다...</t>
+  </si>
+  <si>
+    <t>미국에서 진짜 중국사드보복 그딴거 명함도 못내밀 수준의 국가적 압박을 해야한다. 예를들어서 '너희 정부가 지소미아를 파기하면 미국과 단교하겠다는 것으로 간주하고 모든 무역을 끊겠다' 이런식으로 해야된다</t>
+  </si>
+  <si>
+    <t>이게 주댕이 정치의 민낯인거야...</t>
+  </si>
+  <si>
+    <t>한 나라의 정책을 좌지우지하려는 작태는 어떤 우방이라도 용납할 필요가 없다. 소신껏 밀고 나가라. 그것이 국민들의 자긍심을 높이는 것이다.</t>
+  </si>
+  <si>
+    <t>아직도 안했어?????? 대체 일본 원숭이랑 먼 정보를 교환한다고. .우리의 주적은 북한이지만. 그전에 일본도 포함이야</t>
+  </si>
+  <si>
+    <t>문재앙이 북괴간첩이 아니라면 지소미아종료를 취소하기 다시 연장해야한다. 지소미아가 최종 파기되면 주한미군 감축 및 철군으로 이어질 가능성이 충분하다. 북괴가 바라는것이 바로 그것!</t>
+  </si>
+  <si>
+    <t>정말    말이  안나오는   한심한  정부다.</t>
+  </si>
+  <si>
+    <t>도대체 왜 지소미아 파기는 하는거냐? 조국 보호 할려고 반일 감정 부추기고 지소미아 파기 한것이니까 조국이 구속되는 마당에 지소미아를 파기할 이유가 뭐냐고 삶은소대가리야! 총선에서 표 얻을려고 반일감정 부추기고, 국가간 약속 깨서 일본하고 관계 악화되고, 일본은 동맹국 아니라고 해서 일본 불화수소 못 받고..왜 온동네 싸움질만 하냐고. 북한 김정은한테는 설설 기면서.</t>
+  </si>
+  <si>
+    <t>이게 고민할 일이냐? 지소미아가 단순히 한일 안보만걸린거면 지 멋대로 해도 되지만 가장 큰 우방인 미국하고도 직결된 문제를 문제앙 지멋대로 한다고? 문제앙이 한반도에서 미군 뺄라고 교묘하게 일본을 이용하는거를 쌍수들고 좋다고 환호하는 개.돼지 클라스 오지네. 미군빠지면 누가 좋은가 바로 북한 하고 중국인데. 홍콩꼴 나고싶은가 보지?진짜 얼른 이나라 뜨든가 해야지 원..</t>
+  </si>
+  <si>
+    <t>뭉가는 지소미아 파기할겁니다... 뭉가ㄴ 힘이없어요.. 뒤에 주사파빨갱이들이   조종하는것임..</t>
+  </si>
+  <si>
+    <t>상호 신뢰를 보이지 않는 국가와 정보교환이 무슨 의미가 있나요?\n정말로 동맹이라면 굳건한 신뢰를 회복하는 조치를 보여야 항구적인 \n동맹관계가 필요하지요. 원칙대로 갑시다</t>
+  </si>
+  <si>
+    <t>국민이원하는게무엇인지 잘파악하여결정해주십시요</t>
+  </si>
+  <si>
+    <t>지소미아 .....박근혜 당시 야당인 현 여당이 그렇게 반대했는데..이 머 같은게 발목을 잡네.\n그라고 이런 기사에 문통에게 욕댓글다는 ㄱ종자들은 뭐냐??? 지소미아 누가 만든지 몰라????</t>
+  </si>
+  <si>
+    <t>ㅉㅉ 한국이 미국 식민지냐 ? ㅉㅉ 돈을 그렇게 많이 줄거면, 우리도 동맹 파기하고 핵무기 만들자 ! ㅉㅉ 우리가 기술이 없냐 ? 돈이 없냐 ? ㅉㅉ 물론 이렇게 될 가능성은 거의 없다는 것은 안다 ! 요즘 미국의 짓거리가 정말 짜증이 나서 적어 보았다 ㅉㅉ</t>
+  </si>
+  <si>
+    <t>죽어여 결심대로 끝까지 가야한다. 한 두번의 양보가 습관이되고 우습게본다.어차피 파기하면 재차 협정하라 압력이 있을것이다 그 때 또 생각하면 답이있다...</t>
+  </si>
+  <si>
+    <t>하루살이처럼 그 순간만 생각하고 반일프레임 걸어 사고쳤는데... 뒷 수습이 안되니 영~ 출구를 못찾겠지?    어찌되든 결론이 어찌될지 진짜 흥미진진하다.   어차피 브레이크 고장난 지옥행 열차탔는데 끝까지 달려봐라.   여론조사 결과난 걸 보니... 아무리 조작이라지만.. 이 나라 국민들 모두 바닥까지 가봐야 철이 들것같다.</t>
+  </si>
+  <si>
+    <t>어쩌냐....일본이 잘못 인정하지 않는한 무슨일이 있어도 지소미아 종료한다고 했는데...미국이 지금 종료하기만 해봐라지 일본은 계속 고자세지.....종료하자니 미국보복이 두렵고 종료안하자니 일본한테 우스운꼴 당하고 지지율 떨어질테고.....좌파들이 정말 나라경제 다 말아먹는구만...??</t>
+  </si>
+  <si>
+    <t>한일간 군사정보보호협정 이것이 우리국익에 해당되는 항목이 없다 과거정부에서 지소미아로 나라팔아먹은것에 불과한 협정이다</t>
+  </si>
+  <si>
+    <t>뭉가는 물색없는 짓거리는 집어 치우고 지소미아를 연장하라.</t>
+  </si>
+  <si>
+    <t>우리는약소국가이기때문에 무조건지소미아는연장해야한다.미국에맞서면 우리만손해다.국익차원에서연장해야우리가안전하고훗날을기약할수가있다.그후일본과협상틀을만들고 무역문제도해결해야한다.잘못되면자본시장도마비되고 대혼란이올수있다.더러워도참아야한다.혼란이온다면모든책임은문제인정부가져야하고내년총선도필패로끝날것이다.감정적인대응을자제하기바람니다</t>
+  </si>
+  <si>
+    <t>지금 미국은 주한미군 철수는 안할것이고 감축하려는 의도가 보입니다.....실질적으로 남한과 북한은 전투력에서 북한이 핵을 보유하고 있는한 게임 체인지 된지 오래입니다....절대 북한을 건드릴수 없는것이지요.....미군이 한반도에서 점점 발을뺀다면 중국과 러시아 비행기들은 자기네집 안방처럼 드나들것이고 일본은 독도에 대한 야욕을 멈추지 않을것으로 봅니다......자존심만 내세울 문제는 아니라는것이죠.....미국이 좋아서 동맹입니까?? 필요하니 동맹이죠!!</t>
+  </si>
+  <si>
+    <t>그러게 왜 치우지도 못할걸 똥질을 하냐----</t>
+  </si>
+  <si>
+    <t>왜? 문재인이 또 휴가 내고 청와대 비우면 되잖아! 또 휴가 가 보시지, 왜?</t>
+  </si>
+  <si>
+    <t>지소미아 파기 농단은 사형까지 구형합시다. 미리 자료 모아두시길 바랍니다. 검찰분들</t>
+  </si>
+  <si>
+    <t>국가 재정이 쌓이면 썩는다고 털어먹을 생각만 하는 참 저렴하고 미개한 정권인데 주한미군과 연관된 비용과 미국이 한번움직일때 항모전단&amp;amp;전략폭격기&amp;amp;핵잠수함등등을 동원하는데 드는 엄청난 비용을 퉁쳐서 몇조 내주는게 뭔 대수일까?한번에 일자리 처만든다고 57조나 처날려먹고 효과는 0%의 결과만 보여준 정권인데...다 껍데기론 친미하는척하면서 뒷구멍으로 종북종중질하며 동맹국들 뒤통수친 결과니 자업자득일뿐이다.안보와 경제를 말아먹고 시민혁명으로 강제축출당하던지 아니면 이제라도 정신차리고 종북종중질그만두고 동맹국들편에서서 살아남던지 선택해야지</t>
+  </si>
+  <si>
+    <t>고민하는 척하다가 지맘대로 할텐데 뭐. 아주 질렸다...조국임명강행한거에서 학을 뗐어</t>
+  </si>
+  <si>
+    <t>나는 문씨가 정말 싫다.  투표때도 찍지도 않았지만 이번 지소미아  만큼은 문씨 지지한다.\n원칙대로 한번 마음먹었으면 밀고 나가기 바란다.  만약에 이번 원칙을 바꾸면 진짜 사람도 아니다.</t>
+  </si>
+  <si>
+    <t>지소미아 조건없이 복원하고 강제징용이니 위안부니 우리 자체적으로 깔끔하게 매듭지어라.우리가 뭔 양아치 거지떼냐.국격과 자존심을 지켜야지.</t>
+  </si>
+  <si>
+    <t>미국은 중국 러시아 북한을 견제하기위해 한미일이 공조를 해야 한다는건데 이것은 한국의 안보에도 중요한 일이다 과거사문제에 한미일 공조를 압박카드로 쓰면 미국이 중재를 할거라고 생각 했을까 오히려 패착이 되고 있는 상황 과거사문제에 왜 미국과 관련된 안보공조와 연결해서 영향을 주는걸가 국제정치.외교는 감성이 아닌 이성으로 해야 한다.</t>
+  </si>
+  <si>
+    <t>우리나라도 이제 저력있는 국가가 되엇다, 필요하면 지소미아 유지도 필요하지만 일본이 하는 형태로\n봐서는 전혀도움이 되지않는다. 반성이 없는 나라는 미래가 없듯이 전쟁가능국가로 가기위해 헌법을\n개정하려하고 우리군사 정보을 악용할수 있는 나라이다. 우리도 조건을 내 걸어야한다 무역보복철회하고\n과거위안부 문제을 아베는 머리숙여 사죄할떄까지 양보하면 않된다.</t>
+  </si>
+  <si>
+    <t>또 문제인의 쇼타임. 친문언론 통해서 깊은 고민중~이라는 멘트 며칠 날리고, 어차피 연장 안함. 조국 임명할때도 고뇌하는 척 연기하면서 지 맘대로 했잖아.</t>
+  </si>
+  <si>
+    <t>고민은 무슨.. 광우병이 고민이 있겠나... 이미 정했잖아. 설령 일본이 미안하다고 일본의 1년 예산을 줬다 해도, 지소미아 파기할거면서. 내용은 사과가 무례하다면서 위에서 시선을 취하겠지..</t>
+  </si>
+  <si>
+    <t>저딴 멍청한 인간이 지지율 올랐다고 기사 오르는 나라는 대한민국 밖에 없을듯. 애초에 지소미아 파기는 한미간의 균열이 생길수도있는 문젠데 일본의 경제보복 카드로 저걸 들고나온 자체가 쟤는 아무생각이 없단거지 북,중,러 견제하려고 미국이 주도하는 지소미아를 지멋대로 파기하는데 열받는거 당연한거 아냐? 그저 잘하는거라곤 여론선동질 과 쇼통질뿐인 인간 옆에 지지율 47프로 기사보면 왜 내가 부끄럽냐?</t>
+  </si>
+  <si>
+    <t>이번에는 지지않겠습니다 ㅋㅋ ㅋㅋㅋ 죽창들까요?</t>
+  </si>
+  <si>
+    <t>왜 더 깝쳐보지? 헬조센이 미국에 깝치면 뒤진다는걸 이번에 보여줘야함 일부러 관세폭탄 매기고 수출입 규제걸고 마구잡이로 처맞아야 조센징들 쥐 죽은듯이 가만 있는다 일본 순사가 조센징은 뒤질때까지 처맞아야 말을 듣는다고 했다</t>
+  </si>
+  <si>
+    <t>국가 안보와 국민 안전이 걸린 일인데 이걸 고민할 이유가 대체 뭐냐? 빨갱이 + 사악한 싸이코패스 색히야</t>
+  </si>
+  <si>
+    <t>고민거리를 만들어서 고민하는 멍청한 정부... 국민들의 마음은 타들어 간다. 국가안보가지고 장난치지 말라....</t>
   </si>
 </sst>
 </file>
@@ -3361,10 +4701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F068723-DC2D-F74D-94E9-96ECF232E82F}">
-  <dimension ref="A1:C866"/>
+  <dimension ref="A1:C1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A855" workbookViewId="0">
-      <selection activeCell="C866" sqref="C866"/>
+    <sheetView tabSelected="1" topLeftCell="A1117" workbookViewId="0">
+      <selection activeCell="A1132" sqref="A1132:A1187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -10297,6 +11637,3571 @@
         <v>1</v>
       </c>
     </row>
+    <row r="867" spans="1:3">
+      <c r="A867" t="s">
+        <v>865</v>
+      </c>
+      <c r="C867">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3">
+      <c r="A868" t="s">
+        <v>866</v>
+      </c>
+      <c r="C868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3">
+      <c r="A869" t="s">
+        <v>867</v>
+      </c>
+      <c r="C869">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3">
+      <c r="A870" t="s">
+        <v>868</v>
+      </c>
+      <c r="C870">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3">
+      <c r="A871" t="s">
+        <v>869</v>
+      </c>
+      <c r="C871">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3">
+      <c r="A872" t="s">
+        <v>870</v>
+      </c>
+      <c r="C872">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3">
+      <c r="A873" t="s">
+        <v>871</v>
+      </c>
+      <c r="C873">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3">
+      <c r="A874" t="s">
+        <v>872</v>
+      </c>
+      <c r="C874">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3">
+      <c r="A875" t="s">
+        <v>873</v>
+      </c>
+      <c r="C875">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3">
+      <c r="A876" t="s">
+        <v>874</v>
+      </c>
+      <c r="C876">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3">
+      <c r="A877" t="s">
+        <v>875</v>
+      </c>
+      <c r="C877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3">
+      <c r="A878" t="s">
+        <v>876</v>
+      </c>
+      <c r="C878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3">
+      <c r="A879" t="s">
+        <v>877</v>
+      </c>
+      <c r="C879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3">
+      <c r="A880" t="s">
+        <v>878</v>
+      </c>
+      <c r="C880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3">
+      <c r="A881" t="s">
+        <v>879</v>
+      </c>
+      <c r="C881">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3">
+      <c r="A882" t="s">
+        <v>880</v>
+      </c>
+      <c r="C882">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3">
+      <c r="A883" t="s">
+        <v>881</v>
+      </c>
+      <c r="C883">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3">
+      <c r="A884" t="s">
+        <v>882</v>
+      </c>
+      <c r="C884">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3">
+      <c r="A885" t="s">
+        <v>883</v>
+      </c>
+      <c r="C885">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3">
+      <c r="A886" t="s">
+        <v>884</v>
+      </c>
+      <c r="C886">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3">
+      <c r="A887" t="s">
+        <v>885</v>
+      </c>
+      <c r="C887">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3">
+      <c r="A888" t="s">
+        <v>886</v>
+      </c>
+      <c r="C888">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3">
+      <c r="A889" t="s">
+        <v>887</v>
+      </c>
+      <c r="C889">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3">
+      <c r="A890" t="s">
+        <v>888</v>
+      </c>
+      <c r="C890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3">
+      <c r="A891" t="s">
+        <v>889</v>
+      </c>
+      <c r="C891">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3">
+      <c r="A892" t="s">
+        <v>890</v>
+      </c>
+      <c r="C892">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3">
+      <c r="A893" t="s">
+        <v>891</v>
+      </c>
+      <c r="C893">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3">
+      <c r="A894" t="s">
+        <v>892</v>
+      </c>
+      <c r="C894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3">
+      <c r="A895" t="s">
+        <v>893</v>
+      </c>
+      <c r="C895">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3">
+      <c r="A896" t="s">
+        <v>894</v>
+      </c>
+      <c r="C896">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3">
+      <c r="A897" t="s">
+        <v>895</v>
+      </c>
+      <c r="C897">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3">
+      <c r="A898" t="s">
+        <v>896</v>
+      </c>
+      <c r="C898">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3">
+      <c r="A899" t="s">
+        <v>897</v>
+      </c>
+      <c r="C899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3">
+      <c r="A900" t="s">
+        <v>898</v>
+      </c>
+      <c r="C900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3">
+      <c r="A901" t="s">
+        <v>899</v>
+      </c>
+      <c r="C901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3">
+      <c r="A902" t="s">
+        <v>900</v>
+      </c>
+      <c r="C902">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3">
+      <c r="A903" t="s">
+        <v>901</v>
+      </c>
+      <c r="C903">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3">
+      <c r="A904" t="s">
+        <v>902</v>
+      </c>
+      <c r="C904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3">
+      <c r="A905" t="s">
+        <v>903</v>
+      </c>
+      <c r="C905">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3">
+      <c r="A906" t="s">
+        <v>904</v>
+      </c>
+      <c r="C906">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3">
+      <c r="A907" t="s">
+        <v>905</v>
+      </c>
+      <c r="C907">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3">
+      <c r="A908" t="s">
+        <v>906</v>
+      </c>
+      <c r="C908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3">
+      <c r="A909" t="s">
+        <v>907</v>
+      </c>
+      <c r="C909">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3">
+      <c r="A910" t="s">
+        <v>908</v>
+      </c>
+      <c r="C910">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3">
+      <c r="A911" t="s">
+        <v>909</v>
+      </c>
+      <c r="C911">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3">
+      <c r="A912" t="s">
+        <v>910</v>
+      </c>
+      <c r="C912">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3">
+      <c r="A913" t="s">
+        <v>911</v>
+      </c>
+      <c r="C913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3">
+      <c r="A914" t="s">
+        <v>912</v>
+      </c>
+      <c r="C914">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3">
+      <c r="A915" t="s">
+        <v>913</v>
+      </c>
+      <c r="C915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3">
+      <c r="A916" t="s">
+        <v>914</v>
+      </c>
+      <c r="C916">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3">
+      <c r="A917" t="s">
+        <v>915</v>
+      </c>
+      <c r="C917">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3">
+      <c r="A918" t="s">
+        <v>916</v>
+      </c>
+      <c r="C918">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3">
+      <c r="A919" t="s">
+        <v>917</v>
+      </c>
+      <c r="C919">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3">
+      <c r="A920" t="s">
+        <v>918</v>
+      </c>
+      <c r="C920">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3">
+      <c r="A921" t="s">
+        <v>919</v>
+      </c>
+      <c r="C921">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3">
+      <c r="A922" t="s">
+        <v>920</v>
+      </c>
+      <c r="C922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3">
+      <c r="A923" t="s">
+        <v>921</v>
+      </c>
+      <c r="C923">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3">
+      <c r="A924" t="s">
+        <v>922</v>
+      </c>
+      <c r="C924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3">
+      <c r="A925" t="s">
+        <v>923</v>
+      </c>
+      <c r="C925">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3">
+      <c r="A926" t="s">
+        <v>924</v>
+      </c>
+      <c r="C926">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3">
+      <c r="A927" t="s">
+        <v>925</v>
+      </c>
+      <c r="C927">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3">
+      <c r="A928" t="s">
+        <v>926</v>
+      </c>
+      <c r="C928">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="929" spans="1:3">
+      <c r="A929" t="s">
+        <v>927</v>
+      </c>
+      <c r="C929">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930" spans="1:3">
+      <c r="A930" t="s">
+        <v>928</v>
+      </c>
+      <c r="C930">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:3">
+      <c r="A931" t="s">
+        <v>929</v>
+      </c>
+      <c r="C931">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:3">
+      <c r="A932" t="s">
+        <v>930</v>
+      </c>
+      <c r="C932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:3">
+      <c r="A933" t="s">
+        <v>931</v>
+      </c>
+      <c r="C933">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="934" spans="1:3">
+      <c r="A934" t="s">
+        <v>932</v>
+      </c>
+      <c r="C934">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="935" spans="1:3">
+      <c r="A935" t="s">
+        <v>933</v>
+      </c>
+      <c r="C935">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:3">
+      <c r="A936" t="s">
+        <v>934</v>
+      </c>
+      <c r="C936">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:3">
+      <c r="A937" t="s">
+        <v>935</v>
+      </c>
+      <c r="C937">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="938" spans="1:3">
+      <c r="A938" t="s">
+        <v>936</v>
+      </c>
+      <c r="C938">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="939" spans="1:3">
+      <c r="A939" t="s">
+        <v>937</v>
+      </c>
+      <c r="C939">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="940" spans="1:3">
+      <c r="A940" t="s">
+        <v>938</v>
+      </c>
+      <c r="C940">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="941" spans="1:3">
+      <c r="A941" t="s">
+        <v>939</v>
+      </c>
+      <c r="C941">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="942" spans="1:3">
+      <c r="A942" t="s">
+        <v>940</v>
+      </c>
+      <c r="C942">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="943" spans="1:3">
+      <c r="A943" t="s">
+        <v>941</v>
+      </c>
+      <c r="C943">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="944" spans="1:3">
+      <c r="A944" t="s">
+        <v>942</v>
+      </c>
+      <c r="C944">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3">
+      <c r="A945" t="s">
+        <v>943</v>
+      </c>
+      <c r="C945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3">
+      <c r="A946" t="s">
+        <v>944</v>
+      </c>
+      <c r="C946">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3">
+      <c r="A947" t="s">
+        <v>945</v>
+      </c>
+      <c r="C947">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3">
+      <c r="A948" t="s">
+        <v>946</v>
+      </c>
+      <c r="C948">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3">
+      <c r="A949" t="s">
+        <v>947</v>
+      </c>
+      <c r="C949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3">
+      <c r="A950" t="s">
+        <v>948</v>
+      </c>
+      <c r="C950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3">
+      <c r="A951" t="s">
+        <v>949</v>
+      </c>
+      <c r="C951">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3">
+      <c r="A952" t="s">
+        <v>950</v>
+      </c>
+      <c r="C952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3">
+      <c r="A953" t="s">
+        <v>951</v>
+      </c>
+      <c r="C953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3">
+      <c r="A954" t="s">
+        <v>952</v>
+      </c>
+      <c r="C954">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3">
+      <c r="A955" t="s">
+        <v>953</v>
+      </c>
+      <c r="C955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3">
+      <c r="A956" t="s">
+        <v>954</v>
+      </c>
+      <c r="C956">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3">
+      <c r="A957" t="s">
+        <v>955</v>
+      </c>
+      <c r="C957">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3">
+      <c r="A958" t="s">
+        <v>956</v>
+      </c>
+      <c r="C958">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3">
+      <c r="A959" t="s">
+        <v>957</v>
+      </c>
+      <c r="C959">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3">
+      <c r="A960" t="s">
+        <v>958</v>
+      </c>
+      <c r="C960">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3">
+      <c r="A961" t="s">
+        <v>959</v>
+      </c>
+      <c r="C961">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3">
+      <c r="A962" t="s">
+        <v>960</v>
+      </c>
+      <c r="C962">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3">
+      <c r="A963" t="s">
+        <v>961</v>
+      </c>
+      <c r="C963">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3">
+      <c r="A964" t="s">
+        <v>962</v>
+      </c>
+      <c r="C964">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3">
+      <c r="A965" t="s">
+        <v>963</v>
+      </c>
+      <c r="C965">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3">
+      <c r="A966" t="s">
+        <v>964</v>
+      </c>
+      <c r="C966">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3">
+      <c r="A967" t="s">
+        <v>965</v>
+      </c>
+      <c r="C967">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3">
+      <c r="A968" t="s">
+        <v>966</v>
+      </c>
+      <c r="C968">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3">
+      <c r="A969" t="s">
+        <v>967</v>
+      </c>
+      <c r="C969">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3">
+      <c r="A970" t="s">
+        <v>968</v>
+      </c>
+      <c r="C970">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3">
+      <c r="A971" t="s">
+        <v>969</v>
+      </c>
+      <c r="C971">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3">
+      <c r="A972" t="s">
+        <v>970</v>
+      </c>
+      <c r="C972">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3">
+      <c r="A973" t="s">
+        <v>971</v>
+      </c>
+      <c r="C973">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3">
+      <c r="A974" t="s">
+        <v>972</v>
+      </c>
+      <c r="C974">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3">
+      <c r="A975" t="s">
+        <v>973</v>
+      </c>
+      <c r="C975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3">
+      <c r="A976" t="s">
+        <v>974</v>
+      </c>
+      <c r="C976">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3">
+      <c r="A977" t="s">
+        <v>975</v>
+      </c>
+      <c r="C977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3">
+      <c r="A978" t="s">
+        <v>976</v>
+      </c>
+      <c r="C978">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3">
+      <c r="A979" t="s">
+        <v>977</v>
+      </c>
+      <c r="C979">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3">
+      <c r="A980" t="s">
+        <v>978</v>
+      </c>
+      <c r="C980">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3">
+      <c r="A981" t="s">
+        <v>979</v>
+      </c>
+      <c r="C981">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3">
+      <c r="A982" t="s">
+        <v>980</v>
+      </c>
+      <c r="C982">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3">
+      <c r="A983" t="s">
+        <v>981</v>
+      </c>
+      <c r="C983">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3">
+      <c r="A984" t="s">
+        <v>982</v>
+      </c>
+      <c r="C984">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3">
+      <c r="A985" t="s">
+        <v>983</v>
+      </c>
+      <c r="C985">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3">
+      <c r="A986" t="s">
+        <v>984</v>
+      </c>
+      <c r="C986">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3">
+      <c r="A987" t="s">
+        <v>985</v>
+      </c>
+      <c r="C987">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3">
+      <c r="A988" t="s">
+        <v>986</v>
+      </c>
+      <c r="C988">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3">
+      <c r="A989" t="s">
+        <v>987</v>
+      </c>
+      <c r="C989">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3">
+      <c r="A990" t="s">
+        <v>988</v>
+      </c>
+      <c r="C990">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3">
+      <c r="A991" t="s">
+        <v>989</v>
+      </c>
+      <c r="C991">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3">
+      <c r="A992" t="s">
+        <v>990</v>
+      </c>
+      <c r="C992">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="993" spans="1:3">
+      <c r="A993" t="s">
+        <v>991</v>
+      </c>
+      <c r="C993">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="994" spans="1:3">
+      <c r="A994" t="s">
+        <v>992</v>
+      </c>
+      <c r="C994">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="995" spans="1:3">
+      <c r="A995" t="s">
+        <v>993</v>
+      </c>
+      <c r="C995">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="996" spans="1:3">
+      <c r="A996" t="s">
+        <v>994</v>
+      </c>
+      <c r="C996">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="997" spans="1:3">
+      <c r="A997" t="s">
+        <v>995</v>
+      </c>
+      <c r="C997">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="998" spans="1:3">
+      <c r="A998" t="s">
+        <v>996</v>
+      </c>
+      <c r="C998">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="999" spans="1:3">
+      <c r="A999" t="s">
+        <v>997</v>
+      </c>
+      <c r="C999">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:3">
+      <c r="A1000" t="s">
+        <v>998</v>
+      </c>
+      <c r="C1000">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:3">
+      <c r="A1001" t="s">
+        <v>999</v>
+      </c>
+      <c r="C1001">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:3">
+      <c r="A1002" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C1002">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:3">
+      <c r="A1003" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C1003">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:3">
+      <c r="A1004" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C1004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:3">
+      <c r="A1005" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C1005">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:3">
+      <c r="A1006" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C1006">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:3">
+      <c r="A1007" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1007">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:3">
+      <c r="A1008" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C1008">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3">
+      <c r="A1009" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C1009">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3">
+      <c r="A1010" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C1010">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3">
+      <c r="A1011" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C1011">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3">
+      <c r="A1012" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C1012">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3">
+      <c r="A1013" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1013">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3">
+      <c r="A1014" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C1014">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3">
+      <c r="A1015" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C1015">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3">
+      <c r="A1016" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1016">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3">
+      <c r="A1017" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C1017">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3">
+      <c r="A1018" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C1018">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3">
+      <c r="A1019" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C1019">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3">
+      <c r="A1020" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C1020">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3">
+      <c r="A1021" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C1021">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3">
+      <c r="A1022" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C1022">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3">
+      <c r="A1023" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C1023">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3">
+      <c r="A1024" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1024">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3">
+      <c r="A1025" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C1025">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3">
+      <c r="A1026" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3">
+      <c r="A1027" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C1027">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3">
+      <c r="A1028" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C1028">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3">
+      <c r="A1029" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C1029">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3">
+      <c r="A1030" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C1030">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3">
+      <c r="A1031" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1031">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3">
+      <c r="A1032" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C1032">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3">
+      <c r="A1033" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C1033">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3">
+      <c r="A1034" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C1034">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
+      <c r="A1035" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C1035">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3">
+      <c r="A1036" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C1036">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3">
+      <c r="A1037" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C1037">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3">
+      <c r="A1038" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C1038">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3">
+      <c r="A1039" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C1039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3">
+      <c r="A1040" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C1040">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3">
+      <c r="A1041" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C1041">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3">
+      <c r="A1042" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C1042">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3">
+      <c r="A1043" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C1043">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3">
+      <c r="A1044" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C1044">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3">
+      <c r="A1045" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3">
+      <c r="A1046" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C1046">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3">
+      <c r="A1047" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C1047">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
+      <c r="A1048" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C1048">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3">
+      <c r="A1049" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C1049">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3">
+      <c r="A1050" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C1050">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3">
+      <c r="A1051" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C1051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3">
+      <c r="A1052" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C1052">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3">
+      <c r="A1053" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1053">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3">
+      <c r="A1054" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C1054">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3">
+      <c r="A1055" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3">
+      <c r="A1056" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C1056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3">
+      <c r="A1057" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C1057">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3">
+      <c r="A1058" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C1058">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3">
+      <c r="A1059" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1059">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3">
+      <c r="A1060" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C1060">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3">
+      <c r="A1061" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C1061">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3">
+      <c r="A1062" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C1062">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3">
+      <c r="A1063" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C1063">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3">
+      <c r="A1064" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3">
+      <c r="A1065" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C1065">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3">
+      <c r="A1066" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C1066">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3">
+      <c r="A1067" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1067">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3">
+      <c r="A1068" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C1068">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3">
+      <c r="A1069" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C1069">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3">
+      <c r="A1070" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C1070">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3">
+      <c r="A1071" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C1071">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3">
+      <c r="A1072" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1072">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3">
+      <c r="A1073" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C1073">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3">
+      <c r="A1074" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C1074">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3">
+      <c r="A1075" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C1075">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3">
+      <c r="A1076" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C1076">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3">
+      <c r="A1077" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C1077">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3">
+      <c r="A1078" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C1078">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3">
+      <c r="A1079" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1079">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3">
+      <c r="A1080" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C1080">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3">
+      <c r="A1081" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C1081">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3">
+      <c r="A1082" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C1082">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3">
+      <c r="A1083" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C1083">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3">
+      <c r="A1084" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C1084">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3">
+      <c r="A1085" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1085">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3">
+      <c r="A1086" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C1086">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3">
+      <c r="A1087" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C1087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3">
+      <c r="A1088" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1088">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3">
+      <c r="A1089" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C1089">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3">
+      <c r="A1090" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C1090">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3">
+      <c r="A1091" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1091">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3">
+      <c r="A1092" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1092">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3">
+      <c r="A1093" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1093">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3">
+      <c r="A1094" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1094">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3">
+      <c r="A1095" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C1095">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3">
+      <c r="A1096" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C1096">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3">
+      <c r="A1097" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C1097">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3">
+      <c r="A1098" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1098">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3">
+      <c r="A1099" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C1099">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3">
+      <c r="A1100" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C1100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3">
+      <c r="A1101" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C1101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3">
+      <c r="A1102" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C1102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3">
+      <c r="A1103" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3">
+      <c r="A1104" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C1104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3">
+      <c r="A1105" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C1105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3">
+      <c r="A1106" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3">
+      <c r="A1107" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C1107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3">
+      <c r="A1108" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C1108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3">
+      <c r="A1109" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C1109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3">
+      <c r="A1110" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C1110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3">
+      <c r="A1111" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C1111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3">
+      <c r="A1112" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C1112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3">
+      <c r="A1113" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C1113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3">
+      <c r="A1114" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C1114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3">
+      <c r="A1115" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C1115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3">
+      <c r="A1116" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C1116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3">
+      <c r="A1117" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C1117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3">
+      <c r="A1118" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C1118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3">
+      <c r="A1119" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C1119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3">
+      <c r="A1120" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C1120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3">
+      <c r="A1121" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3">
+      <c r="A1122" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C1122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3">
+      <c r="A1123" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C1123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3">
+      <c r="A1124" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C1124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3">
+      <c r="A1125" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C1125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3">
+      <c r="A1126" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C1126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3">
+      <c r="A1127" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C1127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3">
+      <c r="A1128" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C1128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3">
+      <c r="A1129" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C1129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3">
+      <c r="A1130" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C1130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3">
+      <c r="A1131" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C1131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3">
+      <c r="A1132" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C1132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3">
+      <c r="A1133" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C1133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3">
+      <c r="A1134" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C1134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3">
+      <c r="A1135" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C1135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3">
+      <c r="A1136" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C1136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3">
+      <c r="A1137" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C1137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3">
+      <c r="A1138" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C1138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3">
+      <c r="A1139" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C1139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3">
+      <c r="A1140" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C1140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3">
+      <c r="A1141" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C1141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3">
+      <c r="A1142" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C1142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3">
+      <c r="A1143" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C1143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3">
+      <c r="A1144" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C1144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3">
+      <c r="A1145" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C1145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3">
+      <c r="A1146" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C1146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3">
+      <c r="A1147" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C1147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3">
+      <c r="A1148" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C1148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3">
+      <c r="A1149" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C1149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3">
+      <c r="A1150" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C1150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3">
+      <c r="A1151" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C1151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3">
+      <c r="A1152" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C1152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3">
+      <c r="A1153" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C1153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3">
+      <c r="A1154" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C1154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3">
+      <c r="A1155" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C1155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3">
+      <c r="A1156" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C1156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3">
+      <c r="A1157" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C1157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3">
+      <c r="A1158" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C1158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3">
+      <c r="A1159" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C1159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3">
+      <c r="A1160" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C1160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3">
+      <c r="A1161" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3">
+      <c r="A1162" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C1162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3">
+      <c r="A1163" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C1163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3">
+      <c r="A1164" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C1164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3">
+      <c r="A1165" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C1165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3">
+      <c r="A1166" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C1166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3">
+      <c r="A1167" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C1167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3">
+      <c r="A1168" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C1168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3">
+      <c r="A1169" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C1169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3">
+      <c r="A1170" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C1170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3">
+      <c r="A1171" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C1171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3">
+      <c r="A1172" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C1172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3">
+      <c r="A1173" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C1173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3">
+      <c r="A1174" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C1174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3">
+      <c r="A1175" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3">
+      <c r="A1176" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C1176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3">
+      <c r="A1177" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C1177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3">
+      <c r="A1178" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C1178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3">
+      <c r="A1179" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C1179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3">
+      <c r="A1180" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C1180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3">
+      <c r="A1181" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C1181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3">
+      <c r="A1182" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C1182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3">
+      <c r="A1183" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C1183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3">
+      <c r="A1184" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C1184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3">
+      <c r="A1185" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C1185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3">
+      <c r="A1186" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C1186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3">
+      <c r="A1187" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C1187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3">
+      <c r="A1188" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C1188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3">
+      <c r="A1189" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C1189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3">
+      <c r="A1190" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C1190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3">
+      <c r="A1191" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C1191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3">
+      <c r="A1192" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C1192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3">
+      <c r="A1193" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C1193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3">
+      <c r="A1194" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C1194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3">
+      <c r="A1195" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C1195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3">
+      <c r="A1196" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C1196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3">
+      <c r="A1197" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C1197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3">
+      <c r="A1198" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C1198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3">
+      <c r="A1199" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C1199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3">
+      <c r="A1200" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C1200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:3">
+      <c r="A1201" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C1201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:3">
+      <c r="A1202" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C1202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:3">
+      <c r="A1203" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:3">
+      <c r="A1204" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:3">
+      <c r="A1205" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C1205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:3">
+      <c r="A1206" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:3">
+      <c r="A1207" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:3">
+      <c r="A1208" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C1208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:3">
+      <c r="A1209" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:3">
+      <c r="A1210" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C1210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:3">
+      <c r="A1211" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C1211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:3">
+      <c r="A1212" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:3">
+      <c r="A1213" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:3">
+      <c r="A1214" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:3">
+      <c r="A1215" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:3">
+      <c r="A1216" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:3">
+      <c r="A1217" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:3">
+      <c r="A1218" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:3">
+      <c r="A1219" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:3">
+      <c r="A1220" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:3">
+      <c r="A1221" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:3">
+      <c r="A1222" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:3">
+      <c r="A1223" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:3">
+      <c r="A1224" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:3">
+      <c r="A1225" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:3">
+      <c r="A1226" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:3">
+      <c r="A1227" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C1227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:3">
+      <c r="A1228" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:3">
+      <c r="A1229" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C1229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:3">
+      <c r="A1230" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C1230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:3">
+      <c r="A1231" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C1231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:3">
+      <c r="A1232" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3">
+      <c r="A1233" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3">
+      <c r="A1234" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C1234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3">
+      <c r="A1235" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3">
+      <c r="A1236" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C1236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3">
+      <c r="A1237" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C1237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3">
+      <c r="A1238" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1238">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3">
+      <c r="A1239" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3">
+      <c r="A1240" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1240">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3">
+      <c r="A1241" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3">
+      <c r="A1242" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3">
+      <c r="A1243" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3">
+      <c r="A1244" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3">
+      <c r="A1245" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C1245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3">
+      <c r="A1246" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C1246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3">
+      <c r="A1247" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C1247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3">
+      <c r="A1248" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1248">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3">
+      <c r="A1249" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3">
+      <c r="A1250" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C1250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3">
+      <c r="A1251" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C1251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3">
+      <c r="A1252" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C1252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3">
+      <c r="A1253" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3">
+      <c r="A1254" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3">
+      <c r="A1255" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1255">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3">
+      <c r="A1256" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3">
+      <c r="A1257" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1257">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3">
+      <c r="A1258" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3">
+      <c r="A1259" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3">
+      <c r="A1260" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3">
+      <c r="A1261" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1261">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3">
+      <c r="A1262" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C1262">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3">
+      <c r="A1263" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1263">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3">
+      <c r="A1264" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1264">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:3">
+      <c r="A1265" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1265">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:3">
+      <c r="A1266" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:3">
+      <c r="A1267" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:3">
+      <c r="A1268" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1268">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:3">
+      <c r="A1269" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1269">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:3">
+      <c r="A1270" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1270">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:3">
+      <c r="A1271" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1271">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:3">
+      <c r="A1272" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:3">
+      <c r="A1273" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:3">
+      <c r="A1274" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:3">
+      <c r="A1275" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:3">
+      <c r="A1276" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:3">
+      <c r="A1277" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:3">
+      <c r="A1278" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1278">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:3">
+      <c r="A1279" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C1279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:3">
+      <c r="A1280" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1280">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3">
+      <c r="A1281" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3">
+      <c r="A1282" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C1282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3">
+      <c r="A1283" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1283">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3">
+      <c r="A1284" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C1284">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3">
+      <c r="A1285" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C1285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3">
+      <c r="A1286" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3">
+      <c r="A1287" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1287">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3">
+      <c r="A1288" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3">
+      <c r="A1289" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C1289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3">
+      <c r="A1290" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C1290">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3">
+      <c r="A1291" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3">
+      <c r="A1292" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3">
+      <c r="A1293" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C1293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3">
+      <c r="A1294" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3">
+      <c r="A1295" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3">
+      <c r="A1296" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3">
+      <c r="A1297" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1297">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3">
+      <c r="A1298" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3">
+      <c r="A1299" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1299">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3">
+      <c r="A1300" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C1300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3">
+      <c r="A1301" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1301">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3">
+      <c r="A1302" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C1302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3">
+      <c r="A1303" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C1303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3">
+      <c r="A1304" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C1304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3">
+      <c r="A1305" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3">
+      <c r="A1306" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C1306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3">
+      <c r="A1307" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C1307">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3">
+      <c r="A1308" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3">
+      <c r="A1309" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C1309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3">
+      <c r="A1310" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C1310">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3">
+      <c r="A1311" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C1311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3">
+      <c r="A1312" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C1312">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyeongseop/Documents/MalJunSang/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5FEF70-C021-704B-B4FC-BE8AF6EF87F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C864B-B187-5C4C-A1C9-3CA130D1DD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16060" xr2:uid="{0E4C0141-0D5E-2540-AC59-84C2071AAAB2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="2012">
   <si>
     <t>오히려 공교육 살릴라면 하고자 할 의지가 있는 애들끼리 모아서 가르치는게 낫지않나? 진심 일반고 수업, 자습 분위기는 그냥 시간 버리는 상황을 조성하는데.. 망할 애들은 그런 애들끼리 지지고 볶는게 맞지 왜 애먼 애들한테 피해를 주냐?</t>
   </si>
@@ -5724,6 +5724,685 @@
   </si>
   <si>
     <t>악플보지 마세요! 제 글만 보세요! 그래서 계속 힘을 내주세요 ㅠㅠ </t>
+  </si>
+  <si>
+    <t>이쯤되면 아베는 슬슬 또 지지율 올려줄 카드 만지작 만지작 (한국을 또 뭐로 건드려서 지지율 올려 볼까나....)</t>
+  </si>
+  <si>
+    <t>일본국민들은 개돼지들이라 저런 정도로는 아베상 끄떡없다 ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>벚꽃놀이 아베 = 색소폰 황.</t>
+  </si>
+  <si>
+    <t>내려와 그만 차기총리는 야마모토 타로 로 가자</t>
+  </si>
+  <si>
+    <t>그래봤자 다음 정권도 자민당이잖아</t>
+  </si>
+  <si>
+    <t>쪽빠리 일본놈들이 어떤 놈 들인가?.,.....군국주의를 채닥한 쪽바리다...... 공산주의보다 더 일사분란하게 움직이는 쪽빠리들이다.... 아마 야당 몇명만 떠들고 언론도 조금있으면 유야무야 될것이다..........쪽파리 아베놈은 철저하게 봉쇄작전으로 갈것.</t>
+  </si>
+  <si>
+    <t>아베노  빠 가 야로 데스네~~</t>
+  </si>
+  <si>
+    <t>문재인 길거리 맥주토론에 지지자들만 모아놓은거랑 똑같은거 아냐? ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>그래봤자 멍청한호구국민들이 뽑아주는데</t>
+  </si>
+  <si>
+    <t>아베야 5년만 더 부탁해 !  열도몰락으로 가즈아 !!</t>
+  </si>
+  <si>
+    <t>그렇다고 이래도 좋고 저래도 좋다는 등X같은 일본인들이 뭘 할까, 뭘 할 수 있을까.</t>
+  </si>
+  <si>
+    <t>상관없음..일본은 틀딱 베충이들같은 개ㆍ돼지의 나라니까!</t>
+  </si>
+  <si>
+    <t>섬나라 개돼지민족은아베씨에게 축복이다 ㅋ 솔직한감상이다 ..</t>
+  </si>
+  <si>
+    <t>일본을 망국으로 이끄는 대한민국 X맨 총리 아베</t>
+  </si>
+  <si>
+    <t>솔까 아베 덕분에 쪽국 망조가  앞당겨지는거 같은데..아베 화이팅 끝까정 해먹어라</t>
+  </si>
+  <si>
+    <t>담배 많이피워서 죽어있는허파는 숨쉬기 힘든것처럼 일본은 우익의사슬로 꽁공묽여있는 상태로는 숨조차쉬기 힘들다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃엔딩</t>
+  </si>
+  <si>
+    <t>나는 일본이 싫어요~! 나는 일본놈들 문건도 안사요~! 나는 일본에도 안 갈래요~! 나는 일본놈들 좋아하는 사꾸라가 싫어요~! 그래서 아베는 이토오히로부미 보다 더 싫어 해요..일본은 언제쯤 물속으로 가라 앉을까요?</t>
+  </si>
+  <si>
+    <t>아베 힘내라. 일본이 제대로 망하려면 니가 버텨줘야 한다.</t>
+  </si>
+  <si>
+    <t>오래 장수할 수록 일본의 후손들에게는 민폐다 일본 국민들은 알아서 처신들 하시길</t>
+  </si>
+  <si>
+    <t>딱 보면 이명박 급인데.  일본애들 존네 좋으시겠어요..  ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>일본인들도 미개하긴 마찬가지....저런 사람을 총리로 두었으니...갑자기 미국 누가 생각나네....</t>
+  </si>
+  <si>
+    <t>모리토모 스캔들에 사쿠라 스캔들ㅋㅋㅋㅋㅋ 지난번 모리토모 때는 북괴 미사일로 존버하고 이번엔 한국 때리기로 존버하려나? 주변 각료들 실언으로 일주 사이에 2명이 퇴임한 것도 모자라서ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>조중동은 걱정 마라.   아베는 생존할 것이다.</t>
+  </si>
+  <si>
+    <t>아베 아웃!</t>
+  </si>
+  <si>
+    <t>지지율 눈꼽만큼밖에 안떨어짐. 정권 교체는 아직 2년은 더 기다려야 될까말까임. 김칫국 ㄴㄴ 일본은 지금 야당의 무능함과 대책없이 발목잡고 늘어지기 스킬에 더 분노하고 한심하게 보는 국민들 숫자가 많아서, 아베가 뭘 하든지간에 야당에 표가 이동 안되고 있는 상황임.</t>
+  </si>
+  <si>
+    <t>조국 같은 기준으로 보면 아무 스캔들도 아니네</t>
+  </si>
+  <si>
+    <t>한국 보수것들의 정신적 지주...아베가 흔들리고 있으니....어쩌냐. 쓰레기 보수것들아.</t>
+  </si>
+  <si>
+    <t>문재앙이랑 손잡고 은퇴해라</t>
+  </si>
+  <si>
+    <t>그래도 아베가 문재앙보다 더 능력있다</t>
+  </si>
+  <si>
+    <t>아베 지지율은 문재앙이 올려주니까 괜찮을듯....트럼프가 한국에 줄 모든 혜택을 일본에 줄수 밖에 없으니까...지소미아 파기되면 이제 한국경제는 시마이데스요!!</t>
+  </si>
+  <si>
+    <t>낙베도 사퇴하자ㅋㅋ 역겹다ㅋㅋ</t>
+  </si>
+  <si>
+    <t>조국이네 같은 사람이군.. 그래도 조국딸 보단 낫군..</t>
+  </si>
+  <si>
+    <t>가짜를 보호하지 않는 미국 - 선진국, 가짜를 검찰개혁 외치며 보호하는 한국 - 미개국가</t>
+  </si>
+  <si>
+    <t>사기왕 센징 DNA</t>
+  </si>
+  <si>
+    <t>트럼프가 지보호하기도 만만치 않을턴데...</t>
+  </si>
+  <si>
+    <t>머어준은 벙신이라고 표현한 머지오나 미나장이나 여윾시ㅣ조센은 다이스끼</t>
+  </si>
+  <si>
+    <t>달창들이 딱 좋아하는 인재네 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>pride Korea [한국인의 자랑] !!! 이런 이미지를 전 세계에 심는 것은 옳지 않다.  pride of the Korea 한국의 자랑은 좋다, 그러나, 무조건 유명해지는 것은 좋지 않아 보인다. 선거의 철이고 미디어의 철[세순 :歲 旬]이다보니 그런가 ? 그런걸 요즘 '관종'이라고 하던가 ? 정치인 언론인 언론인을 거장한 정치인[사기꾼]들에 많은 것 같다. 그 방법의 총체적인 것 '학벌이나 학력을 속이는 것, 업적을 속이는 것'이 대표적인 것 같다. 세계의 10년단위 추세 혹은 세대라는 30년간위 추세들이 던가 ?</t>
+  </si>
+  <si>
+    <t>공산주의 체제에서 당은 최상위 조직이며, 권력기관끼리 견제개념이 없음. 당연히 인권 개념이 공산당은 없기 때문에 권력의 상호견제라는 개념도 없음. 권력 기관을 상호견제시킨 이유는 인권을 보호하기 위함임. 반면 홍콩은 삼권분립이고, 주권이 홍콩인에게 있음. 홍콩의 자유민주체제를 누가 대신 지켜주지는 못한다는게 냉정한 현실임. 스스로 지켜야 하는데, 학생시위대는 홍콩의 중산층과 직장인, 지식인과 공감하고 연대하는 것이 중요하다는 것을 알아야 함. 공산당의 전략이 그들과 시위대를 분리시키는것임.</t>
+  </si>
+  <si>
+    <t>다음세대에  죄를 짓지말라  역사의  죄인이 되지말라</t>
+  </si>
+  <si>
+    <t>진핑이 목 따라</t>
+  </si>
+  <si>
+    <t>박정희는 머리에 총알 구멍이 났고 전두환과 노태우는 사형을 선고 받았지 독재자의 말로는 항상 정해져 있지 중국 공산당과 시진핑은 명심해라 자유홍콩 만세 광복홍콩</t>
+  </si>
+  <si>
+    <t>더러운 쨍깨들이 무슨 법이있어ㅋㅋ 개그네</t>
+  </si>
+  <si>
+    <t>중국공산당이 독재가 어떤것인지 확실하게 보여주는군</t>
+  </si>
+  <si>
+    <t>홍콩은 법도 없나? 왜 중국이 간섭 하지? 법 무시는 중국의 특기....홍콩인들 전부가 일어 서야 하는데 저런 어린 학생들만 시위를 하니 중국이 통치 하려고 하지요.안타깝네요.그냥 몇일 이슈로 끝나는 건가? 홍콩을 응원 합니다.우리 대한민국 이었으면 난리 났을 거다.</t>
+  </si>
+  <si>
+    <t>한심한 짬께 넘들이여\n공산당 억압 정치에 내성이\n생겨서 그렇 사는것이 최고로\n인간 답게 사는 것이란다 \n결국 지넘들 삶의 질에 무덤 파는것이다</t>
+  </si>
+  <si>
+    <t>내가알기로는 1980년도에 영국이 홍콩 중국에 반환해주면서 사법.행정은 최소 영국법50년은 지키는게 반환조건으로아는데</t>
+  </si>
+  <si>
+    <t>홍콩판사들은 독재에 저항하는데 한국판사들은 군독재시절 뭐했냐 검사였었나 성공한 쿠테타는 처벌할수 없다고 한게 아예 쿠테타를 헌법에 넣자 그러지 이나라 판검사들도 구테타 공범이다</t>
+  </si>
+  <si>
+    <t>518하고 똑같네 전두환이랑 중국이랑 다를게 뭐냐</t>
+  </si>
+  <si>
+    <t>일국이제라고 안했어?? 역시 본색이 들어나는데 얼마 안걸리네요.</t>
+  </si>
+  <si>
+    <t>우리 사회의 미래로군.</t>
+  </si>
+  <si>
+    <t>저 나라는 3권 분립이 없나 ㅋㅋㅋㅋㅋ 미개하네</t>
+  </si>
+  <si>
+    <t>中 짱깨들이 미칫나 ~  ?  그러면  개망민국  MBC 복면가왕은  우짜라고  ???</t>
+  </si>
+  <si>
+    <t>혼란스럽다 법률이 독재자앞에 무용지물이 되는게 잘못되도 한 참 잘못됫네.</t>
+  </si>
+  <si>
+    <t>홍콩 시위는 20대가 주도하는 시위다. 홍콩 시민들이 얼마나 먹고 살기 힘든지 아냐? 그리도 얼마나 자유를 억압 받는지 아냐? 다음세대에 죄를 짓지 말아라. 중국 너네는 언제까지 죄를 지을꺼냐?</t>
+  </si>
+  <si>
+    <t>거의 다까끼 전대갈 716쥐면상 503닭대갈 때랑 삐까한데. 역시 저것들은 왜구이자 빨개이였어.</t>
+  </si>
+  <si>
+    <t>짱개야~니들 1국가2체제면  그렇게 하면 안되지 뭔 지방자치제냐? 니들 하는 행동은 그냥 1국가1체제야 공산당놈들아</t>
+  </si>
+  <si>
+    <t>우리도  즉시  좌빨금지법  발의 해 통과시켜야  ~~~</t>
+  </si>
+  <si>
+    <t>조국이랑 같이 죽창을 들고 이순신을 외치며 거북선 횟집에서 회나 쳐 먹어라</t>
+  </si>
+  <si>
+    <t>미일에 굴하면 이정권무너진다</t>
+  </si>
+  <si>
+    <t>강하게 나가야 한다. 그러면 미국도 어찌하지 못한다. 결국 일본에서 물러 설 것이다. 일본은 미국의 딸랑이니깐~</t>
+  </si>
+  <si>
+    <t>그러게왜 파기해서일을만들어만들길 저리도생각이없나</t>
+  </si>
+  <si>
+    <t>장관하나,제대로 임명못하는 무능정부 여론조작그만하고 이제는그만내려놓으시죠.</t>
+  </si>
+  <si>
+    <t>선동질만 잘하는 아마추어 좌파관료들이 전후상황 살피지도 않고 감정만 가지고 일을 저지르고 나니 이제 제대로 수습하기도 어려운 상황이다. 국격은 이미 땅에 떨어진지 오래인데 이제 그놈의 정신병 같은 정신승리는 좀 그만찾고 실리와 명분을 최대한 챙길 수 있도록 제대로 된 전략가나 외교전문가를 등용해서 본 사안을 포함한 여러 외교문제를 해결하길!!</t>
+  </si>
+  <si>
+    <t>주적인 중공과 북괴한테는 벌벌 설설 기고\n\n동맹인 미국과 일본한테는  당당하게 게기고..\n문재인의 현실 인식은 치매수준이며 ....문씨가  매국노 간첩이 아니면 이런식으로 나라를 쑥대밭으로 만들 수 있나?</t>
+  </si>
+  <si>
+    <t>일본을 무슨 아래국가로 생각하는 건가? 수출규제가 아니라 경제보복임. 시작은 한국의 일본기업 자산압류고. 여기까지 와서도 일본탓 시전이네. 지소미아 종료하면 이제 한미일 동맹은 나가리지 대깨문들 정신 못차림</t>
+  </si>
+  <si>
+    <t>한미동맹을 주사파 똘마니들이 다 말아먹는구나.  국민들만 불쌍하다....</t>
+  </si>
+  <si>
+    <t>일본에는 아무말도 안하고 한국만 압박하는 게 현재상황. 북한과 빨리 종전선언해야 된다. 더러운 잽머니에 휘둘리는 양키들</t>
+  </si>
+  <si>
+    <t>아니 최근 시작한 지소미아가 그렇게 죽고못사는건가?? 그럼 미국 일본은  50년동안 지소미아 없이 어떻게 지낸거야?? ㅋㅋ 미국 이해가 안가는게 한두가지가 아니다 ;;</t>
+  </si>
+  <si>
+    <t>졸속 체결한 지소미아! 그냥 중단해라. 쪽팔리다.</t>
+  </si>
+  <si>
+    <t>지소미아 파기시키고, 미사일/핵무기 개발 족쇄 끊고, 평택 땅값 공시지가 @6배로 올려 역으로 청구해라!</t>
+  </si>
+  <si>
+    <t>고민할걸 모르고 한거 아니잖아. 그러게 왜 선동해. 이제와서 언론에 슬쩍 미국때메 고민이다? 죽창얘기는 어디갔고?</t>
+  </si>
+  <si>
+    <t>지소미아는 종료 되것네 ~~^^  미국도 일본도 양보하지 않고 우리만 양보하라고 하면 이건 80% 종료 된다 \n청치는 명분인데 일본이 양보 하는것도 미국이 양보 하는것도 아니니 나라도 종료 하겠다\n 일단 종료 하고 추후 다시 협상 하면  정치적으로 라도 신뢰도 2가지 다 가질수 있는데 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>2년 반 지낫다   아직도 전정부 탓이냐?  대깨문들아   ,  아예   조선총독부  때문이라고하지?</t>
+  </si>
+  <si>
+    <t>방위비는  500%인상하면서  지소미아까지 포기하라고 하는군...이런게 무슨 동맹이야!  그냥 집어쳐라 그냥 다 꺼져라</t>
+  </si>
+  <si>
+    <t>트럼프 집권후 미국은 우리를 겁박하고 한일갈등시 노골적으로 일본편에 서서 한국의 국익에 반하는 요구를 하고 있으며 수모를 안겨주고 있다. 지금 미국은 동맹을 가장한 삥뜯는 양아치같은 행동만 하고 있다.</t>
+  </si>
+  <si>
+    <t>꼭 멍청하고 무식한 것들이 감정만 앞서서 쓸데 없는 고집 부리더라.</t>
+  </si>
+  <si>
+    <t>뭘 고민해 미군철수가 원래 목표잖아 미군 내보내고 우리도 농업국가로 돌아가자 박원순이는 좋아하겠네 ㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>연장은 하고 싶은데 취소한다고 했다가 다시 재개 하면 국민들에게 면목이 없고 외교는 완전 박살 나는거지!!  지금 어떻게 하면 국민공감대를 형성해서 연장할까? 이 생각만 하고 있지? 내가 장담하는데 일단 3개월 정도 연장하고 협상이어간다.</t>
+  </si>
+  <si>
+    <t>한미동맹이 없고선 우리나라의 안보를 보장할 수가 없다. 자주국방이 지금 군 현실에서 되겠는가. 군인들은 휴대폰 들고 군사훈련이나 제대로 받겠는가. 로켓 실험하려니 의문의 폭발사고나 나고. 현 정권이 우리나라를 지킬 힘은 물론이고 의지도 전혀 없다고 본다.</t>
+  </si>
+  <si>
+    <t>우왕좌왕 갈팡질팡 일모도원 문재인.. 외교력과 북한의 짝사랑에 버림받은 문재인 세금은 전나게 걷어놓고 세금대마왕 문재앙 외교는 참사 경제도 재앙 민생은 파탄.. 언론에대한 조작과 여론조작만 하는 문재앙 죽음을 맞이해야 새로운 희망의 한국을 바라본다..</t>
+  </si>
+  <si>
+    <t>청와대 즈그들이 일 저지르고 진퇴양난?... ㅉㅉㅉ 한치 앞도 보지 못하는 것들이 정권잡고 있으니 울나라가 참...어찌 청와대에는 머저리들만 있는겨? 이런 것들이 담 총선에 나와 한표 주쇼 한다네여... 기가 멕히지라...</t>
+  </si>
+  <si>
+    <t>대가리에든게 있어야지 고민이라도하지. 지금도 오로지 북한생각뿐일듯.</t>
+  </si>
+  <si>
+    <t>미국분들은 왜! 우리나라에게만 압박이야,  아베에게도해서 역할을해야지...</t>
+  </si>
+  <si>
+    <t>곤조 정치 ㅋㅋ  세상 이런 대통령이 있나 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>응? 왠고민? 배12척 죽창이면 OK!</t>
+  </si>
+  <si>
+    <t>일본의태도 변화없는 지소미아 연장은 안되어요.</t>
+  </si>
+  <si>
+    <t>무슨 고민? 아베 수작에 안 놀아나요. 미국에 노하면 아베에게 달려가겠지요.</t>
+  </si>
+  <si>
+    <t>이제 압류로 가라. 한국을 호구로 아니까 이런 사단이  난다.  호구가 아니라는걸 보여주자. 종료하고 재판도 속전속결로 압류가고</t>
+  </si>
+  <si>
+    <t>지금 미국의 방위비 분담도 문어벙이 멍청한 외교를 하니 그냥 질러버리는거임 국제호구로 전락해서 그러임 이전 대통령들은 이런 멍청이 외교 안했다..</t>
+  </si>
+  <si>
+    <t>연합뉴스 기레기들이 안달나 죽겠지?? 매국노들 ㅉㅉㅉㅉ</t>
+  </si>
+  <si>
+    <t>아베 새키들이 강제징용 사과, 배상 및 무역보복 철회. 백색국가 철회하지 않는 한, 적국가 군사정보보호 협정은 말도 안된다.. 국민들이 용서 안한다... 왜구새키들이 안보상 이유로 우리반도체 무역 공격을 했다. 반도체가 안보상 위험이라며 백색국가에서 제외 했다. 그런 아베새키들과 군사정보 보호협정유지는 말도 안된다.군사정보호 협정 파기 유지하라!</t>
+  </si>
+  <si>
+    <t>종료 해라. 그게 답이다</t>
+  </si>
+  <si>
+    <t>멍청한  좌파는  일본과의  지소미아라고  당사자가  일본이라고  생가하는데  이건  미국의  동북아  이익에  첫수순이다.  대남 적화통일에  당사자가 아닌  일본 입장에서 지소미아협정은  해도 되고  안해도  되는  문제이다.  멍청한  좌파들은  이협정  파기로  일본이  힘들다고  믿는데  실제는  대한민국이  힘든거다.  북한은  유훈정치의  나라고  그  첫번째  유훈이  남한의  적화 통일이고 둘째가  핵무기 보존이다.  이걸  애써  외면하니  이사태가  벌어진거다.</t>
+  </si>
+  <si>
+    <t>이번기회에.우리나라도 발끈하다는걸 보여줘야한다\n한미동맹 좋아하네\n이젠 양아치야\n과감히 밀고나가고 미국과 거리두기학미국에서 온놈들 푸대접해서 보내기로가자....</t>
+  </si>
+  <si>
+    <t>똥만 싸질르는 시끼</t>
+  </si>
+  <si>
+    <t>전부 바보 등신들인가? 지소미아가 협상과 관계를 위해 던지는 카드였다면 되든 안되든 던지면 되는거 아닌가? 설마 쪽도 없이 협박 도박용으로 사용하던 카드였기에 그렇게 고심하고 벌벌 떠는가? 에라이 벨도 없고 뚝심도 부족한것들이 왜 그런 도박을 해서 오줌을 질질 지리고 있는가</t>
+  </si>
+  <si>
+    <t>조국이 죽창들고 싸워야 하는데 지금 범죄자가 되어 검찰조사를 받는 신세가 됐네 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>똥싼놈이 치워야지...남탓 하지말고..</t>
+  </si>
+  <si>
+    <t>국방만의 문제는 아니죠..무역도 있고..외교도 있는데요.  막가자는거 아니면..색깔을 들어내야죠..국민은 자유 민주주의 바라죠..인민 민주주의 원하지 않아요. 왜 못살면서..함께여야 하나요? 중국 시집살이 하면서요?</t>
+  </si>
+  <si>
+    <t>지소미아는 서로 윈-윈하는 협정이다  우리가 가진 북한군 동향을 우방인 일본에게 제공하는 대신 일본은 추리보다 훨씬 더 뛰어난 방위 및 경보시스템으로 우리에게 즉각 북한의 도발시 정보를 우리에게 제공하게 되어있다 이게 어떻게 굴욕적인 협약이냐  서로 도움이 되는거지  대한민국은 자유진형에 속한 나라가 아니냐? 자꾸 빨간 사상을 가진 인간들이 지소미아를 자신들의 위협으로 보고 언론을 통해 국민들에게  일본의 노예가 되는 협정이라느니 말도안되는 선동질을 하는것 아니냐</t>
+  </si>
+  <si>
+    <t>내 감정적으로 진행할껀데 어떻게 하면 정당화로 보일까 고민중이겠지~ 쫌생이치매노친네</t>
+  </si>
+  <si>
+    <t>종료해라</t>
+  </si>
+  <si>
+    <t>방위비  증액 및 지소미아 취소 절대 안된다\n니뽕 게 샛이들 미국샷이들 똥구멍 살살 긁는거\n딱 보이는데  취소 할거냐?</t>
+  </si>
+  <si>
+    <t>그냥 끝냅시다. 미군 철 수하고 핵개발 갑시다. 강대국 사이에서 살아남기 위한 해법은 핵개발 밖에 없어요. 구차하게 미국에 기대지 말고 중국에 아부떨지말고 일본 아베넘에게 본보기로 핵개발 갑시다. 미사일도 북한보다 훨씬 강한 걸로 개발하고. 몇 년간은 고생할 수도 있겠지만 버티면 핵보유국 됩니다. 트럼프가 벌벌 기는 이유도 북한이 핵 보유국 때문입니다. OOO이 어디다 대고 빨대 꽃을려고 방위비를 5조나 내라고 해. 미군 평택기지 세계에서 제일 좋은 시설입니다. 사용료 안내면 꺼지라고 합시다.</t>
+  </si>
+  <si>
+    <t>언제는 일본의 경제제재에 지소미아 폐기로 맞대응하니까.....잘했다고 하면서 일본 불매운동했으면서......이제는 일본하고 지소미아 연장하라고 하고, 인터넷으로 유니클로 열나게 구매하는 인간들.......</t>
+  </si>
+  <si>
+    <t>재앙이 이OOO샊기!!! 무능하면 제발 관두고 내려와 씺샚걊!! 자유민주주의 최고 우방 미국을 등지고 OOO같은 짱깨샊기들 후1~2~3장이나 처 빠는 무능한 쓰레기</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ 그러게 왜 거북선이니 다시는 안지니 일본자극해서리 ㅋㅋㅋ 일본하고 다시 화해무드 만들고 지소미아 다시 해야되는데...ㅠ 아베한테 저자세로 나가도 냉담한 반응이니 재인아 우짜노...ㅠ</t>
+  </si>
+  <si>
+    <t>정치가..니들개인 보복놀이하는 판이냐??..세금은 있는데로 쳐바르고...사상 최고로 지역감정 극대화시키고..주변국 최대로 적국만들고..경제는 최고로 나빠지고..이게..니들성적표야....한국에서 그러지말고..니들 고향으로 올라가..제발..</t>
+  </si>
+  <si>
+    <t>저건 실리 차원의 문제인데 저 무능한 좌익민족주의자의 말도 안되는 자존심 내세우기 때문에 지금 국익이 흔들리고 있는 상황임. 진짜 끌어내지 않으면 한국에 미래없음</t>
+  </si>
+  <si>
+    <t>뭐가 고민될것이 있나?  동맹국 미국의 요청에 따라 지소미아를 유지하기로 하고, 단 일본의 요청이 있을시 정보를 제공한다고 하면 되지. 그게 무슨 대수라고.</t>
+  </si>
+  <si>
+    <t>자력갱생 또 짖어라 ㅋㅋ이미 국민들은 더이상 안속는다</t>
+  </si>
+  <si>
+    <t>하야해라 삶은소대갈님아</t>
+  </si>
+  <si>
+    <t>다시 원상복귀 할거라고 본다던데 뭐 제대로 한게 있나요?</t>
+  </si>
+  <si>
+    <t>미국은 간섭하지마라. 지소미야 연장하고 싶으면 아베가와라.</t>
+  </si>
+  <si>
+    <t>스스로가 만들어낸 고민들.</t>
+  </si>
+  <si>
+    <t>일본이 수출규제를 하도록 유도했잖아. 한일청구권 협정폐기로. . 미치겠다.</t>
+  </si>
+  <si>
+    <t>문재앙을 탄핵 시켜야 하는 이유중에 가장 큰것은 경제가 폭망중인데 경제 좋다고 대국민들 상대로 사기치면서 안보는 북괴가 미사일 실험 매번 하는데 이 새긴 침묵과 방관으로 대쳐중. 이런 새기가 대통령이라고???? 사기치는 새긴데????</t>
+  </si>
+  <si>
+    <t>고민많겠네,  누구 호응해 주는데가  있어야 더 밀고 나갈텐데,  참 체면구기는  일일세,  잘못된 의사결정이라  얘기하기도 면이 안서고</t>
+  </si>
+  <si>
+    <t>여긴 뭐 미국 뉴스 볼줄모르는 머저리들만 있나봄 나라망한다고 하는거보니</t>
+  </si>
+  <si>
+    <t>고민은 무슨 고민이고...ㅈㄹ 하네..   고민할 꺼리나 되나~??? 한심하다 문정부!!!\n문통은 대한민국 국민의 인권과 북한 인권은 하나도 엄따~~~</t>
+  </si>
+  <si>
+    <t>에이...  고민하는 척  하는 거겠지...  확고한 거 아냐... \n그 이후 무슨 일이 일어날지는 두고 봐야지....</t>
+  </si>
+  <si>
+    <t>자기가 판 함정에 자기가 빠졌다. 지소미아를 종료하자니, 제2의 6.25 전쟁이 다가오고. 지소미아를 계속 하자니, 자기가 판 반일 프레임 함정에 빠지고.</t>
+  </si>
+  <si>
+    <t>미국을 적대시 해서 안망한 나라없고, 중국과 동맹 맺어 안망한 나라 없다. 아직 짱개의 사드 보복 안끝났고 미군은 한국을 위해 주둔중이다.</t>
+  </si>
+  <si>
+    <t>정말 하루하루가 위태로운 나라이다.. 온 국민들 암 걸리게 생겼다.. 발암 문재앙과 그 일당은 물러나라.. 제발..</t>
+  </si>
+  <si>
+    <t>껍쩍 거릴 때,난 알 았지!!!결국은 국욕적인 외교로 끝날 거라는 것을.....어벙은 항상 그래!!!</t>
+  </si>
+  <si>
+    <t>이번 정부는 증말 막장 중 막장이다... 청와대에 제정신 가지고 있는 애들이 하나도 없어..</t>
+  </si>
+  <si>
+    <t>ㅋ.문씨및 패거리들은 오직 지들 일당들 이익만을위해 미친짓을 충분히 당연히 할꺼라 본다.</t>
+  </si>
+  <si>
+    <t>으이구~무능한 찐따야... 걍 너 좋아하는 북으로 월북해서 다신 오지마! 씁얼넘.</t>
+  </si>
+  <si>
+    <t>내가 지금까지 뎃글에 욕 안햇는데 하고 싶다 미제놈들~~일본가서 뗑깡놀을 부려야지 왜 한국에 와서 지랄이야? 아베가 시키더냐? 일본이 먼저 잘못햇으면 일본을 나무래야지 안그래?</t>
+  </si>
+  <si>
+    <t>폐지하자</t>
+  </si>
+  <si>
+    <t>그러게 말은 함부로 하는것이 아니야!  지금 지소미아를 되돌려 놓을려고해도 구실을 찾지 못하고 있잖아...\n눈치없는 미국은 그런 구실을 좀 만들어 주면서 압박 하지 그냥 밀어 부치면 어떻해?</t>
+  </si>
+  <si>
+    <t>걍 하지마. 어짜피 종북세력이 나라 망칠려고 작정하는 판인데 개돼지 국민들이 아직도 정신 못차리고 저런자들을 지지하니 나라가 망해도 자업자득이다. 주한미군 철수하고 북한, 중국, 일본의 노골적인 침략위협에 시달리며 경제 폭망하고 부자 다 빠져나가고 개돼지들만 남아서 정신승리 하는게 개돼지들이 원하는거라면 걍 그대로 만들어줘라.</t>
+  </si>
+  <si>
+    <t>미국은 일본 편이라는것을 잊어서는 안된다...?! 조선 말에도 미국은 일본 편을 들어서 일본 식민지가 된것을 잊어서는 안된다...미군은 중국.러시아를 견제하기 위한 수단이 60%라면...대한민국 방어수단 목적은 30%정도...물론 6.25때 유엔군 들이 피흘려 나라를 지켜준것은 고맙다...그때 대통령은 친미파 이승만이었다....지금도 친미파 대통령인가가 문재다...?! 대한민국은 역사적으로 친중.친러정책때는 망했다...친미때만 살아 남았다...?! 역사는 반복된다고 누가 말했다...?!  미국은 일본을 이용하고 일본은 미국을 이용?</t>
+  </si>
+  <si>
+    <t>정말 문슬람들 말대로 문재앙이 외교 천재라면 지소미아 연장해서 줄건 주고 방위비 협상에서 이걸 카드로 써서 유리한고지에 올라서 받을건 받겠지만 저 문어벙은 돌빡이라서 걍 눈알만 굴리고 있겠지.</t>
+  </si>
+  <si>
+    <t>질러는놓기는했고 지소미아파기 원하는 좌파들도 많으니까 그국민들을 위해 조국때처럼 엄청고민하는척하면서 고고하겠지 지소미아파기하고 미군철수하면 북한 중국 러시아는 엄청 좋아하겠네</t>
+  </si>
+  <si>
+    <t>때통 자격도 없는 ㄴ이 정권잡고 하는짖마다 ㅂ ㅅ 짖만 하고 있으니 궁민은 답답하다</t>
+  </si>
+  <si>
+    <t>덜떨어진 모자란 골빈 돌대가리 저능아 무능력한 시진핑 따까리 새끼</t>
+  </si>
+  <si>
+    <t>니들 정 그러면 축소하거나 철수해도 된다고하면, 삐져서 무역보복을 할까봐 그게 두려운거지.. 뭐 북한이나 중국, 러시아가 두려운게 아니다</t>
+  </si>
+  <si>
+    <t>일본은 변화가 먼저여야하고 어차피 일본우익의 변화를 기대하기는 어렵고 대한민국 자칭 보수정당이나  그추종세력들도 자신들의 의견과 다른견해는 무조건 좌빨이라고 몰아세우는 정신이상자들이고,애네들의 자주국방에는 주한미군주둔이 공식이라 애들 의식이 바뀔때까지 기다리면 지구가 멸망할때까지 자주국방은 그저 꿈일뿐  \n지소미야는 그냥 종료가 정답이다. \n굿굿하게 밀고 나가자 대한민국 파이팅</t>
+  </si>
+  <si>
+    <t>미국은 bluffing 절대 안 함. 거기다 현 정권은 미국의 요구를 거의 들어주지 않아서 단단히 찍혀서 지소미아 거절시 그 파장은 상당할 것 ㄷㄷ. . 우리나라 유조선 지키는데 필요한 호르무즈 해협으로 군함 파견해달라는 것까지 거절은 솔직히 좀 심하지 않나?? 그동안 미군이 바닷길 잘 지켜줬음 그정도는 해줄 수 있잖아ㅉㅉㅉ</t>
+  </si>
+  <si>
+    <t>고민은무슨?무조건미국말따라야지</t>
+  </si>
+  <si>
+    <t>고민할게 뭐있냐. 그냥 미국 핑계대고 연장하면 되지. 마음은 종료시키고 싶은데 미국때문에 못하겠다. 일본 보복엔 다른 방법으로 대응하겠다. 이러면 쉬운 걸 뭘 고민해.</t>
+  </si>
+  <si>
+    <t>지소미아 연장을 방위분담금 동결 카드로 써라.....실리가 우선이다....그러면 미국은 일본한테 비용 받아내려 하겠지... 내년까지 버텨서 친한파 블룸버그가 정권 잡으면 더 이상의 압박은 없겠지...</t>
+  </si>
+  <si>
+    <t>우리가 일본과 협정을 유지한다는것 자체가 말이 않된디..일본과 한국은 같은 군사협정 의미가 없다ㅡ..사드를 미국에 선물로 주기를 바란다...솔직히 대한민국은 사드가 필요없는 나라이다..사드를 선물로 포장해서 보내라..미국으로 미국이 않 받는다면 일본에게 선물해라...</t>
+  </si>
+  <si>
+    <t>고민  깊어  질  짓을  왜  해?   싸가지  없이.   지소미아가   일본  한국   쌍방 만의 쌍방  협약이라면    또  모르지만 제  삼국이   관련  되어  있는데  싸가지  없이  덜컹 파기  선언  해  놓고   고민은   무슨  얼어  죽을  고민이냐?    그것도  몰랐어?  일국의  대통령이?</t>
+  </si>
+  <si>
+    <t>미국 설득했다, 이해해 줄거다 아가리 털지 않았나?</t>
+  </si>
+  <si>
+    <t>고조선 이래 역사상 최악의 무능한 좌빨 정권으로 인해 5천만 대한국민의 안보와 삶이 무너져 내렸네요. 단군께서 하늘에서 보시고 한탄하고 계실 것 같습니다.</t>
+  </si>
+  <si>
+    <t>댓글러들 일당값 하느라 바쁘구나</t>
+  </si>
+  <si>
+    <t>쓸데없이 건드려가지고 일 키윘네  망가뜨릴려고 작정했어\n고민이나 하나? 너  연장 안 해서 경제 금융 보복와서 휘청하면  각오해라</t>
+  </si>
+  <si>
+    <t>처음에 김정은 하고 국내 들어와서 손잡고 하는 모습을 보고 외교문제 잘하겠다고 생각했는데 역시 그냥 쇼에 불과한 거였어. 이런 외교 시험대에서는 그냥 빵점이네 빵점</t>
+  </si>
+  <si>
+    <t>고민은 무슨, 즐거워서 잠이 오겠어요? 일주일후면 미군철수라는 지상과제를 해결 하는데 얼마나 바라고 고대 하겠어요.오죽 급했으면 귀순 동포를 5일만에 추방 했겠어요.장군님 오시면 인사 시켜주세요.꾸벅^^</t>
+  </si>
+  <si>
+    <t>네이버에는 나라 팔아먹을 놈들만 있네...자한당하고 손잡고 열심히 나라팔아드세요...\nㅆ 바 ㄹ 것   들....디랄 땀따드시고 있네들</t>
+  </si>
+  <si>
+    <t>지소미아파기해라 그리고  문제암과 그 떨거지들 탄핵으로 대청소하자</t>
+  </si>
+  <si>
+    <t>이사람 ~~~솔직히 고민하기는 할까?</t>
+  </si>
+  <si>
+    <t>문재앙은 결국 미국한테 백기 들 것이다. 그렇지 않고 지소미아 파기하면 바로 권좌에서 쫓겨난다. 무능자, 비겁자.</t>
+  </si>
+  <si>
+    <t>자신 있으면 지소미아 파기해라 미국의 모든 분노가 헬조선을 향해 움직이고 무역보복부터 온갖 핍박이 시작될테니까</t>
+  </si>
+  <si>
+    <t>나경원이 검찰에 가서 사보임이 불법이라고 설명했다는데 그렇다면 고발을 해야지 검찰에 말로 설명하면 뭐하냐? 지금 문죄인을 고발할 것이 수천가지가 넘는데 왜 고발을 안하는거냐? 자유한국당은 투쟁정신을 좀더 고취해야할 필요가 있다고본다. 절대절명의 순간에 선택이 하나도 없어. .. 뭐하는 짓거리냐? 밥상을 문죄인이가 다 차려줘도 못먹냐? .. 당장 불법을 고발해라.</t>
+  </si>
+  <si>
+    <t>자해공갈 외교를 하는구나. 미국한테 한일문제 해결 안 해주면 자해할거라고 떼쓰는 아이와 같다.</t>
+  </si>
+  <si>
+    <t>지소미아 종료해라.</t>
+  </si>
+  <si>
+    <t>파기 못하면 선동꾼으로 밖에 안보인다 무조건 파기하라 안할거면 하야 하라!</t>
+  </si>
+  <si>
+    <t>원칙대로 하세요.  주한미군 돈 더 달라고 하면  주둔비 달라고 하세요.</t>
+  </si>
+  <si>
+    <t>원자력협정및 미사일 무기개발 제한 완전 폐기 요구해라 멍청한 새낃.ㄹ아</t>
+  </si>
+  <si>
+    <t>여기 저능아들 너무 많아서 탈이네 ㅋ 지소미아가 정말로 국가이익이 된다는 논리성을 펼쳐보라면 1도 논리를 주장하지 못하면서 단순 편파적인 저능아들이 일본 우익 얘들이랑 다를게 뭐람? ㅋ 팩트를 반대표 처 누르면 자기가 저능아 입증 하는 꼴이지 ㅋ 제대로 말하면 지소미아가 뭔데? 그냥 북한이 우리나라에 미사일 꽂으면 되는걸 굳이 북한이 멍청해서 미사일을 대기권으 돌고 돌아서 꽂니? 생각을 갖고 행동해라 멍청이들아</t>
+  </si>
+  <si>
+    <t>북한 동포 인권에는 눈감고 중국몽만 꾸시는 이른바 닌권 변호사 문재인 대통령각하</t>
+  </si>
+  <si>
+    <t>지소미아 파기는 당연하다. 일본넘들은 우릴 눈아래놓고 우습게보는데\n언제까지 무시당할것인가? 22세기까지...지구멸망할때까지...\n이번에 일본에 대해 목소리를 못내면 앞으로 일본한테 계속 OOO이다.</t>
+  </si>
+  <si>
+    <t>한국이 북한핵미사일을 발사하는 장면을 알수있나 한국에있는  레이더는 발사하고난뒤 공중에 있을때만 알수있는데 ㅉ ㅉ 미국과일본은 발사장면뿐만아니라 발사할려고 하는과정까지 인공위성 으로 알수있는데 지소미아를 포기한다고 북한좋은일만하네 개돼지들은 그것도 모르고 ㅉㅉ 핵이머리위에떨어져야 정신차리지</t>
+  </si>
+  <si>
+    <t>트럼프또라이고우홈  쪽바리14들 지소미아개나발불고염병하는구나</t>
+  </si>
+  <si>
+    <t>그래도 내겐 조작미터가 있다 . .</t>
+  </si>
+  <si>
+    <t>여납 쓰레기야!\n바람잡지 마라!\n귀태년이 23일만에 말도 안되게 졸속으로 합의한걸 \n이제와서 왜? 누구좋으라고 연장을 해 줘?\n친일 부역자 쓰레기들을 위해서?</t>
+  </si>
+  <si>
+    <t>돈을 얼마나 쳐 발랐으면 저렇게 광분을 하고 나설까??........남이 대신 그것도 네명이나 나서서 세치 혓바닥으로 똥을 닦아주겠다고 나서는데 아베가 좋아라 하겠구만.................</t>
+  </si>
+  <si>
+    <t>고민은 무슨.... 파기하고 김정은 똥꼬나 닦으려 들겠지.... 뻔히 보이는데 고민하는 척 하기는.....</t>
+  </si>
+  <si>
+    <t>지소미아 연장하면 일본에선 어차피 연장할거 왜 쑈했냐면서 근성도 없는 조선놈들이라고 비웃음 조롱당할거고, 파기하면 미국의 퍼펙트 스톰으로 나라의 안보와 경제가 개10창날거고 ㅋㅋㅋㅋㅋㅋㅋㅋ이러나 저러나 문재앙은 졷된거임 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>뭉가 가 망처놓은 한일관계..뭉가만 없어지면 모든게 정상으로 돌아갈 것이다.</t>
+  </si>
+  <si>
+    <t>이 지경인데 문재인 잘한다고 지지율 올라간대 ㅎㅎㅎㅎ</t>
+  </si>
+  <si>
+    <t>능력 없으면 내려오시게 나라를 이지경으로 만들고 문무능님 청기와 비우시게</t>
+  </si>
+  <si>
+    <t>문씨는 일본 믹국과 등지고 단절한후 북한이랑 중국과 손잡고 그리하여 대한민국을 북조선의 산하 국가로 만들려는 수작</t>
+  </si>
+  <si>
+    <t>지소미아는 연장하고, 분담금은 버텨라 ~~ 그러면 총선에서 이긴다.\n만일 거꾸로 알량한 자존심때문에 지소미아는 폐기하고, 그거 메꿔주느라 분담금인상 OK하면,\n국민도 폭망하고 현 정권도 총선에서 망하게 될 것이다.  - 삼봉 정도전의 혼 -</t>
+  </si>
+  <si>
+    <t>재앙아~ 구중궁궐 간신배들만 있는 청와대에 갇혀 있으니 나라가 어떻게 굴러가는지 잘 모르겠지? 광화문으로 나온다면서 왜 안나오니? 좀 나와봐~</t>
+  </si>
+  <si>
+    <t>옥수수  사줄게   일본  압박해라!!!!!!  옥수수  성금  모금!!</t>
+  </si>
+  <si>
+    <t>달ㄱ창들 ㅂㄷㅂㄷ  꿀잼이당</t>
+  </si>
+  <si>
+    <t>싸이코패스 치매 문재앙이 안보와 외교도 정략적으로 이용하니 개판이 된 거지. 수습이 불가능한 형국이다.</t>
+  </si>
+  <si>
+    <t>종북정권이 망국질하다가 끝장나는 것. 일본은 지소미아와 수출규제는 차원이 다른 문제라는데 어뻥이는 무슨 말인지 이해나 될라나? 일본국민들이 미치지 않고야 70%정도가 대한국 수출규제를 찬성할까? '저것들 툭하면 돈 달라고 한다'라고 하지 않을까? 15억원 징용자 보상금 때문에 몇 십조원의 금전적 손해를 보고 (양국간 경제적 대응) 양국민의 감정은 회복이 어려울 정도로 악화하는데, 국제 여론은 일본에 손가락질 할까? 일본의 엄청난 대외협력기금을 받는 아세안국가들이 대외협력기금이라고는 거의 없다시피한 한국편을 든다고?</t>
+  </si>
+  <si>
+    <t>외교가 1도 안되는 무능정권</t>
+  </si>
+  <si>
+    <t>문재인이야말로 매국노지. 북한에 눈뒤집혀 자유국가 의 동맹들은 다 깨버리기. 근데 정작 북한한테도 소대갈 소리 듣는거보면 매국노보단 모자르다고 해야하는게 맞는건지 조금 헷갈림.</t>
+  </si>
+  <si>
+    <t>술에 떡이된 음주 운전자가\n나라를 말아먹는구나!!!!\n김정은 장군님 만세!!!\n조국장관님 만세!!\n이해찬 만세!!\n송영길 만세!! 우상호 만세!!\n임종석 만세!!</t>
+  </si>
+  <si>
+    <t>고민은 무슨 걍 귤까먹고있을듯 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>지소미아 절대 반대...쪽바리들 한테 돈 쳐먹은 미국놈들...</t>
+  </si>
+  <si>
+    <t>절대 물러서지 마세요. 일본놈 미국놈 언제까지 끌려다녀야 하나요? 우리가  봉이 아닌걸 보여줘야지  똥줄타는놈은 저 두놈들이다</t>
+  </si>
+  <si>
+    <t>문재인이 뭘 고민하나? 그냥 연장하면 되지. 문재인이 무슨 머리나 있는 것처럼 고민하는 코스프레 그만해라. 국민이 불편하다. 미국과 척지고 일본과 척지는 게 대한민국에 무슨 도움이 되나? 중국이 우리 돕나? 러시아가 우릴 돕나? 문재인의 고집 때문에 일어난 지소미아 실수는 퇴임 뒤 응분의 책임을 묻겠지만 그 전에라도 국가와 국민을 생각하면 답은 쉽다. 제발 문재인은 더이상 국민을 갖고 놀지 말라.</t>
+  </si>
+  <si>
+    <t>무식한  문또   라이  개돼지 선동용 아가리 맘대로 놀려서   이사단이  난거다. 피해자는 국민들이고</t>
+  </si>
+  <si>
+    <t>ㅋ  일베 틀딱충들 !  할줄아는거라곤 지나라대통령 까대기.  아베랑 문재인 찍으라연 아베 찍고 대통령 만들어줄 인간들</t>
+  </si>
+  <si>
+    <t>너희 같은 쫄보들은 감히 상상도 못했던 일을 해내고 있으니 똥줄이 탔나보네\n문재인대통령에게 튼튼한 국민의 힘을 실어줍니다 지금처럼 당당하게 맞서 주세요!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>문정권이 싫다고 일본 돕는 짓은 하지 말자</t>
+  </si>
+  <si>
+    <t>만약 지소미아 종료를 철회한다면 줏대없는 외교의 끝판왕이 될 것입니다.. 그렇게되면 일본은 앞으로 더 눈치안보고 여러 규제들로 한국을 공격할 것이며 국내에서는 20~40대의 주요 지지층을 많이 잃게되는 이중고가 발생할 것입니다. 일본이 수출규제를 유지하는한 지소미아 종료는 굳건히 지켜나가야 할 것입니다.</t>
+  </si>
+  <si>
+    <t>지금까지.. 댓글들을 보면.. 지금의 사태가 문대통령의 무능이 불러왔다고 언급한다. 그러나 다른 이들이 나의 의견에 동의하지 않는다 할지라도, 난 생각과 의견이 다르다. 일본은 한국 국민이 제기한 소송에서 자주국가의 사법부가 내린 판결에 대하여 반기를 들고, 손대지 말았어야 할 경제 보복을 가해왔다. 그리고 한국은 지소미아 파기를 선택하였다. 지금 미국이 일방적으로 일본편을 들며 지소미아 파기를 번복하라고 압박하고 있는데, 이렇게 공평하지 않는 게임에 왜 우리는 미국이나 일본에겐 한마디도 못하고, 자국 대통령만 욕하고 있는가?</t>
+  </si>
+  <si>
+    <t>재앙이가 결국 다말아먹었네ㅋ 욕나오네</t>
+  </si>
+  <si>
+    <t>미국은 한국보고 빤스 벗고 무릅 꿇으라고 협박하고 있다. 아무리 강대국이라지만 이것이 5천년의 역사를 가진 문화민족을 대하는 태도냐? 만약 미국의 요구대로 하면 우리 나라는 향후 장기판의 졸로 전락하는 것이다. 우리 방위는 우리 스스로 할테니 미군 철수 하라.  그리고 대중국 전략상 더 주둔해야 겠다면 돈을 내라.</t>
+  </si>
+  <si>
+    <t>대통령님~~~ 국민을 믿고 소신껏 앞으로 나가시오~~~~~~~~~~~~~~~~~~</t>
+  </si>
+  <si>
+    <t>미쿡놈도 싫고 일본원숭이도 싫다...하지만 진짜 꼴도 보기 싫은 넘들은 자국의 대통령 까대는 대한민국의 수꼴퇘지들이다.</t>
+  </si>
+  <si>
+    <t>망할놈의 언론사 연합뉴스.....문빨갱이 지가 싸지른 똥 지가 치우면 되지 뭐가 고심이 깊다는 거야? 아부 할 걸 해야지... 구역질 나는 것들.</t>
+  </si>
+  <si>
+    <t>문벌구 때문에 나라가 망할지경입니다 ㅜㅜ\n 지소미아 유지해라 문벌구야</t>
+  </si>
+  <si>
+    <t>가나다라 ABC도 모르매 무슨 대똥령한다고 설치나  ? 국익은 뒷전 정권 연장은 최우선</t>
+  </si>
+  <si>
+    <t>친일기레기 니들만 속타겄지..종료가 답이야.괜히 쪽바리 들 도움줄생각 꿈에도 하지마라.</t>
+  </si>
+  <si>
+    <t>지소미아만 안건드렸어도 일본과 동등하게 지금 할말다하면서 대일본 외교전을 수월하게 가져갈수 있었는데 미국까지 적으로 돌려놓다니... 완전수세잖아 지금.</t>
+  </si>
+  <si>
+    <t>일본의 태도 변화 없이 미국이 개입해서 연장하는건 반대입니다 일본이 미국에 로비를 엄청나게 하고 본국에 있는 옥수수도 사들일만큼 눈치 잘 보는 쫄다구인건 알겠지만 대한민국에 이득이 없는 지소미아는 한일관계가 개선되고 다시 합의되어도 늦지 않다고 생각합니다 안보를 적대적인 나라와 공유하라고? 혐한이 판치고 경제를 정치로 압박하는 일본이랑? 어이없네</t>
+  </si>
+  <si>
+    <t>존심 내세우다 꼴 좋다 미국방장관이 직접 최후통첩하러 문씨를 만나는군 분수 모르고 꼴깝 떨던 기개는 다 어디갔냐 이게 뭔 개쪽이냐</t>
+  </si>
+  <si>
+    <t>지소미아...파괴를...북이ㅡ  지령했다는  말이있다....문재인은....수사   받아야  한다~~~</t>
+  </si>
+  <si>
+    <t>애당초 정부가 일본을 우습게 본거지. 화이트국가제외때도 국회의원들 가서 말 잘하면 해결될꺼라고 하다 까이고 실무진 문전박대 당하고 지소미아 종료협박 하면 통할 줄 알았는데 되려 쫄리는 상황되었으니...국민은 잘하려 하나 고위층이 문제야. 임진왜란때 처럼.</t>
+  </si>
+  <si>
+    <t>사실상 수출규제라고 하는데, 현실에 와닿게 불편한 것 없습니다.\n규제가 좀 까다로와 졋다는 것 뿐인데, \n한국이 혼자 발끈해서 지소미아라는 자충을 두는지 ..어느 대가리에서 이런게 나왔는지 참으로 알수가 없습니다.</t>
+  </si>
+  <si>
+    <t>종북 빨갱이 문재앙 목표는 한미동맹 파괴다....  한미동맹 파괴를 위해 지소미아 끝낸다... 재앙이다 ..문재앙..</t>
+  </si>
+  <si>
+    <t>지소미아 폐기를 빌미로 일본우선이라는 미국의 정책에 변화의 빌미를 줘야 된다  한국이 미국의 정책에서 벗어난다면 해양국에 대한 방어선이 무너지고 기존 미국의 중국과 러시아의 견제를 이루어놓은 모든정책을 다시 되돌아볼수 있다  안보에 대한 미국의 입장에서 일본이 우선인지 동등한 관계의 우선인지 미국의 선택에 달려있음을 알리는거다</t>
+  </si>
+  <si>
+    <t>문재인의  진짜목표는  한반도에서  미군철수이지 않을까? 이건 김정은의 제일큰 바람이기도하고. 이를위한 일환으로 미국을 화나게  하기위해 지소미아를 끝내 파기할것 으로 본다.</t>
+  </si>
+  <si>
+    <t>당연히 지소미아는 종료되어야 한다. 자주 국방 실천하고 자국 이익 우선 챙기는 미국에 휘둘리지 말고 끝까지 갑시다.</t>
+  </si>
+  <si>
+    <t>일베충들인지.....\n늙은 쓰레기 태극기부대인지....\n토작왜구당 당원인지....   애쓴다.</t>
+  </si>
+  <si>
+    <t>한심한 놈 저런게 대통령이라고. 국민이 불쌍하다</t>
+  </si>
+  <si>
+    <t>쪽바리의 태도변화  없이는  절대로 유지해서는   안된다ㆍ\n이거 뭐   이치에  맞지않는  미국의 행태는  더  문제다\n   이렇게  된   원인을  해소시켜주고  강요하든지 해야지ㆍ   자기들  같음   존심버리고  유지하겠나 ㆍ\n   쪽바리  변화없는   상황에선 절대   지소미아  유지해선  안된다 ㆍ</t>
+  </si>
+  <si>
+    <t>지소미아 강요는 한미동맹의 파기 부를것이다!!!</t>
+  </si>
+  <si>
+    <t>지소미아 폐기하고 미국도 나가라해라 6조면 자주국방하는데 무리가 없다</t>
+  </si>
+  <si>
+    <t>미국과왜놈 없으면 하루도 못사는 매국노구더기들 저런것들도 인간이라고 ...뼈속까지 노예근성으로 길들여진 퇴차왜구 틀탁들..</t>
+  </si>
+  <si>
+    <t>일본은 우리와 함께 할 수 있는 나라가 아니다.</t>
+  </si>
+  <si>
+    <t>미군병력 반으로줄이고 전술핵 배치해라</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ. 여기 일베 애들 마니 모여있네\n안녕 일베충들~~\n\n지소미아 종료하는건 우리 선택이다. 없어도 대는걸 왜 지속하냐??</t>
+  </si>
+  <si>
+    <t>국민을 믿고 지소미아 종료를 선언해 주세요.\n종료가 되지 않는다면 지금까지의 일본과의 무역전쟁에서 진 꼴이 됩니다.\n일본은 더욱더 의기 양양 한국을 때릴 것이고 더욱 상황이 않좋아지는 것은 뻔한 것이지요</t>
+  </si>
+  <si>
+    <t>지소미아로 골치아픈건 우리가 아니라 일본과 미국이다. 일본이 알량한 자존심때문에 미국에게 해결해달라고 한 것인데 무시하면 끝이다. 미국이 우릴 압박하는 것도 한일 양국이 동맹이 되어야하는데 일본은 말을 듣질 않으니 우리한테 그러는 것. 그러다 미군 철수하려는거 아니냐고? 주한미군을 협박카드로 이용하면 미국만 난처해진다. 트럼프가 시리아 철군 하고서 그 지역 영향력이 사라져 미군들 피가 가치없어진 꼴이 재현될 뿐이라 최악의 선택일 뿐. 무엇보다 일본인에게 먼저 숙이면 우릴 호구로 여겨 수출규제 이상의 도발을 할 뿐이다.</t>
   </si>
 </sst>
 </file>
@@ -6134,10 +6813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F068723-DC2D-F74D-94E9-96ECF232E82F}">
-  <dimension ref="A1:B1791"/>
+  <dimension ref="A1:B2152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1312"/>
+    <sheetView tabSelected="1" topLeftCell="A1770" workbookViewId="0">
+      <selection activeCell="D1792" sqref="D1792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -20464,6 +21143,2894 @@
         <v>5</v>
       </c>
     </row>
+    <row r="1792" spans="1:2">
+      <c r="A1792" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1792">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:2">
+      <c r="A1793" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1793">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:2">
+      <c r="A1794" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B1794">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:2">
+      <c r="A1795" t="s">
+        <v>1789</v>
+      </c>
+      <c r="B1795">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:2">
+      <c r="A1796" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B1796">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:2">
+      <c r="A1797" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:2">
+      <c r="A1798" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:2">
+      <c r="A1799" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B1799">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:2">
+      <c r="A1800" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B1800">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:2">
+      <c r="A1801" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1801">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:2">
+      <c r="A1802" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B1802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:2">
+      <c r="A1803" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B1803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:2">
+      <c r="A1804" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B1804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:2">
+      <c r="A1805" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B1805">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:2">
+      <c r="A1806" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B1806">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:2">
+      <c r="A1807" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B1807">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:2">
+      <c r="A1808" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1808">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:2">
+      <c r="A1809" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:2">
+      <c r="A1810" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1810">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:2">
+      <c r="A1811" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1811">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:2">
+      <c r="A1812" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1812">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:2">
+      <c r="A1813" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1813">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:2">
+      <c r="A1814" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1814">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:2">
+      <c r="A1815" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1815">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:2">
+      <c r="A1816" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:2">
+      <c r="A1817" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1817">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:2">
+      <c r="A1818" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1818">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:2">
+      <c r="A1819" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1819">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:2">
+      <c r="A1820" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:2">
+      <c r="A1821" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1821">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:2">
+      <c r="A1822" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1822">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:2">
+      <c r="A1823" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:2">
+      <c r="A1824" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1824">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:2">
+      <c r="A1825" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1825">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:2">
+      <c r="A1826" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1826">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:2">
+      <c r="A1827" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1827">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:2">
+      <c r="A1828" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:2">
+      <c r="A1829" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1829">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:2">
+      <c r="A1830" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1830">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:2">
+      <c r="A1831" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B1831">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:2">
+      <c r="A1832" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1832">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:2">
+      <c r="A1833" t="s">
+        <v>1827</v>
+      </c>
+      <c r="B1833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:2">
+      <c r="A1834" t="s">
+        <v>1828</v>
+      </c>
+      <c r="B1834">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:2">
+      <c r="A1835" t="s">
+        <v>1829</v>
+      </c>
+      <c r="B1835">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:2">
+      <c r="A1836" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B1836">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:2">
+      <c r="A1837" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1837">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:2">
+      <c r="A1838" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1838">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:2">
+      <c r="A1839" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B1839">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:2">
+      <c r="A1840" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B1840">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:2">
+      <c r="A1841" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1841">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:2">
+      <c r="A1842" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B1842">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:2">
+      <c r="A1843" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1843">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:2">
+      <c r="A1844" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1844">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:2">
+      <c r="A1845" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1845">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:2">
+      <c r="A1846" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B1846">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:2">
+      <c r="A1847" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1847">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:2">
+      <c r="A1848" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B1848">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:2">
+      <c r="A1849" t="s">
+        <v>1843</v>
+      </c>
+      <c r="B1849">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:2">
+      <c r="A1850" t="s">
+        <v>1844</v>
+      </c>
+      <c r="B1850">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:2">
+      <c r="A1851" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1851">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:2">
+      <c r="A1852" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B1852">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:2">
+      <c r="A1853" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B1853">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:2">
+      <c r="A1854" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B1854">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:2">
+      <c r="A1855" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B1855">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:2">
+      <c r="A1856" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B1856">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:2">
+      <c r="A1857" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B1857">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:2">
+      <c r="A1858" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B1858">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:2">
+      <c r="A1859" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B1859">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:2">
+      <c r="A1860" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B1860">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:2">
+      <c r="A1861" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B1861">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:2">
+      <c r="A1862" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B1862">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:2">
+      <c r="A1863" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B1863">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:2">
+      <c r="A1864" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B1864">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:2">
+      <c r="A1865" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B1865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:2">
+      <c r="A1866" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B1866">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:2">
+      <c r="A1867" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B1867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:2">
+      <c r="A1868" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B1868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:2">
+      <c r="A1869" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B1869">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:2">
+      <c r="A1870" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B1870">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:2">
+      <c r="A1871" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B1871">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:2">
+      <c r="A1872" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B1872">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:2">
+      <c r="A1873" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B1873">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:2">
+      <c r="A1874" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1874">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:2">
+      <c r="A1875" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B1875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:2">
+      <c r="A1876" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1876">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:2">
+      <c r="A1877" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B1877">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:2">
+      <c r="A1878" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B1878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:2">
+      <c r="A1879" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B1879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:2">
+      <c r="A1880" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B1880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:2">
+      <c r="A1881" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B1881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:2">
+      <c r="A1882" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:2">
+      <c r="A1883" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B1883">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:2">
+      <c r="A1884" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B1884">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:2">
+      <c r="A1885" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B1885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:2">
+      <c r="A1886" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1886">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:2">
+      <c r="A1887" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B1887">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:2">
+      <c r="A1888" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B1888">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:2">
+      <c r="A1889" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B1889">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:2">
+      <c r="A1890" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B1890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:2">
+      <c r="A1891" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B1891">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:2">
+      <c r="A1892" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B1892">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:2">
+      <c r="A1893" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B1893">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:2">
+      <c r="A1894" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1894">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:2">
+      <c r="A1895" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B1895">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:2">
+      <c r="A1896" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B1896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:2">
+      <c r="A1897" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:2">
+      <c r="A1898" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B1898">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:2">
+      <c r="A1899" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B1899">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:2">
+      <c r="A1900" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B1900">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:2">
+      <c r="A1901" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B1901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:2">
+      <c r="A1902" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B1902">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:2">
+      <c r="A1903" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B1903">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:2">
+      <c r="A1904" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B1904">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:2">
+      <c r="A1905" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B1905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:2">
+      <c r="A1906" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B1906">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:2">
+      <c r="A1907" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B1907">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:2">
+      <c r="A1908" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:2">
+      <c r="A1909" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1909">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:2">
+      <c r="A1910" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1910">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:2">
+      <c r="A1911" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1911">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:2">
+      <c r="A1912" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B1912">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:2">
+      <c r="A1913" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B1913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:2">
+      <c r="A1914" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B1914">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:2">
+      <c r="A1915" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B1915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:2">
+      <c r="A1916" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B1916">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:2">
+      <c r="A1917" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B1917">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:2">
+      <c r="A1918" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B1918">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:2">
+      <c r="A1919" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1919">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:2">
+      <c r="A1920" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B1920">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:2">
+      <c r="A1921" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B1921">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:2">
+      <c r="A1922" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B1922">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:2">
+      <c r="A1923" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1923">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:2">
+      <c r="A1924" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:2">
+      <c r="A1925" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1925">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:2">
+      <c r="A1926" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1926">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:2">
+      <c r="A1927" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B1927">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:2">
+      <c r="A1928" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B1928">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:2">
+      <c r="A1929" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B1929">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:2">
+      <c r="A1930" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B1930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:2">
+      <c r="A1931" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B1931">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:2">
+      <c r="A1932" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:2">
+      <c r="A1933" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B1933">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:2">
+      <c r="A1934" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B1934">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:2">
+      <c r="A1935" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B1935">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:2">
+      <c r="A1936" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1936">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:2">
+      <c r="A1937" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B1937">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:2">
+      <c r="A1938" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B1938">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:2">
+      <c r="A1939" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B1939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:2">
+      <c r="A1940" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1940">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:2">
+      <c r="A1941" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1941">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:2">
+      <c r="A1942" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1942">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:2">
+      <c r="A1943" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B1943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:2">
+      <c r="A1944" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B1944">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:2">
+      <c r="A1945" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B1945">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:2">
+      <c r="A1946" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B1946">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:2">
+      <c r="A1947" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B1947">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:2">
+      <c r="A1948" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B1948">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:2">
+      <c r="A1949" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B1949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:2">
+      <c r="A1950" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B1950">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:2">
+      <c r="A1951" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1951">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:2">
+      <c r="A1952" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B1952">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:2">
+      <c r="A1953" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1953">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:2">
+      <c r="A1954" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B1954">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:2">
+      <c r="A1955" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B1955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:2">
+      <c r="A1956" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B1956">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:2">
+      <c r="A1957" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B1957">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:2">
+      <c r="A1958" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1958">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:2">
+      <c r="A1959" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1959">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:2">
+      <c r="A1960" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B1960">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:2">
+      <c r="A1961" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B1961">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:2">
+      <c r="A1962" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B1962">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:2">
+      <c r="A1963" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1963">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:2">
+      <c r="A1964" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B1964">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:2">
+      <c r="A1965" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B1965">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:2">
+      <c r="A1966" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1966">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:2">
+      <c r="A1967" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B1967">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:2">
+      <c r="A1968" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B1968">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:2">
+      <c r="A1969" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B1969">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:2">
+      <c r="A1970" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B1970">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:2">
+      <c r="A1971" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B1971">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:2">
+      <c r="A1972" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B1972">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:2">
+      <c r="A1973" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B1973">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:2">
+      <c r="A1974" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B1974">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:2">
+      <c r="A1975" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B1975">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:2">
+      <c r="A1976" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1976">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:2">
+      <c r="A1977" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B1977">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:2">
+      <c r="A1978" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1978">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:2">
+      <c r="A1979" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B1979">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:2">
+      <c r="A1980" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1980">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:2">
+      <c r="A1981" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B1981">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:2">
+      <c r="A1982" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B1982">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:2">
+      <c r="A1983" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B1983">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:2">
+      <c r="A1984" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B1984">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:2">
+      <c r="A1985" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B1985">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:2">
+      <c r="A1986" t="s">
+        <v>1845</v>
+      </c>
+      <c r="B1986">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:2">
+      <c r="A1987" t="s">
+        <v>1846</v>
+      </c>
+      <c r="B1987">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:2">
+      <c r="A1988" t="s">
+        <v>1847</v>
+      </c>
+      <c r="B1988">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:2">
+      <c r="A1989" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B1989">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:2">
+      <c r="A1990" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1990">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:2">
+      <c r="A1991" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1991">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:2">
+      <c r="A1992" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B1992">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:2">
+      <c r="A1993" t="s">
+        <v>1852</v>
+      </c>
+      <c r="B1993">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:2">
+      <c r="A1994" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B1994">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:2">
+      <c r="A1995" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1995">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:2">
+      <c r="A1996" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B1996">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:2">
+      <c r="A1997" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1997">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:2">
+      <c r="A1998" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1998">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:2">
+      <c r="A1999" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B1999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:2">
+      <c r="A2000" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B2000">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:2">
+      <c r="A2001" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B2001">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:2">
+      <c r="A2002" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B2002">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:2">
+      <c r="A2003" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B2003">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:2">
+      <c r="A2004" t="s">
+        <v>1863</v>
+      </c>
+      <c r="B2004">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:2">
+      <c r="A2005" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B2005">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:2">
+      <c r="A2006" t="s">
+        <v>1865</v>
+      </c>
+      <c r="B2006">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:2">
+      <c r="A2007" t="s">
+        <v>1866</v>
+      </c>
+      <c r="B2007">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:2">
+      <c r="A2008" t="s">
+        <v>1867</v>
+      </c>
+      <c r="B2008">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:2">
+      <c r="A2009" t="s">
+        <v>1868</v>
+      </c>
+      <c r="B2009">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:2">
+      <c r="A2010" t="s">
+        <v>1869</v>
+      </c>
+      <c r="B2010">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:2">
+      <c r="A2011" t="s">
+        <v>1870</v>
+      </c>
+      <c r="B2011">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:2">
+      <c r="A2012" t="s">
+        <v>1871</v>
+      </c>
+      <c r="B2012">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:2">
+      <c r="A2013" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B2013">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:2">
+      <c r="A2014" t="s">
+        <v>1873</v>
+      </c>
+      <c r="B2014">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:2">
+      <c r="A2015" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B2015">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:2">
+      <c r="A2016" t="s">
+        <v>1875</v>
+      </c>
+      <c r="B2016">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:2">
+      <c r="A2017" t="s">
+        <v>1876</v>
+      </c>
+      <c r="B2017">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:2">
+      <c r="A2018" t="s">
+        <v>1877</v>
+      </c>
+      <c r="B2018">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:2">
+      <c r="A2019" t="s">
+        <v>1878</v>
+      </c>
+      <c r="B2019">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:2">
+      <c r="A2020" t="s">
+        <v>1879</v>
+      </c>
+      <c r="B2020">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:2">
+      <c r="A2021" t="s">
+        <v>1880</v>
+      </c>
+      <c r="B2021">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:2">
+      <c r="A2022" t="s">
+        <v>1881</v>
+      </c>
+      <c r="B2022">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:2">
+      <c r="A2023" t="s">
+        <v>1882</v>
+      </c>
+      <c r="B2023">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:2">
+      <c r="A2024" t="s">
+        <v>1883</v>
+      </c>
+      <c r="B2024">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:2">
+      <c r="A2025" t="s">
+        <v>1884</v>
+      </c>
+      <c r="B2025">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:2">
+      <c r="A2026" t="s">
+        <v>1885</v>
+      </c>
+      <c r="B2026">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:2">
+      <c r="A2027" t="s">
+        <v>1886</v>
+      </c>
+      <c r="B2027">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:2">
+      <c r="A2028" t="s">
+        <v>1887</v>
+      </c>
+      <c r="B2028">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:2">
+      <c r="A2029" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B2029">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:2">
+      <c r="A2030" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B2030">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:2">
+      <c r="A2031" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B2031">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:2">
+      <c r="A2032" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B2032">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:2">
+      <c r="A2033" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B2033">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:2">
+      <c r="A2034" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B2034">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:2">
+      <c r="A2035" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B2035">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:2">
+      <c r="A2036" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B2036">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:2">
+      <c r="A2037" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B2037">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:2">
+      <c r="A2038" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B2038">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:2">
+      <c r="A2039" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B2039">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:2">
+      <c r="A2040" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B2040">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:2">
+      <c r="A2041" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B2041">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:2">
+      <c r="A2042" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B2042">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:2">
+      <c r="A2043" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B2043">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:2">
+      <c r="A2044" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B2044">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:2">
+      <c r="A2045" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B2045">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:2">
+      <c r="A2046" t="s">
+        <v>1905</v>
+      </c>
+      <c r="B2046">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:2">
+      <c r="A2047" t="s">
+        <v>1906</v>
+      </c>
+      <c r="B2047">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:2">
+      <c r="A2048" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B2048">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:2">
+      <c r="A2049" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B2049">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:2">
+      <c r="A2050" t="s">
+        <v>1909</v>
+      </c>
+      <c r="B2050">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:2">
+      <c r="A2051" t="s">
+        <v>1910</v>
+      </c>
+      <c r="B2051">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:2">
+      <c r="A2052" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B2052">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:2">
+      <c r="A2053" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B2053">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:2">
+      <c r="A2054" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B2054">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:2">
+      <c r="A2055" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B2055">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:2">
+      <c r="A2056" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B2056">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:2">
+      <c r="A2057" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B2057">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:2">
+      <c r="A2058" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B2058">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:2">
+      <c r="A2059" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B2059">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:2">
+      <c r="A2060" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B2060">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:2">
+      <c r="A2061" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B2061">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:2">
+      <c r="A2062" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B2062">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:2">
+      <c r="A2063" t="s">
+        <v>1922</v>
+      </c>
+      <c r="B2063">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:2">
+      <c r="A2064" t="s">
+        <v>1923</v>
+      </c>
+      <c r="B2064">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:2">
+      <c r="A2065" t="s">
+        <v>1924</v>
+      </c>
+      <c r="B2065">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:2">
+      <c r="A2066" t="s">
+        <v>1925</v>
+      </c>
+      <c r="B2066">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:2">
+      <c r="A2067" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B2067">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:2">
+      <c r="A2068" t="s">
+        <v>1927</v>
+      </c>
+      <c r="B2068">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:2">
+      <c r="A2069" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B2069">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:2">
+      <c r="A2070" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B2070">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:2">
+      <c r="A2071" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B2071">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:2">
+      <c r="A2072" t="s">
+        <v>1931</v>
+      </c>
+      <c r="B2072">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:2">
+      <c r="A2073" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B2073">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:2">
+      <c r="A2074" t="s">
+        <v>1933</v>
+      </c>
+      <c r="B2074">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:2">
+      <c r="A2075" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B2075">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:2">
+      <c r="A2076" t="s">
+        <v>1935</v>
+      </c>
+      <c r="B2076">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:2">
+      <c r="A2077" t="s">
+        <v>1936</v>
+      </c>
+      <c r="B2077">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:2">
+      <c r="A2078" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B2078">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:2">
+      <c r="A2079" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B2079">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:2">
+      <c r="A2080" t="s">
+        <v>1939</v>
+      </c>
+      <c r="B2080">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:2">
+      <c r="A2081" t="s">
+        <v>1940</v>
+      </c>
+      <c r="B2081">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:2">
+      <c r="A2082" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B2082">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:2">
+      <c r="A2083" t="s">
+        <v>1942</v>
+      </c>
+      <c r="B2083">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:2">
+      <c r="A2084" t="s">
+        <v>1943</v>
+      </c>
+      <c r="B2084">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:2">
+      <c r="A2085" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B2085">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:2">
+      <c r="A2086" t="s">
+        <v>1945</v>
+      </c>
+      <c r="B2086">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:2">
+      <c r="A2087" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B2087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:2">
+      <c r="A2088" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B2088">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:2">
+      <c r="A2089" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B2089">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:2">
+      <c r="A2090" t="s">
+        <v>1949</v>
+      </c>
+      <c r="B2090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:2">
+      <c r="A2091" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B2091">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:2">
+      <c r="A2092" t="s">
+        <v>1951</v>
+      </c>
+      <c r="B2092">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:2">
+      <c r="A2093" t="s">
+        <v>1952</v>
+      </c>
+      <c r="B2093">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:2">
+      <c r="A2094" t="s">
+        <v>1953</v>
+      </c>
+      <c r="B2094">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:2">
+      <c r="A2095" t="s">
+        <v>1954</v>
+      </c>
+      <c r="B2095">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:2">
+      <c r="A2096" t="s">
+        <v>1955</v>
+      </c>
+      <c r="B2096">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:2">
+      <c r="A2097" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B2097">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:2">
+      <c r="A2098" t="s">
+        <v>1957</v>
+      </c>
+      <c r="B2098">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:2">
+      <c r="A2099" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B2099">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:2">
+      <c r="A2100" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B2100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:2">
+      <c r="A2101" t="s">
+        <v>1960</v>
+      </c>
+      <c r="B2101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:2">
+      <c r="A2102" t="s">
+        <v>1961</v>
+      </c>
+      <c r="B2102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:2">
+      <c r="A2103" t="s">
+        <v>1962</v>
+      </c>
+      <c r="B2103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:2">
+      <c r="A2104" t="s">
+        <v>1963</v>
+      </c>
+      <c r="B2104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:2">
+      <c r="A2105" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B2105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:2">
+      <c r="A2106" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B2106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:2">
+      <c r="A2107" t="s">
+        <v>1966</v>
+      </c>
+      <c r="B2107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:2">
+      <c r="A2108" t="s">
+        <v>1967</v>
+      </c>
+      <c r="B2108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:2">
+      <c r="A2109" t="s">
+        <v>1968</v>
+      </c>
+      <c r="B2109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:2">
+      <c r="A2110" t="s">
+        <v>1969</v>
+      </c>
+      <c r="B2110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:2">
+      <c r="A2111" t="s">
+        <v>1970</v>
+      </c>
+      <c r="B2111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:2">
+      <c r="A2112" t="s">
+        <v>1971</v>
+      </c>
+      <c r="B2112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:2">
+      <c r="A2113" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B2113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:2">
+      <c r="A2114" t="s">
+        <v>1973</v>
+      </c>
+      <c r="B2114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:2">
+      <c r="A2115" t="s">
+        <v>1974</v>
+      </c>
+      <c r="B2115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:2">
+      <c r="A2116" t="s">
+        <v>1975</v>
+      </c>
+      <c r="B2116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:2">
+      <c r="A2117" t="s">
+        <v>1976</v>
+      </c>
+      <c r="B2117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:2">
+      <c r="A2118" t="s">
+        <v>1977</v>
+      </c>
+      <c r="B2118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:2">
+      <c r="A2119" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B2119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:2">
+      <c r="A2120" t="s">
+        <v>1979</v>
+      </c>
+      <c r="B2120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:2">
+      <c r="A2121" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B2121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:2">
+      <c r="A2122" t="s">
+        <v>1981</v>
+      </c>
+      <c r="B2122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:2">
+      <c r="A2123" t="s">
+        <v>1982</v>
+      </c>
+      <c r="B2123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:2">
+      <c r="A2124" t="s">
+        <v>1983</v>
+      </c>
+      <c r="B2124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:2">
+      <c r="A2125" t="s">
+        <v>1984</v>
+      </c>
+      <c r="B2125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:2">
+      <c r="A2126" t="s">
+        <v>1985</v>
+      </c>
+      <c r="B2126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:2">
+      <c r="A2127" t="s">
+        <v>1986</v>
+      </c>
+      <c r="B2127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:2">
+      <c r="A2128" t="s">
+        <v>1987</v>
+      </c>
+      <c r="B2128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:2">
+      <c r="A2129" t="s">
+        <v>1988</v>
+      </c>
+      <c r="B2129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:2">
+      <c r="A2130" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B2130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:2">
+      <c r="A2131" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B2131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:2">
+      <c r="A2132" t="s">
+        <v>1991</v>
+      </c>
+      <c r="B2132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:2">
+      <c r="A2133" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B2133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:2">
+      <c r="A2134" t="s">
+        <v>1993</v>
+      </c>
+      <c r="B2134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:2">
+      <c r="A2135" t="s">
+        <v>1994</v>
+      </c>
+      <c r="B2135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:2">
+      <c r="A2136" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B2136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:2">
+      <c r="A2137" t="s">
+        <v>1996</v>
+      </c>
+      <c r="B2137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:2">
+      <c r="A2138" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B2138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:2">
+      <c r="A2139" t="s">
+        <v>1998</v>
+      </c>
+      <c r="B2139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:2">
+      <c r="A2140" t="s">
+        <v>1999</v>
+      </c>
+      <c r="B2140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:2">
+      <c r="A2141" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:2">
+      <c r="A2142" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B2142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:2">
+      <c r="A2143" t="s">
+        <v>2002</v>
+      </c>
+      <c r="B2143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:2">
+      <c r="A2144" t="s">
+        <v>2003</v>
+      </c>
+      <c r="B2144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:2">
+      <c r="A2145" t="s">
+        <v>2004</v>
+      </c>
+      <c r="B2145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:2">
+      <c r="A2146" t="s">
+        <v>2005</v>
+      </c>
+      <c r="B2146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:2">
+      <c r="A2147" t="s">
+        <v>2006</v>
+      </c>
+      <c r="B2147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:2">
+      <c r="A2148" t="s">
+        <v>2007</v>
+      </c>
+      <c r="B2148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:2">
+      <c r="A2149" t="s">
+        <v>2008</v>
+      </c>
+      <c r="B2149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:2">
+      <c r="A2150" t="s">
+        <v>2009</v>
+      </c>
+      <c r="B2150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:2">
+      <c r="A2151" t="s">
+        <v>2010</v>
+      </c>
+      <c r="B2151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:2">
+      <c r="A2152" t="s">
+        <v>2011</v>
+      </c>
+      <c r="B2152">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyeongseop/Documents/MalJunSang/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C864B-B187-5C4C-A1C9-3CA130D1DD3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33225C4-29F1-3049-B365-9F1F5E68DD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16060" xr2:uid="{0E4C0141-0D5E-2540-AC59-84C2071AAAB2}"/>
+    <workbookView xWindow="10960" yWindow="560" windowWidth="14400" windowHeight="16060" xr2:uid="{0E4C0141-0D5E-2540-AC59-84C2071AAAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="2012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="2385">
   <si>
     <t>오히려 공교육 살릴라면 하고자 할 의지가 있는 애들끼리 모아서 가르치는게 낫지않나? 진심 일반고 수업, 자습 분위기는 그냥 시간 버리는 상황을 조성하는데.. 망할 애들은 그런 애들끼리 지지고 볶는게 맞지 왜 애먼 애들한테 피해를 주냐?</t>
   </si>
@@ -6403,6 +6403,1125 @@
   </si>
   <si>
     <t>지소미아로 골치아픈건 우리가 아니라 일본과 미국이다. 일본이 알량한 자존심때문에 미국에게 해결해달라고 한 것인데 무시하면 끝이다. 미국이 우릴 압박하는 것도 한일 양국이 동맹이 되어야하는데 일본은 말을 듣질 않으니 우리한테 그러는 것. 그러다 미군 철수하려는거 아니냐고? 주한미군을 협박카드로 이용하면 미국만 난처해진다. 트럼프가 시리아 철군 하고서 그 지역 영향력이 사라져 미군들 피가 가치없어진 꼴이 재현될 뿐이라 최악의 선택일 뿐. 무엇보다 일본인에게 먼저 숙이면 우릴 호구로 여겨 수출규제 이상의 도발을 할 뿐이다.</t>
+  </si>
+  <si>
+    <t>세월호때는 그렇게 난리치더니.. 느긋하게 방송이나 하고있을 그런 상황인가? 방송같은건 당장 취소하고 생존자 수색을 지원하고 지휘하는게 우선이지..  골든타임도 얼마 안남았고 실종된 사람들 생사가 오락가락 하고있는데.. 가족들 마음은 어떨지 에휴~ 정말 안타깝다</t>
+  </si>
+  <si>
+    <t>경험해보지몬한 이런 참사들이 줄사탕처럼 ㅠㅠ</t>
+  </si>
+  <si>
+    <t>문꼴깝은 이상황에 어용방송서 쇼하고 자빠졌네..쓰레기</t>
+  </si>
+  <si>
+    <t>대동령은  팬미팅중</t>
+  </si>
+  <si>
+    <t>국민이 죽어가는데,  살아 있는 달창들과 쇼한 문씨.. ..갈치배타는 사람은 문씨가 국민에서 제외시킨듯...</t>
+  </si>
+  <si>
+    <t>골든타임때 대통령은 한가롭게 토크쇼에 나와서 대깨문들과 하하호호 하면서 사진찍고 있네요... 정말 머하는 사람이지... 박근혜는 세월호때 현장가서 유족들에게 쌍욕들어가면서 구조에 최선을 다하라고 지시했는데 문재인은 이런 황금같은 시간에 TV 쇼하고있음...</t>
+  </si>
+  <si>
+    <t>제주도 해상사고로 실종자가 몇 명인데 이 시국에 좌빨 지지자들이랑 노닥거리냐? 쇼보다 사람이 먼저다 인간아</t>
+  </si>
+  <si>
+    <t>진짜 이런 상황에 대통령이 방송나와서 허허실실 웃고 있다는게 7시간동안 도대체 문재인은 뭐했냐? 남의정권에서는 사람죽는게 슬프고 자신들 정권때는 12명이 실종되고 불타도 방송나와서 웃기만 하네 에휴... 이게 나라가 맞는지가 이제 진짜 의심스럽다.</t>
+  </si>
+  <si>
+    <t>지금 지지율관리 쇼할 때냐</t>
+  </si>
+  <si>
+    <t>좋네요. 죽든 말든 배철수랑 쇼하느라 신나. 이번만 넘기면 또 해외여행 기다리지 롱</t>
+  </si>
+  <si>
+    <t>200~300정도 한꺼번에 죽어야 문죄인이  시체장사하지  10~20명 정도 죽는건  신경도 안씀</t>
+  </si>
+  <si>
+    <t>침몰사고 진실을 밝혀야한다! 침몰 당시 문좌앙이 어디서 뭐하고있었는지 분단위로 공개하고, 진상규명위원회 만들어서 유가족들 평생 월급주고, 사망자 1인당 10억 이상 나라돈으로 쏴주고, 대학 안간 애들 있으면 최저등급 기준 없이 서울대 보내라. 유가족들은 서울 광장 앞에 천막치고 시위해라. 문좌앙 인신공양한거 아니냐? 조국하고 함께 사실은 사이비 종교의 일원 아니냐? 청와대에 비아그라 들어간거 혹시 없냐? 반드시 진실을 인양하라!</t>
+  </si>
+  <si>
+    <t>한나라에서 일어난 모든 국가재난적 대형사고는 대통령책임이라 하던 문쩝쩝 대답해봐라</t>
+  </si>
+  <si>
+    <t>골든타임 같은 소리하고 자빠졌네 5분이상 숨안쉬고 살 수 있는 사람이 있냐!!!</t>
+  </si>
+  <si>
+    <t>이와중에 대통령은 쇼 하고 자빠졌네. 제발 쇼 하지말고 정치좀 해라</t>
+  </si>
+  <si>
+    <t>에휴 사람이 죽니사니 하고 있는데 청와대에선 달챵 300마리 델꼬 와서 보여주기 쇼쇼쇼 하고 앉았다ㅉㅉㅉ 이게 나라다 ㅉㅉㅉ</t>
+  </si>
+  <si>
+    <t>어서빨리 문재앙 탄핵시키자</t>
+  </si>
+  <si>
+    <t>대통령은  팬클럽 간담회 쇼하느라 바빠요~ 너무 유치해서 낯뜨겁다</t>
+  </si>
+  <si>
+    <t>소잃고 외양간 고치는격이지 전 정부 였어봐 눈 뒤집혀서 집회같은거했지</t>
+  </si>
+  <si>
+    <t>사고가 참 많이 나네요.\n근데 정말 답답해서 한마디 하고 싶습니다 \n골든타임 골든타임 하는데 정말 알기나 하면서 골든타임을 읊어대는 가요?\n세상에 사고후 24시간이 골든타임 이라고?\n기자 당신은 바다에서 24시간을 버티며 살아 있을수가   있겠냐?\n골든타임 이란 개소리 작작 하세요</t>
+  </si>
+  <si>
+    <t>타대통령이 이런 시국에 팬미팅하면 거품물고 ㅈ11ㄹ했을텐데 ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>문재인이는 방송에서 철수와  수학놀음 하고있습니다,,,!!!잡어  쳐넣어지야지요~~~</t>
+  </si>
+  <si>
+    <t>아직 골든타임 타령이냐? 상식적으로 생각을 해라.</t>
+  </si>
+  <si>
+    <t>골든타임이 어딨냐... 이 추위에 ... 벌써 저체온으로 가고도 남았지...</t>
+  </si>
+  <si>
+    <t>모든 재난, 사고에 컨트롤 타워 제때 가동할 거 처럼 얘기했지만 이번에도 뭐 했나 모르겠네요.</t>
+  </si>
+  <si>
+    <t>문재인이 과거에 박근혜 비난하더니 참.. 팬클럽 모아놓고 유치한 잡담이나 하고 낄낄거리고 앉아있네..내로남불 비열하네</t>
+  </si>
+  <si>
+    <t>갈치잡이 어선 대성호가 화재 사고가 발생해 선체 대부분이 불에 타는 엄청난 대형 사고가 발생했네요....ㅠㅠㅠ 이렇게 추운 날씨에 배에서 실종하신 분들이 꼭 반드시 살아 돌아오셨으면 합니다!!! 반드시 다른 분들 모두 무사하셨으면 좋겠어요ㅠㅠㅠ</t>
+  </si>
+  <si>
+    <t>청와대에서는  대통령이 뮛 하면서  처박혀있었는지 분단위로 공개하라이번뿐만아니고 독도헬기 사고도그렇고 대통령은 입이없나 이낙연이만 말하고  문죄인이는 한마디도없네 죄앙이탄핵가자</t>
+  </si>
+  <si>
+    <t>자...제2의 세월호 인듯한데... 이정권 문통은 어떻게 하나 보고 잘 배웁시다!!</t>
+  </si>
+  <si>
+    <t>파도 높다고 예보나왔는데..10알 밥 빌어먹고 살아야하니..목숨걸고 나가는구나.돈이 뭔지...</t>
+  </si>
+  <si>
+    <t>어휴 꼭 무사히 구조되기를 바랍니다</t>
+  </si>
+  <si>
+    <t>어제 제주 최근들어 제일  춥고 바람많고 따라서 파도 많이 일었는데  그 바다에  밤늦게  불켜고 작업하는 갈치배들을 보며  밥먹고 살자고 하는 일이  어찌 저토록 목숨걸고 위험천만으로 해야하나 하고 걱정했었는데  이런 뉴스를  결국 접하니  인생이 참  서글프다  부디  남은 분들이라도   무사하시길  진심 빈다</t>
+  </si>
+  <si>
+    <t>문제인 이낙욘 빨리 가야지. 니들 지금 뭐하냐?  니들 촛불맛 보고 싶냐?</t>
+  </si>
+  <si>
+    <t>재인아 10억씩 줘야한다 저 배 로 사망한. 불쌍한 시민도 니탓이다 알겠냐?니가책임져라 ㅡ무능아</t>
+  </si>
+  <si>
+    <t>토론회보지도 않았지만 안봐도 비딩ㆍ다.  지들편 3백명 초대해 낄껄들거리며\n쑈했겠지,그어부들도 국민일텐데.ㅠ</t>
+  </si>
+  <si>
+    <t>저배사고를  세월호를  왜 나라에서  책임져야 하는거냐?</t>
+  </si>
+  <si>
+    <t>ㅈㄹ 대한민국에 골든타임  운운 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>산에서 실종된것도 아니고 참  환장 허것네.</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>119신고가 없었던 까닭은 선원 11명 전부 잠들어 있었고 선장 혼자 키를 잡고 있었기 때문입니다. 그 사이 화재가 발생해 선장 혼자 불 끄려다 시기를 놓친 것이라 예상되네요. 독도에서 또 제주에서 사고가 연이어 터져 안타깝습니다. 삼가 고인의 명복을 빕니다.</t>
+  </si>
+  <si>
+    <t>문재앙정권 들어서고 1일1재앙이 꿑이없는 재앙의 연속 오늘도 육해공 돌아가며 일어날수없는 상식적밖에 사고들이 오늘도 이어진다 메크로 가짜 주먹구구정권의 안전불감증 가짜 안전메뉴얼 이것이 메크로 가짜의 진면목 오죽하면 표충비가 눈물을 흘릴까</t>
+  </si>
+  <si>
+    <t>개재앙이 책임져라.</t>
+  </si>
+  <si>
+    <t>이 난리통에 재앙이는 쑈하고 있음. 이게 나라냐! 세월호만 시민이냐!</t>
+  </si>
+  <si>
+    <t>세월호때 안타깝게 죽은 영혼들이 물귀ㅇ이 되어 계속 데려간다..</t>
+  </si>
+  <si>
+    <t>다이빙벨 아직 안오냐..</t>
+  </si>
+  <si>
+    <t>ㅅ월호 유가족이 구출하게 하라 못하면 니들도 꺼지고</t>
+  </si>
+  <si>
+    <t>골든타임? 한심한 위정자들아 대국민 언론쑈하지마라...대형불에 다행이 겨울바다에 뛰어 들었다 가정해도 저체온증 및 파도에 얼마나 견디겠나...항상 총력대응 신속구조 말장난 역겹다.</t>
+  </si>
+  <si>
+    <t>놀고먹는 두하니하고 716하고 503 순시리에게 수색작업 시켜야한다</t>
+  </si>
+  <si>
+    <t>이 추운 날씨에 차가운 바다에서 생사와 싸웠을 승선원들이 구조 되기를 희망해 봅니다. 가족들 또한 얼마나 안타깝고 침통한 심정일지 가슴이 아프다. 이 나라에 각종 재난과 참사가 끊이질 않으니 침울하다.</t>
+  </si>
+  <si>
+    <t>국가에서 모두 책임져라\n구조 못한 책임. \n\n유족들에게도 충분한 보상을 해줘야만 한다\n광화문뿐만 아니라 전국에 고인에대한\n분향소를 설치해야 한다\n\n이렇게 해야 나라다운 나라아닌가</t>
+  </si>
+  <si>
+    <t>제목이 말이 됩니까? 아무리 정권 눈치본다고 하지만 골든타임 넘길까? 여름도 아니고 이겨울에?</t>
+  </si>
+  <si>
+    <t>놀구 자빠졌구나......</t>
+  </si>
+  <si>
+    <t>독도에서 소방헬기 떨어졌는데 실종자들은 찿았는지 알수도 없고  거기에 또 해난사고 어휴~이건 뭐 후진국이나 마찬가지지 공무원들이 뭔 대처를 해 전부 똥막대기들인데 국민들만 죽어나가는거야</t>
+  </si>
+  <si>
+    <t>안타깝다. 바다날씨확인해보니 파고가 2미터가 넘고 풍속도 10미터가 넘는 악조건이다. \n 실종자전원구조되길 빌뿐이다</t>
+  </si>
+  <si>
+    <t>튜브같은거 없었나</t>
+  </si>
+  <si>
+    <t>홍어밥 되기전에 얼릉 찾아주세요...제발...</t>
+  </si>
+  <si>
+    <t>훠훠훠 다음에는 누구를 담궈볼까요</t>
+  </si>
+  <si>
+    <t>셰워로 미만잡이다 개돼지들아 나는 오늘 우덜끼리  노가리나 하하호호 쩝쩝</t>
+  </si>
+  <si>
+    <t>세월호 사건 이후에도 아직도 선박 관리 감독이 안되는데 세월호 재 조사 한다는게 웃긴다.마이 해라</t>
+  </si>
+  <si>
+    <t>골든타임은 누가 정하는거죠? 알아도 그런단어를 쓰지말죠 ㅜㅜ? 타임지나도 사람이 살려는 의지가 더 위라는거 아시지않나요?</t>
+  </si>
+  <si>
+    <t>문죄악의 시대</t>
+  </si>
+  <si>
+    <t>세월호 때 라면 먹은 걸로 욕 먹었던거 생각나네</t>
+  </si>
+  <si>
+    <t>다이닝벨 있잖어.이거 문재인탓 아님?  안구하고 모했대?</t>
+  </si>
+  <si>
+    <t>얘맙다 들아고</t>
+  </si>
+  <si>
+    <t>지랄도 가지가지한다 ㅡ  매년  교통사고 3000여명이죽어간다\n교통경찰   운전자 사고 낸놈들 사형에 처하라\n뭐하야  토착왜구들  왜구놈들 대책도 안내고 ㅡ\n해상사고만 사고냐??  세월호만 사고냐???</t>
+  </si>
+  <si>
+    <t>실종 11명중 10명찾고 1명 못찾는다(1명은 어디로 갔을까!?)</t>
+  </si>
+  <si>
+    <t>골든타임 같은 소리하고 자빠졌네 !!ㅋㅋㅋ\n 니가 함 추운 바다에 빠져봐라 !! 10분을 버티나 !! 정신빠진 소리만 짓거리네 !!\n 에어포켓에 살아있냐 !! 지금 대통령이 티비쑈 할때냐 !!!\n 진짜 OOO 아닌지 !!</t>
+  </si>
+  <si>
+    <t>국민들 죽든말든 문죄인이는 오늘도 총선을 위해 쇼를 택했다 개느므 ㅡ 새끼</t>
+  </si>
+  <si>
+    <t>신고를 못했다? \n\n아무 신고도? \n\n아..스티커...</t>
+  </si>
+  <si>
+    <t>기도... 좋은곳에  바다의 별 아멘</t>
+  </si>
+  <si>
+    <t>스티커 꿈 꿨는데..남자 교회 새벽에..4시쯤  \n\n17시간 전...</t>
+  </si>
+  <si>
+    <t>에고~~어찌하나요~~~좋은 일만 가득해도 부족한데~~~</t>
+  </si>
+  <si>
+    <t>좌빨들이 좋아하는 골든벨인지 다이빙노짱인지 하는거 빨리 투입시켜라~</t>
+  </si>
+  <si>
+    <t>이런 상황에 쑈나 하고 있는 대통령</t>
+  </si>
+  <si>
+    <t>전원 죽었다에 내 손목을 건다</t>
+  </si>
+  <si>
+    <t>사람이 죽든말든 내 인기만 올리면 된다 세월호는 박근혜  탓 이번 사고도 박근혜가 탓이다</t>
+  </si>
+  <si>
+    <t>ㅋ 어선조그만 한거 불타서 디질사람 다디졌겠구만 또 골든타임타령한다 아이고18  짜증나서진짜  \n다이빙벨도 내리지그러냐</t>
+  </si>
+  <si>
+    <t>보수정권이었으면  골든타임은 기껏해야 3분이라며 아까원서 조명탄도 안쐈을꺼다</t>
+  </si>
+  <si>
+    <t>이 와중 재앙이는 전화 섭외 해놓은 패널과 ㅈㄹ들 하고 있지</t>
+  </si>
+  <si>
+    <t>솔직히 어른 노동자 죽음은 약하다 .. 애들 이어야 한다. ..이런 말을 하는 나도 싫다..이게 다 문재인 좌파 정ㅂ 때문이다 ..어떻게 사람 죽음을 정치에 이용 하나?</t>
+  </si>
+  <si>
+    <t>배가 불타거나 말거나 마이크 잡고 미소지으며 쇼하는 새끼.</t>
+  </si>
+  <si>
+    <t>나라가 죽였네</t>
+  </si>
+  <si>
+    <t>음 그건그렇고 올해 갈치는 맛이 좋겠구먼 인육을 12접시나 먹었으니!</t>
+  </si>
+  <si>
+    <t>분명 살아있다 찾지 못할뿐이구  새벽4시가 되면 ~~~~ 떠났겠지</t>
+  </si>
+  <si>
+    <t>문재인은 그 시간에 예능프로 찍었다</t>
+  </si>
+  <si>
+    <t>대통령 알리바이 확보</t>
+  </si>
+  <si>
+    <t>댓글이 코미디네 ㅋ</t>
+  </si>
+  <si>
+    <t>죄인이는 뭐했누????? 최순실이 석방하면 죄국이도 무죄.</t>
+  </si>
+  <si>
+    <t>다운사이징 가솔린터보  5년째 타는데 저거 실제 연비 5.6이다 ㅋㅋㅋㅋㅋ 나 마카롱으로 지금껏 쓴 기름값 보니까 8만탓는데 2370만원썻더라 어디 농촌에서 신호등없는곳 사는거 아닌이상 뻥연비에 데여서 내년이면 중고매물 넘쳐날듯</t>
+  </si>
+  <si>
+    <t>안사</t>
+  </si>
+  <si>
+    <t>생긴건 볼보 xc40하고 비슷</t>
+  </si>
+  <si>
+    <t>쌘토스트 를  사라  등신들아</t>
+  </si>
+  <si>
+    <t>보통은 2500 내외에서 사겠지. 풀옵넣을바엔 윗급으로 가겠고.</t>
+  </si>
+  <si>
+    <t>저 돈이면 준준형 기본형을 사지</t>
+  </si>
+  <si>
+    <t>셀보크</t>
+  </si>
+  <si>
+    <t>스포티지 사는게 더 나아보이는데?</t>
+  </si>
+  <si>
+    <t>엔진 마력이랑 토크개판이던데 왜사냐</t>
+  </si>
+  <si>
+    <t>진짜 허무맹랑한 상술이다 이참에 중고차로 갈련다  코딱지만한차에 현란한광고해서 호갱들 등쳐먹는구나</t>
+  </si>
+  <si>
+    <t>요즘 오디오 깡통차는 스피커 쓰레기인듯</t>
+  </si>
+  <si>
+    <t>요즘 우리나라 귀족들은 2천4백만원짜리 차 타고다니나요?</t>
+  </si>
+  <si>
+    <t>소형차 가격을 넘어 중형 가격으로~ 사놓구 후회하지말고 나중에 사라~ 뭐가 이상하네 리콜 안해주네 소비자 봉이네 이딴소리 하지말던가 알면서 사주고 왜 지랄하는지 ㅋ</t>
+  </si>
+  <si>
+    <t>인기가 있긴 있나보네 근데 가격이 넘 비싸</t>
+  </si>
+  <si>
+    <t>안산다.</t>
+  </si>
+  <si>
+    <t>네이버 뚜벅충들이 원하는 차. 1.5L 이하 다운사이징 엔진, 3.3트윈터보급의 출력, g90급의 실내, 2천만원 미만의 가격</t>
+  </si>
+  <si>
+    <t>쏘렌토가 제일 잘만들었고 그다음이 셀토쓰.\n좀 비싸서 그렇지만 쏘렌토는 진짜 완벽하더만~</t>
+  </si>
+  <si>
+    <t>HDA는 진짜 한번써보면 절대 옵션에서 못뺌...ㅠ</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋ 개돼지들</t>
+  </si>
+  <si>
+    <t>그돈씨</t>
+  </si>
+  <si>
+    <t>현대 기아 옵션 ㅈ같이 묶어놓고 소비자우롱 오지는새끼들 소비자가 ㅂㅅ인줄아나봐 ㅋㅋ 에라이 퉤</t>
+  </si>
+  <si>
+    <t>광고네...</t>
+  </si>
+  <si>
+    <t>너무비싸 정말 솔직히.</t>
+  </si>
+  <si>
+    <t>셀토스를 사던 치토스를 사던 왜 훈수들인지,,? 정작 본인들 손해보는 일 앞에선 나몰라라 하면서 꼭 이럴땐 오지랖이네요 ;;</t>
+  </si>
+  <si>
+    <t>대리점에 물어보니 주문하면 4달 대기타야한데</t>
+  </si>
+  <si>
+    <t>옵션가격보다 문제는 병x같이 옵션을 묶어파는 시스템임. 후진국생산시스템</t>
+  </si>
+  <si>
+    <t>소비를 많이하세요 좋은일입니다 갱제를 살립시다</t>
+  </si>
+  <si>
+    <t>대놓고 광고</t>
+  </si>
+  <si>
+    <t>어차피 사고싶은사람이 사면 그만인거지 , 안사고 못산 사람이 그정도면 중형사겠다. 이렇게 말하는건 좀 웃기다. 중형사면 어차피 취등록비에 세금은 더 나오는데 셀토스는 소형차이고 특히 소규모 가족이 티볼리정도로 타고싶어서 산 차인데 자꾸 중형이랑 비교하면 좀 웃김. 저는  풀옵아닌데 안전사항도 더좋고 만족스러운.</t>
+  </si>
+  <si>
+    <t>옵션으로  장난질하는 날은 언제쯤 사라질까</t>
+  </si>
+  <si>
+    <t>이보크가 여러모로 좋지</t>
+  </si>
+  <si>
+    <t>이보크 디자인 고대로 베낀듯...</t>
+  </si>
+  <si>
+    <t>이보크....?</t>
+  </si>
+  <si>
+    <t>이거 헤드라이트 벨라 그대로 베꼈더라</t>
+  </si>
+  <si>
+    <t>저거 살바에 상위 트림으로 가지 ㅋㅋㅋ 가격이 너무 창렬함</t>
+  </si>
+  <si>
+    <t>노조때매 안사</t>
+  </si>
+  <si>
+    <t>연비 열나게 좋은데 디젤  37리터 650키로탐 고속도로주행시</t>
+  </si>
+  <si>
+    <t>쏘렌토 새로준비중인거 겁나 이쁘던데</t>
+  </si>
+  <si>
+    <t>배보다 배꼽이 더큰차 ??</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋ 프레스티지에 권장옵션 붙인 돈이 2600이라고? ㅋㅋㅋ 그가격이면 코나를 뽑지 누가 OOO 셀토스를..?</t>
+  </si>
+  <si>
+    <t>아니 근데 왜 터보모델에 패들 쉬프트가 없냐고</t>
+  </si>
+  <si>
+    <t>그냥 중형으로 가.</t>
+  </si>
+  <si>
+    <t>티비조선 종편심사에서 탈락시켜라.</t>
+  </si>
+  <si>
+    <t>셀토스 하려다가 옵션금액붙이니\n스포티지랑 차이가없어서\n스포티지로 감</t>
+  </si>
+  <si>
+    <t>ㅋㅋ 산타페tm 가솔린 오너인데, 프레스티지 급으로 3300짜리 타고 다니는데 셀토스 풀옵 3300ㅋㅋㅋ 짐칸 완전 작드만. ㅋㅋ</t>
+  </si>
+  <si>
+    <t>풀옵션이면 중형가격, 절반 옵션이면 준중형가격.무슨 경쟁력으로 대박?</t>
+  </si>
+  <si>
+    <t>줘어었같은게 종류가 상 중 하 세가지가 있는데 썬루프 옵션은 상 에만 있음. 중 프레스트지 엔 썬루프 옵션 자체가 없음 OOO아것들</t>
+  </si>
+  <si>
+    <t>중고차가 3천만에  나와있다. 말이 되냐?</t>
+  </si>
+  <si>
+    <t>광고인가.. 실제론 주변에 코나 타는 사람 늘고있던데...</t>
+  </si>
+  <si>
+    <t>내차다. 나 풀옵션 투톤루프 4륜이다. 졸라 좋다. 많이 안보였음 좋겠다. 그래야 더욱 돋보이니까!</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋ 해드램프도 어마무시하더만...</t>
+  </si>
+  <si>
+    <t>요즘시대에 연비가 ㄷㄷㄷ</t>
+  </si>
+  <si>
+    <t>한국차  옵션을  등급별로  나누지 말고  모든 등급에서   선택하게 하라  \n단지 기본으로 들어가서  없거나  ,  금액 차이는  있더라도</t>
+  </si>
+  <si>
+    <t>광고 잘봤어요</t>
+  </si>
+  <si>
+    <t>개비쌈</t>
+  </si>
+  <si>
+    <t>차 못생겼다</t>
+  </si>
+  <si>
+    <t>내년에 출시될 트레일블레이져와 경쟁하면 잼있겠는데.....</t>
+  </si>
+  <si>
+    <t>현대차는  항상 애매하게 해놔!    이놈들!</t>
+  </si>
+  <si>
+    <t>광고냐 기사냐</t>
+  </si>
+  <si>
+    <t>니로 하이브리드가 저 디자인으로 나왔어야 했는데...</t>
+  </si>
+  <si>
+    <t>옵션타협으로 탈만한 차인지.. 가격대가 이건뭐.... 깡통으로 못탈차인건 분명함...</t>
+  </si>
+  <si>
+    <t>포르쉐 비엠 제네시스 벤츠 페라리 아우디 모두 유일한 단점은 '가격' 이다. 왠 코미디ㅋ</t>
+  </si>
+  <si>
+    <t>근데 확실히 셀토스가 디자인은 진짜 끝내줌. 사람 마음을 유혹한다고 해야하나? 외관, 실내 디자인 모두 우수함. 나도 남자지만 나처럼 콤팩트한 자동차를 좋아하는 사람들은 셀토스 찾지 싶다. 연비나 이런거는 그냥 평균정도면 된다고 생각하니까... 다만 가격이 좀 부담스럽긴 함.</t>
+  </si>
+  <si>
+    <t>품질에 비해 가격이 비싸다고 생각하면 다른차 사세요. 회사가 고심끝에 내 놓은 가격정책을 왜 비난하나요? 누가 총들고 강매하나요?</t>
+  </si>
+  <si>
+    <t>차량 품질은 깡통가격으로 정해진다. 깡통이1900이면 옵션을 아무리 넣어도 결국 1900만원의 품질이야. 옵션은 차량 품질에 영향을 크게 못 줘. 그러니 풀옵션 같은거 할바에는 급을 올려라</t>
+  </si>
+  <si>
+    <t>노조놈들 덕분에 옵션질로 장난치는겁니다 사지마세요</t>
+  </si>
+  <si>
+    <t>저 앞에 마크좀....없애면 더 이쁠텐데...</t>
+  </si>
+  <si>
+    <t>하이브리드가 나오기 전엔 사지마라. 막상 구매하려면 옵션 가격에 놀란다. 연비가 그지라 경제성이 없다.</t>
+  </si>
+  <si>
+    <t>k7 2013년형 신차출고 6년째 타고 있는중.  이번에 셀토스로 차 바꾸려다가 옵션 조금 넣으니깐 중형 차 값.  짜증나서 순간적으로 썅!  비싼 차 지르자는 충동 일어나서 아우디 a6 풀체인지 광고 보고 어제 계약했음.   잘한건지 모르겠으나 이제 나도 외제차 한번 타보자!!!</t>
+  </si>
+  <si>
+    <t>코나도 막아냈던 티볼리가 이것때문에 지금 망테크 타고 있음</t>
+  </si>
+  <si>
+    <t>니로 하이브리드가 갑이지</t>
+  </si>
+  <si>
+    <t>겉디자인은 베뉴가 좋더만. 앞에 범퍼그릴, 전조등과 후미라이트 디자인 좋더라</t>
+  </si>
+  <si>
+    <t>첨 보는디. 광고기사</t>
+  </si>
+  <si>
+    <t>실제로 봐도 디자인이 깔끔하지않고 요란하고 덕지덕지 붙여놓은 듯한데 저런차 좋다고 사는 한국사람들.... 실속보다 겉치레에 허세가 잔뜩 들었다고 생각됨</t>
+  </si>
+  <si>
+    <t>3천도 없어서 차를 못산다는 사람들....수십년 살며 돈안벌고 뭐했냐? 나는 4천하는 제네시스도 별로라서 안사고 외제차 샀는데.제네시스 사기전에 산타페tm 도 알아봤는데 사람이 탈 차가 아니던데....3500짜리 사느니 외제차 가는게 낫지</t>
+  </si>
+  <si>
+    <t>해봐야 2500짜리라서 그냥 쉽게 타다가 팔거나 고장나면 버리기 좋은 차라서 괜찮은듯 근데 댓글분들은 차 한대 사는데 벌벌 떠시느랴 셀토스 살바에 중대형 산다 하시는거같음 ㅋㅋㅋ 개같이 벌어서 차 한대 겨우 운용하는 여러분은 알지못하는 느낌이 있어요 ^^</t>
+  </si>
+  <si>
+    <t>저딴 흉기 똥차를  가지고 아웅다웅 논쟁벌어지고 있는 광경 자체가 놀랍네 ㅋ 난 제네시스도 허접 같아서 패스하고 이번 9월에 bmw 5시리즈 출고했는데....차닦을때마다 동네 똥차 차주분들이다 쳐다보니 쓱스럽기도하고</t>
+  </si>
+  <si>
+    <t>저딴거 사느니 이태리 고급브랜드차 하나 뽑겠다 ㅉㅉ 솔까 현대,기아차를 2천만원주고 뽑을가치있냐. 2천만원이면 아우디도뽑는데 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>계속보니까 차별로더라. 걍 내년에 스포티지.쏘렌토 풀체인지 기다리자</t>
+  </si>
+  <si>
+    <t>역시 세단은 현대이고, RV는 기아구나.</t>
+  </si>
+  <si>
+    <t>전라도인들이 좋아하는 차</t>
+  </si>
+  <si>
+    <t>이래서 수입차가 많이 들어와야 한다</t>
+  </si>
+  <si>
+    <t>이거 사려다 국산 옵션질 차증나서 볼보s60샀다\n수입찬 단순하거든.\n근데 옵션은 다있음</t>
+  </si>
+  <si>
+    <t>Bmw 520차주인데(19년식,9월출고) ....하도 어이가 없어 한마디 쓴다.누가 이딴 흉기차를 없어서 못사냐? 적어도 bmw5시리즈처럼 대기 줄줄 걸어놓고 완판되서 다른차 알아봐야 되는 정도는 되야 없어서 못산다는 표현을 쓰지.기껏 주문 받아서 생산하는 주제에.....</t>
+  </si>
+  <si>
+    <t>대한민국 차.  실내공간이 넓어진 만큼.  껍질은 얇아 진다는걸 모르는 개 돼지들 ㅎㅎㅎㅎㅎㅎㅎㅎㅎㅎ 차는 안전보다는 옵션이 우선인. 개돼지들 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>군대도 안갔다온 사람이 군인권 운운하는게 정말 국가 통치가 엉망이 되어 버렸다 고려때 간신같은 문인들이 무인들의 수염을 잡고 놀리던 것이 생각난다.</t>
+  </si>
+  <si>
+    <t>게이가 장군한테 대드는 세상에 살줄이야... 미국에도 이럴까 ?</t>
+  </si>
+  <si>
+    <t>팬인데 쉴드 칠 생각 없고 앞으로 조심했으면 해 정국아.</t>
+  </si>
+  <si>
+    <t>그럴거라고 생각하고 있었습니다. 두 분 모두 타박상을 입었다니, 기사분도 후유증 없도록 잘 치료 받으셨으면 하고 양측 다 쾌차 바랍니다.</t>
+  </si>
+  <si>
+    <t>범법행위한건 혼나야지.. 앞으론 정신 똑바로 차리고 운전하길!</t>
+  </si>
+  <si>
+    <t>나도초보시절 위반한건지도 모른채운전은 한적있다만...방탄은 지금 물어뜯으려는사람 많다. 조심또조심 하자...잣대가 너희에겐 너무나 높구나</t>
+  </si>
+  <si>
+    <t>다른 그룹이랑은 다르게 기사 제목이 참~ 훈훈하네~</t>
+  </si>
+  <si>
+    <t>이번 참에 눈물 쏙 빠지도록 혼나고.. 욕도 많이 먹고..담 부턴 위반 같은 거 다신 하지말자~~ ㅠㅠ</t>
+  </si>
+  <si>
+    <t>가장 사랑받는막내였는데 점점 민폐덩어리가 되어가는거같노 실망만 늘어가는구나....</t>
+  </si>
+  <si>
+    <t>세상에 영원한게 있다고 생각하냐 최강 빅뱅이후로 서서히 하락을 찍겠구나</t>
+  </si>
+  <si>
+    <t>나도 팬이지만 다른 맴버들에게 까지 피해가지안게 행동 단디 했음 좋겠네..초심을 잃어가는건지 ..자꾸 구설에 오르는 모양새가 좀 안타깝다</t>
+  </si>
+  <si>
+    <t>좋겠다 정국이는. 타투도 하고 연애도 하고 이제 교통사고까지 냈는데도 쉴드쳐줄 아미들 있어서.</t>
+  </si>
+  <si>
+    <t>군무새 타령하던 놈... 전형적인 간신배 스타일</t>
+  </si>
+  <si>
+    <t>상대는 카톡 공개했잖아? 니도 공개를 해. 입으로만 말하면 어떻게 믿냐</t>
+  </si>
+  <si>
+    <t>구도쉘리한테 사과해야 할듯</t>
+  </si>
+  <si>
+    <t>혁수야 자숙해라 참전용사때는 인스타 닫고 조용하더니 혓바닥이 길구나</t>
+  </si>
+  <si>
+    <t>둘중 한분은 바르게 말하고 있지 않은건데 녹취가 있다는 말이 사실이라면...</t>
+  </si>
+  <si>
+    <t>무슨 여성이 방송에서 빤스 노출도 아닌데 이 난리냐 이 십선비들 ㅉㅉ</t>
+  </si>
+  <si>
+    <t>여윽시 메퇘지랑 엮어서 좋을게 없어</t>
+  </si>
+  <si>
+    <t>혁수 인성 보소</t>
+  </si>
+  <si>
+    <t>브라탑이 그렇게 중요한 일이야?ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>역시 과학이야 ~~~~~</t>
+  </si>
+  <si>
+    <t>둘다 큰 잘못은 아닌거같은데ㅠㅠㅠ 라이브방송을 못봐서그런가..</t>
+  </si>
+  <si>
+    <t>구토쉘리 안 본 눈삽니다.ㅠㅠ</t>
+  </si>
+  <si>
+    <t>혁수야 어차피 넌 이미지 바닥이다.끝난거지 한마디로</t>
+  </si>
+  <si>
+    <t>사진이.ㅋㅋㅋ 엠씨몽은 잘 지낸대요?</t>
+  </si>
+  <si>
+    <t>아무리 요즘 인기좋은 송가인이 72위인데.. mc몽인기가 대단한거네 발매시 1위니...송가인 노래가...아리랑만 들리네...</t>
+  </si>
+  <si>
+    <t>이별의 영동선 정말 대박입니다.</t>
+  </si>
+  <si>
+    <t>노래가 심금을 울리더라... 듣고있음 눈물이 또르르 ... 대박나자 송가인~~</t>
+  </si>
+  <si>
+    <t>아티스트 강다니엘이 되고 싶으면 연애가 먼저 아니라 실력이 먼저야</t>
+  </si>
+  <si>
+    <t>팩트를 악플이라고...... ㅉㅉㅉ 불륜설에 약쟁이악성채무까지.... 그럼 그냥 가만히나 있지 뭔 악플러 고소로 물타기를 ㅡㅡ</t>
+  </si>
+  <si>
+    <t>몬스타엑스 화이팅!! ~~</t>
+  </si>
+  <si>
+    <t>회사에서할수있는게저것뿐이지...법이약해</t>
+  </si>
+  <si>
+    <t>이쁜 진리야 잘가 그곳에선 다 잊고 편히 잘자 5내가던진돌에 누군가죽을수있다는걸 잊지않아야한다.악의적인 악플로인해 더이상의 피해가없길.,,고인의 명복을 빕니다,,</t>
+  </si>
+  <si>
+    <t>진짜 자극적인 기사 제목만 보고 와서 악플다는 애들 너무 싫다 다 전부 죄값 치러야함..한 사람 인생 망가뜨리는거 한순간임</t>
+  </si>
+  <si>
+    <t>악플러들 유포자들 죗값 확실히 받았으면좋겠습니다 멤버들 힘내고 화이팅~</t>
+  </si>
+  <si>
+    <t>네티즌들이여, 불매로 맞서자.</t>
+  </si>
+  <si>
+    <t>몬스타엑스 화이팅!! ❤</t>
+  </si>
+  <si>
+    <t>57년생인 우리엄마도 공감못하는 영화인데 뭘 공감을해 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>한남들 존.나 욕하네 ㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>영화관가서 보니까 여자반 남자반이더라 욕하는 분들~ 그렇게 인터넷 세상 속에서 평생 사세요</t>
+  </si>
+  <si>
+    <t>여성이 본 사회의 부조리들이 주인공 한 사람의 이야기로 쓰여진 소설이고 영화입니다.우리의 엄마 할머니들이 겪었던 그리고 그걸 바라본 여성들이 있었어요.직간접적으로 겪고 생각했던 부분이 많아 공감이 많은 것일뿐 이 모든 것들이 남성이 잘못이라는 흑백논리를 잡은게 아니란 말입니다.여성들이 남성을 혐오하기에 공감한다는 식의 논리가 거북하다는게 팩트입니다.</t>
+  </si>
+  <si>
+    <t>남자들 하는거라고는 기사들 찾아보면서 여혐은 다 여자가 만든거다 뭐 이런 댓글 달고 다니는듯ㅋㅋ 한심</t>
+  </si>
+  <si>
+    <t>영화보고나서 쓰세요</t>
+  </si>
+  <si>
+    <t>쓰레기영화라고 생각한다~죽으라죽으라하는 내용이야???ㅋㅋ저런것들은 결혼도 애도 낳지말고 살자,제발~~~~~~~</t>
+  </si>
+  <si>
+    <t>페미 김치뇬들아, 니 인생은 너에게는 비극이겠지만 인터넷상에서 너같은 뚱뚱하고 못생겨서 남자에게 사랑받지못해 미쳐버린 비계덩어리 들의 발작을 보는 우리한테는 참으로 개같은 코미디 이상도 이하도 아니다.니들은 못생기고 뚱뚱하고 성격이 나빠서 차별받고 비웃음받는거야. 여자라서가 아니라</t>
+  </si>
+  <si>
+    <t>역대급 돈아까운 영화. 차라리 예고편을 적당히 보여주던가 예고에서 본 내용들이 다임..억지로 눈물짜게하고 웃음포인트도 없구.</t>
+  </si>
+  <si>
+    <t>와 10만 넘음 아무도 안볼것처럼 욕하더니 다 보러갔잖아 ㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>80년대초반 한녀충들은 사회악이다</t>
+  </si>
+  <si>
+    <t>다음부턴 정유미 니 영화 드라마 다 안본다.</t>
+  </si>
+  <si>
+    <t>사람 고쳐쓰는거 아니라 했음 언젠가 다시 신발과 경쟁하겠지</t>
+  </si>
+  <si>
+    <t>서로 양보하며 저렇게 살아야지. 결혼 잘했네.</t>
+  </si>
+  <si>
+    <t>어제 보고 팬됐음~ 멋짐</t>
+  </si>
+  <si>
+    <t>행복하세요 나르샤~</t>
+  </si>
+  <si>
+    <t>콧털아 그냥 은퇴해라 슬슬 또 기어나오냐</t>
+  </si>
+  <si>
+    <t>김흥국만 피해 봤네 무죄여도</t>
+  </si>
+  <si>
+    <t>니 낮빤데기 꼴보기 싫으니 다신 언론에 나오지 마라 이 쓰레기야</t>
+  </si>
+  <si>
+    <t>외도하면 이혼하는게 나음. 여자도 인제 딴남자 만나고 애들크면 이혼 대부분 그럼.</t>
+  </si>
+  <si>
+    <t>오~ 김흥국 쎅쓰~</t>
+  </si>
+  <si>
+    <t>와 저 사람하고 어케하냐 ㅋㅋㅋ여자도 대단하다</t>
+  </si>
+  <si>
+    <t>헐 유죄였어???</t>
+  </si>
+  <si>
+    <t>아이즈원 센터조작 중국혼혈 장원영 하관이 이국주 김구라 턱주가리 모태 주걱턱 ㅋㅋㅋㅋ김구라 딸이세요? 살찌면 이국주겠드만 얼굴에 최홍만 장도연도 보이고 .이사람들 특징이 턱이 다 하자임 ㅉㅉ주걱턱쓰~~코도 주걱턱들 코들이랑 개똑같음 다운증후군들 처럼 코모양도 그들만의 특징이 있더만 휘고 괴상하게생김 하긴 배우할것도 아니고 지주제ㅉ 화장지우고 써클빼면 김구라 복제한줄 하관이 이국주랑 개똑같음.김구라를 복제한 얼굴 네이버 구글에서 장원영 주걱턱 쳐봐라!개추함 코도 존못ㅉ옆모습 보면 밑턱이 튀어나와서 개추하고 코도 주걱턱들 코모양 괴상함</t>
+  </si>
+  <si>
+    <t>햇네 해써</t>
+  </si>
+  <si>
+    <t>보고있니 은혜야?</t>
+  </si>
+  <si>
+    <t>일본에선 먹히려나~안습이네;;</t>
+  </si>
+  <si>
+    <t>이쁩니다♡화이팅!!♡</t>
+  </si>
+  <si>
+    <t>짜리몽땅한 사람한테 비율 좋다 말하면 뭐가되나.....</t>
+  </si>
+  <si>
+    <t>존나 인형 같네 얼굴 요만해</t>
+  </si>
+  <si>
+    <t>이슈한번 못돼고..이제 완전히 잊혀진 연예인이 되었네, 그레길래 공인이면 행실을 바로해야지 본인의 자업자득인것을...</t>
+  </si>
+  <si>
+    <t>제발 연예인 가정사는 기사로 안봤음 좋겠다</t>
+  </si>
+  <si>
+    <t>아니ㅋㅋ 화나요랑 악플들 뭐냐고ㅋㅋ 유진이 슈처럼 도박을 했냐 범죄를 저질렀냐 사회 물의를 일으켰냐? 애기 좀 똘똘해서 뭐 국제학교 유치부? 보냈다는 기사가 그렇게도 아니꼽고 배아프신가? 악플로 엊그제 한 명 보냈는데 이번엔 이쁘게 잘 사는 가정 하나 망가트리고 싶나보지? 돈 많은 집이라 좋으시겠어요? 연예인들 가정이 다 돈벌어서 애들 교육시키지 그럼 뭐에 돈 씀? 요즘 인강이다 뭐다 돈없어서 대학 못간다는거 다 옛말이고 국제고 특목고 나온다고 대학 다 잘가는것도 아니니까 이런곳에 악플달 시간에 당신 자식들 교육이나 신경쓰세요ㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>근거없는 비난과 악플을 자제해주세요</t>
+  </si>
+  <si>
+    <t>아주머니 정말 왜 그러세요</t>
+  </si>
+  <si>
+    <t>본인이 다 차였으면 무조건 차인 본인한테 문제가 있음</t>
+  </si>
+  <si>
+    <t>저두요 우리는 평생 만날 수 있겠네요♥</t>
+  </si>
+  <si>
+    <t>차이는년은 차일만한짓을 하니까 차이는거</t>
+  </si>
+  <si>
+    <t>에이즈??</t>
+  </si>
+  <si>
+    <t>이런기사는 항상 메갈기자</t>
+  </si>
+  <si>
+    <t>헤이즈 솔직히 안이쁘다.</t>
+  </si>
+  <si>
+    <t>고통스러웠던만큼 편히 쉬어요 이쁜사람..진실은 언젠간 밝혀질거에요.</t>
+  </si>
+  <si>
+    <t>타살같은데 우울증이니, 일루미나티 이런걸로 이상하게몰아가는듯...뭔가숨기고있는것같은느낌</t>
+  </si>
+  <si>
+    <t>주변 사람들이 많이도와줘야지 자존심땜에 도와달라 말못햇을지도..</t>
+  </si>
+  <si>
+    <t>문재앙이 죽였다</t>
+  </si>
+  <si>
+    <t>개애 좃썬 언론기레기들</t>
+  </si>
+  <si>
+    <t>셔누 어떡함</t>
+  </si>
+  <si>
+    <t>와 셔누 진짜 불쌍해....</t>
+  </si>
+  <si>
+    <t>자기 나체사진이 이리저리 돌아다니고 있다니 진짜 끔찍하겠다 셔누 정신붙잡아야할듯</t>
+  </si>
+  <si>
+    <t>셔누만은 믿었는데 뭔가 허탈하다...조작된 사진이라면 셔누는 피해자니깐 욕은 하지마라. 피해자한테 너무 심한 언행이라고 생각드니깐ㅠㅠㅠㅠ그렇지만 불륜관련해서는 제대로된 입장발표 부탁함..!ㅠ</t>
+  </si>
+  <si>
+    <t>와.. 여돌이었으면 ㅊㄴ니뭐니 입에도 못담을 성희롱에 욕들 도배됐을텐데 쉴드 왜케 많음 ....??</t>
+  </si>
+  <si>
+    <t>베뎃 빠순이들아 글쓸시간에 부모님께 효도나 해라 미친것들</t>
+  </si>
+  <si>
+    <t>그 깟 악플 그냥 개무시하고 비웃어버리지..그게 악플러들 엿먹이는 최고의 방법인데..</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋ 이제 조문간것도 인증해야함ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>왜이렇게 마음이 아프냐,,, 설리,,,정말,, 미안해요,,</t>
+  </si>
+  <si>
+    <t>수정이는 어째........음....</t>
+  </si>
+  <si>
+    <t>이쁜설리 하늘나라에가서 행복해야돼 ㅠ</t>
+  </si>
+  <si>
+    <t>크리스탈은 지 언니 닮아 싸가지없네ㅡ.ㅡ팀 동료가 죽었는데 아무 소식이 없어</t>
+  </si>
+  <si>
+    <t>우리가 사는곳은 설리씨를 품기엔 너무 작은곳이였나봐요ㅜ 편히 쉬세요:</t>
+  </si>
+  <si>
+    <t>설리야 행복해야돼!! 그리고 사랑해❤️❤️</t>
+  </si>
+  <si>
+    <t>앨범을낸다고?진짜뻔뻔하다은퇴해라</t>
+  </si>
+  <si>
+    <t>고인은 말이 없다. 그건 최자 니 생각이고. 그리고 설리는 너를 똥파리라고 했다던데???</t>
+  </si>
+  <si>
+    <t>먹고하고자고의 추억 간직해야지 암</t>
+  </si>
+  <si>
+    <t>슬프다 저글에서 느껴지는게 ..</t>
+  </si>
+  <si>
+    <t>사람들 무섭다..</t>
+  </si>
+  <si>
+    <t>최강ㅈㅈ 부럽다</t>
+  </si>
+  <si>
+    <t>제일 슬플 사람일 듯 ...</t>
+  </si>
+  <si>
+    <t>누구에겐 죽을만큼 고통이었던 시간 당신에겐 추억이네요</t>
+  </si>
+  <si>
+    <t>둘이서로사랑하다헤어졌는데 왜 얘한테 돌팔매질이야</t>
+  </si>
+  <si>
+    <t>애도 속으론 인스타관종년 잘갔다고 생각할거다</t>
+  </si>
+  <si>
+    <t>지가 자처해서 sns에 안재현 공개 악플쓰고. 이제 피해자코스프레. 천사코스프레냐? 너가 그런짓 안하면 기자들도 니 기사 안 쓸거고. 악플달릴 이유도 없지않냐?그냥 가만히 있으면 최소한 욕은 안먹잖냐?서른이 넘은 적지않은 나이에 하는짓은 애기같고 본인 행동이 잘못된줄 알고 행한짓일텐데. 본인은 더 한 악플을 공개적으로 썼으면서 본인이 한 행동에 대해 비난받을 준비도 없이 안재현에게 악플릴레이를 했다는 말인가?본인이얼마나잘못된 행동을 했는지안다면 이제 그만 어디가서요양을 하던지조용히좀있어라 본인잘못을모르고계속그짓한다면고유정과뭐가달라</t>
+  </si>
+  <si>
+    <t>진짜 친한 사람들은 충격에 sns에 글쓸정신도 없는데전남편인스타보고 따라서 글올리는꼴이 진짜 꼴사납다...</t>
+  </si>
+  <si>
+    <t>에휴 관종ㄴ 쯧 ㅋ</t>
+  </si>
+  <si>
+    <t>흐음... 근데 구혜선씨는 최근 고의적인 안재현 저격으로 온갖 악플을 유도하지 않았었나...? 인스타를 그만두면 될텐데ㅎㅎ</t>
+  </si>
+  <si>
+    <t>아줌만좀빠져</t>
+  </si>
+  <si>
+    <t>부부가 쌍으로 관종짓.</t>
+  </si>
+  <si>
+    <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+  </si>
+  <si>
+    <t>구하라 구혜선한테 악플달지마라 바사삭하게 부서지는 멘탈같더라</t>
+  </si>
+  <si>
+    <t>설리씨 누군지 몰랐지만우리 딸같아 ㅜ슬픕니다부모님 어쩌냐</t>
+  </si>
+  <si>
+    <t>이년은 더한 정신병관종환자임 ㅋㅋㅋ 남한테 피해나끼치고</t>
+  </si>
+  <si>
+    <t>우울증은 무슨...걍 관종에 ㄸㄹㅇ지...</t>
+  </si>
+  <si>
+    <t>넌 좀 닥쳐라...</t>
+  </si>
+  <si>
+    <t>누가 뭐래도 당신은 소중한 사람입니다!!</t>
+  </si>
+  <si>
+    <t>설리씨.좋은곳가서 악플없는데서 항상 웃길바래요ㅠㅠ명복을빕니다</t>
+  </si>
+  <si>
+    <t>세상관종이다 진짜</t>
+  </si>
+  <si>
+    <t>송가인 애는 돈을 너무 밝히네 행사비로 2000만원에서 2500만원을 반는다고 자기 노래도 아니고 남의 노래하면서 양심도 없네 어떻게 남진 홍진영 보다 많이 받냐 지역축제 관계자들이 너 안부른대</t>
+  </si>
+  <si>
+    <t>혜선씨 생각 잘했어요 안재현은 인기 떨어질듯</t>
+  </si>
+  <si>
+    <t>전현무 헤어지길 잘한것 같다 똑똑해 이런 사진을 보니까 판단 잘했네</t>
+  </si>
+  <si>
+    <t>아직도 은퇴 안했냐 쪽팔린줄 알아라</t>
+  </si>
+  <si>
+    <t>나는 효린의 부모가 어떻게 생겼는지 제일 궁금하다 제정신이 아니고서야 연말에 분위기를 흐려놓냐 에로배우도 아니고 효린의 부모는 기집애 하나 잘못키웠네</t>
+  </si>
+  <si>
+    <t>직업을 바꿔야 되겠는데 에로배우로</t>
+  </si>
+  <si>
+    <t>이쁘다</t>
+  </si>
+  <si>
+    <t>그냥 죽게 내버려둬</t>
+  </si>
+  <si>
+    <t>연예인 자녀가 얼굴이 뭐 대단하다고 호들값을 떨어</t>
+  </si>
+  <si>
+    <t>어떻게 아들뻘하고 결혼을 하냐?제 제 정신인가</t>
+  </si>
+  <si>
+    <t>꼴갑을 해요</t>
+  </si>
+  <si>
+    <t>정신병원부터 가서 치료나 받아라 윈조교제 하지말구</t>
+  </si>
+  <si>
+    <t>어릴때 일진언니 연옌되기전에 사람들에게 그렇케잘해주던데,, 몇년방송 나오더니 이제안보임.</t>
+  </si>
+  <si>
+    <t>곧 따라갈듯...하여간 별나다 별라..꼴보기싫다 진짜 하는짓 하나하나 정상적인게 없네..ㅉㅉㅉ</t>
+  </si>
+  <si>
+    <t>구혜선님도 힘내세요</t>
+  </si>
+  <si>
+    <t>설리케이스하고는 다른데 왜 구혜선 비난하면 안되지?? 설리는 자기혼자 튀는행동한건데 억울하게 욕먹은거고 구혜선은 죄없는 안재현 매장시킬려고했자나. 잘못한 사람한테 자살할지도 모른다고 쉬쉬하자고?? 그런식이면 온갖 미친짓 다 저질러서 남한테 피해 입히고 나 자살할지도 모른다고 이상행동하면 다 용서되겠네? 다들 케이스별로 구분은 확실히하자.</t>
+  </si>
+  <si>
+    <t>잘자란다. 누구 멕이냐?? 진짜 정신에 병있나???</t>
+  </si>
+  <si>
+    <t>솔삐 아줌마 너무 오글거려요. 토악질 나옴ㅋㅋ</t>
+  </si>
+  <si>
+    <t>구적구냐? 과거의 구혜선과 현재의 구혜선이 싸우는중? 거짓말도 머리가 좋아야하지. 허언증인줄 알았더니 그냥 쌩구라였어ㅋㅋㅋ 제발 작작하고 너도 조용히 살아라.</t>
+  </si>
+  <si>
+    <t>멘탈 존나 강하네 구혜선도ㅎㄷㄷ</t>
+  </si>
+  <si>
+    <t>악플이 아닌 얘한테하는건 비난 죄질이 다르지</t>
+  </si>
+  <si>
+    <t>구혜선 화이팅♥</t>
+  </si>
+  <si>
+    <t>구혜선... 건강하길</t>
+  </si>
+  <si>
+    <t>너도자러 가려고 그러니?</t>
+  </si>
+  <si>
+    <t>관종답다 진짜.</t>
+  </si>
+  <si>
+    <t>차마 악플을 못달겠다.........에휴..</t>
+  </si>
+  <si>
+    <t>아... 진짜 좀..... ㅜㅜ 누가 병원좀....</t>
+  </si>
+  <si>
+    <t>와 진짜 이상형이다.. 우리나라에도 이런애들이 있긴 있구나</t>
+  </si>
+  <si>
+    <t>저러고 대체 찍는 이유가 뭐야? 새로운 관종 등장~ 기사때문에 알아간다</t>
+  </si>
+  <si>
+    <t>꼴페미들 또 ㅂㄷㅂㄷ하긋네</t>
+  </si>
+  <si>
+    <t>odd9**** &lt;----- 파오후 돼지 메갈페미 개줌마 한마리가 이성을 잃고 설치고 있네~ 언넝 디지렴 공기 아깝단다. 쿵쾅거리니 냄새도 나네 어우 웩..</t>
+  </si>
+  <si>
+    <t>네네.. 대단하세요~~다리깁스하구 촬영하는 프로정신!!!</t>
+  </si>
+  <si>
+    <t>하앍...</t>
+  </si>
+  <si>
+    <t>너 설리가 돼라</t>
+  </si>
+  <si>
+    <t>올~ 성욕 쩔겠는데ㅎㅎ 화나요는 페미 개돼지년들이겠지 비키니도 못입는 뚱보존못년들 ㅋㅋ</t>
+  </si>
+  <si>
+    <t>깁스까지하고 비키니 입을 생각이 드나?</t>
+  </si>
+  <si>
+    <t>재은아 빨리 나아..</t>
+  </si>
+  <si>
+    <t>나랑 결혼하자 머슴이 되어줄께 ㅠ.ㅠ</t>
+  </si>
+  <si>
+    <t>눈빛에.. 광기가.. ㅜ ㅜ</t>
+  </si>
+  <si>
+    <t>이제는 눈빛보니 무섭다</t>
+  </si>
+  <si>
+    <t>추해보인다~~~</t>
+  </si>
+  <si>
+    <t>불쌍해..ㅠㅠ 미소가 없어졌네 힘내세요 아픔 얼른 다 치료되길 바랄게요</t>
+  </si>
+  <si>
+    <t>다뺏구 이혼해줘버려요섹시한 젖꼭지찾아삼만리하게두구가정지키려구 어떻게라두 이혼러는되고싶지않아서 겁둔다고나할가?잡아보려구 당신 재산다쥐 이혼해줄게한마디했는데 시댁식구들한테일러갔구 들구일어나서~~~구혜선씨 배신감때문에힘든거알아요마음다지구 놔줘버려요미련갖지말아요</t>
+  </si>
+  <si>
+    <t>재혼은 포기해야겠다...혜선아</t>
+  </si>
+  <si>
+    <t>약하니?눈이 왜 저래...??</t>
+  </si>
+  <si>
+    <t>SNS는 인생의 낭비가 맞다</t>
+  </si>
+  <si>
+    <t>구혜선 보면 볼수록 역겹다.......내면의 더러움이 올라오는듯.</t>
+  </si>
+  <si>
+    <t>참 피곤하게 산다....</t>
+  </si>
+  <si>
+    <t>우웩</t>
+  </si>
+  <si>
+    <t>사진만 봐도 딱 이쁜 정신병자 같은데? 저게 정상인 눈빛은 아니지</t>
+  </si>
+  <si>
+    <t>얼굴이 다달라보이네.좀이상해</t>
+  </si>
+  <si>
+    <t>정신적으로 좀 아픈사람 같다. 그리고 가사일이라... 누가들으면 애엄마인줄</t>
+  </si>
+  <si>
+    <t>왜다구혜선욕하지ㅜ 안재현이결론은잘못한거자나!!!!썩을놈!!!!!</t>
+  </si>
+  <si>
+    <t>치료가 시급하다</t>
+  </si>
+  <si>
+    <t>훌훌털어버리고 자유롭게 살길 ~응원합니다.</t>
+  </si>
+  <si>
+    <t>구혜선은 나이만 처 먹었지 멘탈은 공주병 걸린 초딩 수준</t>
+  </si>
+  <si>
+    <t>구혜선씨는 자기 사진보며 이쁜줄 아나봐요?하나도 안이뻐요~~ 오히려 징그럽지사진 좀 그만 올려요~~~</t>
+  </si>
+  <si>
+    <t>혜선아~~~우리 너 하나도 안궁금해~~니가 뭘하든..제발 사진좀 올리지마...역겨워죽겠어~~</t>
+  </si>
+  <si>
+    <t>아이들이 보고 어떤생각을 할지.. 그리고 한서희 허언증 제대로네요 다시 약하는것같아보여요</t>
+  </si>
+  <si>
+    <t>ㅁ ㅊ ㄴ</t>
+  </si>
+  <si>
+    <t>관종 노답</t>
+  </si>
+  <si>
+    <t>?????????????누구</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한서희 존예 인정</t>
+  </si>
+  <si>
+    <t>참나 별게 다 기사거리네</t>
+  </si>
+  <si>
+    <t>레즈들은 할때 누가 넣어주나요?</t>
+  </si>
+  <si>
+    <t>관종좀 안나오게좀. 해주세요</t>
+  </si>
+  <si>
+    <t>정말 진지하게 전부터 느꼈어요. 병원 치료 받아 보세요.</t>
+  </si>
+  <si>
+    <t>약물 검사 해봐야 됨</t>
+  </si>
+  <si>
+    <t>예쁘고 비율이 상당히 좋긴해 성격이 이상해서 그렇지...</t>
+  </si>
+  <si>
+    <t>서희야 사랑한다 다음에는 나랑 놀자</t>
+  </si>
+  <si>
+    <t>지 랄 하고 자빠졌내</t>
+  </si>
+  <si>
+    <t>하...좀 꺼져...시끄러</t>
+  </si>
+  <si>
+    <t>이런기사 보기불편한데 ㅜㅜ휴...</t>
+  </si>
+  <si>
+    <t>부모는 대체 어디갔음? 이정도면 등짝 스매싱이 아니라 머리깎이지않음?</t>
+  </si>
+  <si>
+    <t>관종</t>
+  </si>
+  <si>
+    <t>얘 기사 좀 써주지마라 대체 왜그러냐 기레기들아</t>
+  </si>
+  <si>
+    <t>관종...</t>
   </si>
 </sst>
 </file>
@@ -6813,10 +7932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F068723-DC2D-F74D-94E9-96ECF232E82F}">
-  <dimension ref="A1:B2152"/>
+  <dimension ref="A1:B2538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1770" workbookViewId="0">
-      <selection activeCell="D1792" sqref="D1792"/>
+    <sheetView tabSelected="1" topLeftCell="A2134" workbookViewId="0">
+      <selection activeCell="D2149" sqref="D2149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -8025,6 +9144,9 @@
       <c r="A151" t="s">
         <v>150</v>
       </c>
+      <c r="B151">
+        <v>3</v>
+      </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
@@ -15254,6 +16376,9 @@
       <c r="A1055" t="s">
         <v>1052</v>
       </c>
+      <c r="B1055">
+        <v>3</v>
+      </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
@@ -24029,6 +25154,3094 @@
       </c>
       <c r="B2152">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:2">
+      <c r="A2153" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2153">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:2">
+      <c r="A2154" t="s">
+        <v>2013</v>
+      </c>
+      <c r="B2154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:2">
+      <c r="A2155" t="s">
+        <v>2014</v>
+      </c>
+      <c r="B2155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:2">
+      <c r="A2156" t="s">
+        <v>2015</v>
+      </c>
+      <c r="B2156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:2">
+      <c r="A2157" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B2157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:2">
+      <c r="A2158" t="s">
+        <v>2017</v>
+      </c>
+      <c r="B2158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:2">
+      <c r="A2159" t="s">
+        <v>2018</v>
+      </c>
+      <c r="B2159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:2">
+      <c r="A2160" t="s">
+        <v>2019</v>
+      </c>
+      <c r="B2160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:2">
+      <c r="A2161" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:2">
+      <c r="A2162" t="s">
+        <v>2021</v>
+      </c>
+      <c r="B2162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:2">
+      <c r="A2163" t="s">
+        <v>2022</v>
+      </c>
+      <c r="B2163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:2">
+      <c r="A2164" t="s">
+        <v>2023</v>
+      </c>
+      <c r="B2164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:2">
+      <c r="A2165" t="s">
+        <v>2024</v>
+      </c>
+      <c r="B2165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:2">
+      <c r="A2166" t="s">
+        <v>2025</v>
+      </c>
+      <c r="B2166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:2">
+      <c r="A2167" t="s">
+        <v>2026</v>
+      </c>
+      <c r="B2167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:2">
+      <c r="A2168" t="s">
+        <v>2027</v>
+      </c>
+      <c r="B2168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:2">
+      <c r="A2169" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B2169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:2">
+      <c r="A2170" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B2170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:2">
+      <c r="A2171" t="s">
+        <v>2030</v>
+      </c>
+      <c r="B2171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:2">
+      <c r="A2172" t="s">
+        <v>2031</v>
+      </c>
+      <c r="B2172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:2">
+      <c r="A2173" t="s">
+        <v>2032</v>
+      </c>
+      <c r="B2173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:2">
+      <c r="A2174" t="s">
+        <v>2033</v>
+      </c>
+      <c r="B2174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:2">
+      <c r="A2175" t="s">
+        <v>2034</v>
+      </c>
+      <c r="B2175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:2">
+      <c r="A2176" t="s">
+        <v>2035</v>
+      </c>
+      <c r="B2176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:2">
+      <c r="A2177" t="s">
+        <v>2036</v>
+      </c>
+      <c r="B2177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:2">
+      <c r="A2178" t="s">
+        <v>2037</v>
+      </c>
+      <c r="B2178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:2">
+      <c r="A2179" t="s">
+        <v>2038</v>
+      </c>
+      <c r="B2179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:2">
+      <c r="A2180" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B2180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:2">
+      <c r="A2181" t="s">
+        <v>2040</v>
+      </c>
+      <c r="B2181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:2">
+      <c r="A2182" t="s">
+        <v>2041</v>
+      </c>
+      <c r="B2182">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:2">
+      <c r="A2183" t="s">
+        <v>2042</v>
+      </c>
+      <c r="B2183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:2">
+      <c r="A2184" t="s">
+        <v>2043</v>
+      </c>
+      <c r="B2184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:2">
+      <c r="A2185" t="s">
+        <v>2044</v>
+      </c>
+      <c r="B2185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:2">
+      <c r="A2186" t="s">
+        <v>2045</v>
+      </c>
+      <c r="B2186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:2">
+      <c r="A2187" t="s">
+        <v>2046</v>
+      </c>
+      <c r="B2187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:2">
+      <c r="A2188" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B2188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:2">
+      <c r="A2189" t="s">
+        <v>2048</v>
+      </c>
+      <c r="B2189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:2">
+      <c r="A2190" t="s">
+        <v>2049</v>
+      </c>
+      <c r="B2190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:2">
+      <c r="A2191" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B2191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:2">
+      <c r="A2192" t="s">
+        <v>2051</v>
+      </c>
+      <c r="B2192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:2">
+      <c r="A2193" t="s">
+        <v>2052</v>
+      </c>
+      <c r="B2193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:2">
+      <c r="A2194" t="s">
+        <v>2053</v>
+      </c>
+      <c r="B2194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:2">
+      <c r="A2195" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B2195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:2">
+      <c r="A2196" t="s">
+        <v>2055</v>
+      </c>
+      <c r="B2196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:2">
+      <c r="A2197" t="s">
+        <v>2056</v>
+      </c>
+      <c r="B2197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:2">
+      <c r="A2198" t="s">
+        <v>2057</v>
+      </c>
+      <c r="B2198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:2">
+      <c r="A2199" t="s">
+        <v>2058</v>
+      </c>
+      <c r="B2199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:2">
+      <c r="A2200" t="s">
+        <v>2059</v>
+      </c>
+      <c r="B2200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:2">
+      <c r="A2201" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B2201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:2">
+      <c r="A2202" t="s">
+        <v>2061</v>
+      </c>
+      <c r="B2202">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:2">
+      <c r="A2203" t="s">
+        <v>2062</v>
+      </c>
+      <c r="B2203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:2">
+      <c r="A2204" t="s">
+        <v>2063</v>
+      </c>
+      <c r="B2204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:2">
+      <c r="A2205" t="s">
+        <v>2064</v>
+      </c>
+      <c r="B2205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:2">
+      <c r="A2206" t="s">
+        <v>2065</v>
+      </c>
+      <c r="B2206">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:2">
+      <c r="A2207" t="s">
+        <v>2066</v>
+      </c>
+      <c r="B2207">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:2">
+      <c r="A2208" t="s">
+        <v>2067</v>
+      </c>
+      <c r="B2208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:2">
+      <c r="A2209" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B2209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:2">
+      <c r="A2210" t="s">
+        <v>2069</v>
+      </c>
+      <c r="B2210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:2">
+      <c r="A2211" t="s">
+        <v>2070</v>
+      </c>
+      <c r="B2211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:2">
+      <c r="A2212" t="s">
+        <v>2071</v>
+      </c>
+      <c r="B2212">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:2">
+      <c r="A2213" t="s">
+        <v>2072</v>
+      </c>
+      <c r="B2213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:2">
+      <c r="A2214" t="s">
+        <v>2073</v>
+      </c>
+      <c r="B2214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:2">
+      <c r="A2215" t="s">
+        <v>2074</v>
+      </c>
+      <c r="B2215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:2">
+      <c r="A2216" t="s">
+        <v>2075</v>
+      </c>
+      <c r="B2216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:2">
+      <c r="A2217" t="s">
+        <v>2076</v>
+      </c>
+      <c r="B2217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:2">
+      <c r="A2218" t="s">
+        <v>2077</v>
+      </c>
+      <c r="B2218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:2">
+      <c r="A2219" t="s">
+        <v>2078</v>
+      </c>
+      <c r="B2219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:2">
+      <c r="A2220" t="s">
+        <v>2079</v>
+      </c>
+      <c r="B2220">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:2">
+      <c r="A2221" t="s">
+        <v>2080</v>
+      </c>
+      <c r="B2221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:2">
+      <c r="A2222" t="s">
+        <v>2081</v>
+      </c>
+      <c r="B2222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:2">
+      <c r="A2223" t="s">
+        <v>2082</v>
+      </c>
+      <c r="B2223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:2">
+      <c r="A2224" t="s">
+        <v>2083</v>
+      </c>
+      <c r="B2224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:2">
+      <c r="A2225" t="s">
+        <v>2084</v>
+      </c>
+      <c r="B2225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:2">
+      <c r="A2226" t="s">
+        <v>2085</v>
+      </c>
+      <c r="B2226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:2">
+      <c r="A2227" t="s">
+        <v>2086</v>
+      </c>
+      <c r="B2227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:2">
+      <c r="A2228" t="s">
+        <v>2087</v>
+      </c>
+      <c r="B2228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:2">
+      <c r="A2229" t="s">
+        <v>2088</v>
+      </c>
+      <c r="B2229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:2">
+      <c r="A2230" t="s">
+        <v>2089</v>
+      </c>
+      <c r="B2230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:2">
+      <c r="A2231" t="s">
+        <v>2090</v>
+      </c>
+      <c r="B2231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2232" spans="1:2">
+      <c r="A2232" t="s">
+        <v>2091</v>
+      </c>
+      <c r="B2232">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:2">
+      <c r="A2233" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B2233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:2">
+      <c r="A2234" t="s">
+        <v>2093</v>
+      </c>
+      <c r="B2234">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:2">
+      <c r="A2235" t="s">
+        <v>2094</v>
+      </c>
+      <c r="B2235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:2">
+      <c r="A2236" t="s">
+        <v>2095</v>
+      </c>
+      <c r="B2236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:2">
+      <c r="A2237" t="s">
+        <v>2096</v>
+      </c>
+      <c r="B2237">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:2">
+      <c r="A2238" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B2238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:2">
+      <c r="A2239" t="s">
+        <v>2098</v>
+      </c>
+      <c r="B2239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:2">
+      <c r="A2240" t="s">
+        <v>2099</v>
+      </c>
+      <c r="B2240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:2">
+      <c r="A2241" t="s">
+        <v>2100</v>
+      </c>
+      <c r="B2241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:2">
+      <c r="A2242" t="s">
+        <v>2101</v>
+      </c>
+      <c r="B2242">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:2">
+      <c r="A2243" t="s">
+        <v>2102</v>
+      </c>
+      <c r="B2243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:2">
+      <c r="A2244" t="s">
+        <v>2103</v>
+      </c>
+      <c r="B2244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:2">
+      <c r="A2245" t="s">
+        <v>2104</v>
+      </c>
+      <c r="B2245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:2">
+      <c r="A2246" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B2246">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:2">
+      <c r="A2247" t="s">
+        <v>2106</v>
+      </c>
+      <c r="B2247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:2">
+      <c r="A2248" t="s">
+        <v>2107</v>
+      </c>
+      <c r="B2248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:2">
+      <c r="A2249" t="s">
+        <v>2108</v>
+      </c>
+      <c r="B2249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:2">
+      <c r="A2250" t="s">
+        <v>2109</v>
+      </c>
+      <c r="B2250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:2">
+      <c r="A2251" t="s">
+        <v>2110</v>
+      </c>
+      <c r="B2251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:2">
+      <c r="A2252" t="s">
+        <v>2111</v>
+      </c>
+      <c r="B2252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:2">
+      <c r="A2253" t="s">
+        <v>2112</v>
+      </c>
+      <c r="B2253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:2">
+      <c r="A2254" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B2254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:2">
+      <c r="A2255" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B2255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:2">
+      <c r="A2256" t="s">
+        <v>2115</v>
+      </c>
+      <c r="B2256">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2257" spans="1:2">
+      <c r="A2257" t="s">
+        <v>2116</v>
+      </c>
+      <c r="B2257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:2">
+      <c r="A2258" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B2258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:2">
+      <c r="A2259" t="s">
+        <v>2118</v>
+      </c>
+      <c r="B2259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:2">
+      <c r="A2260" t="s">
+        <v>2119</v>
+      </c>
+      <c r="B2260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:2">
+      <c r="A2261" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B2261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:2">
+      <c r="A2262" t="s">
+        <v>2121</v>
+      </c>
+      <c r="B2262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:2">
+      <c r="A2263" t="s">
+        <v>2122</v>
+      </c>
+      <c r="B2263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:2">
+      <c r="A2264" t="s">
+        <v>2123</v>
+      </c>
+      <c r="B2264">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:2">
+      <c r="A2265" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B2265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:2">
+      <c r="A2266" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B2266">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:2">
+      <c r="A2267" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B2267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:2">
+      <c r="A2268" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B2268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:2">
+      <c r="A2269" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B2269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:2">
+      <c r="A2270" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B2270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:2">
+      <c r="A2271" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B2271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:2">
+      <c r="A2272" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B2272">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:2">
+      <c r="A2273" t="s">
+        <v>2132</v>
+      </c>
+      <c r="B2273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:2">
+      <c r="A2274" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B2274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:2">
+      <c r="A2275" t="s">
+        <v>2134</v>
+      </c>
+      <c r="B2275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:2">
+      <c r="A2276" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B2276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:2">
+      <c r="A2277" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B2277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:2">
+      <c r="A2278" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B2278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:2">
+      <c r="A2279" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B2279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:2">
+      <c r="A2280" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B2280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:2">
+      <c r="A2281" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B2281">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2282" spans="1:2">
+      <c r="A2282" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B2282">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2283" spans="1:2">
+      <c r="A2283" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B2283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2284" spans="1:2">
+      <c r="A2284" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B2284">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:2">
+      <c r="A2285" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B2285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:2">
+      <c r="A2286" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B2286">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:2">
+      <c r="A2287" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B2287">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:2">
+      <c r="A2288" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B2288">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:2">
+      <c r="A2289" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B2289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2290" spans="1:2">
+      <c r="A2290" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B2290">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2291" spans="1:2">
+      <c r="A2291" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B2291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:2">
+      <c r="A2292" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B2292">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:2">
+      <c r="A2293" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B2293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:2">
+      <c r="A2294" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B2294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:2">
+      <c r="A2295" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B2295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:2">
+      <c r="A2296" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B2296">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:2">
+      <c r="A2297" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B2297">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:2">
+      <c r="A2298" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B2298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:2">
+      <c r="A2299" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B2299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:2">
+      <c r="A2300" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B2300">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:2">
+      <c r="A2301" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B2301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:2">
+      <c r="A2302" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B2302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:2">
+      <c r="A2303" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B2303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:2">
+      <c r="A2304" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B2304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:2">
+      <c r="A2305" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B2305">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:2">
+      <c r="A2306" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B2306">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:2">
+      <c r="A2307" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B2307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:2">
+      <c r="A2308" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B2308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:2">
+      <c r="A2309" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B2309">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:2">
+      <c r="A2310" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B2310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:2">
+      <c r="A2311" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B2311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:2">
+      <c r="A2312" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B2312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:2">
+      <c r="A2313" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B2313">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:2">
+      <c r="A2314" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B2314">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:2">
+      <c r="A2315" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B2315">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2316" spans="1:2">
+      <c r="A2316" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B2316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2317" spans="1:2">
+      <c r="A2317" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B2317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2318" spans="1:2">
+      <c r="A2318" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B2318">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2319" spans="1:2">
+      <c r="A2319" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B2319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2320" spans="1:2">
+      <c r="A2320" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B2320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2321" spans="1:2">
+      <c r="A2321" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B2321">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2322" spans="1:2">
+      <c r="A2322" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B2322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2323" spans="1:2">
+      <c r="A2323" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B2323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2324" spans="1:2">
+      <c r="A2324" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B2324">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2325" spans="1:2">
+      <c r="A2325" t="s">
+        <v>2184</v>
+      </c>
+      <c r="B2325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2326" spans="1:2">
+      <c r="A2326" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B2326">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2327" spans="1:2">
+      <c r="A2327" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B2327">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2328" spans="1:2">
+      <c r="A2328" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B2328">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2329" spans="1:2">
+      <c r="A2329" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B2329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:2">
+      <c r="A2330" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B2330">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:2">
+      <c r="A2331" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B2331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:2">
+      <c r="A2332" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B2332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:2">
+      <c r="A2333" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B2333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2334" spans="1:2">
+      <c r="A2334" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B2334">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2335" spans="1:2">
+      <c r="A2335" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B2335">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:2">
+      <c r="A2336" t="s">
+        <v>2195</v>
+      </c>
+      <c r="B2336">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:2">
+      <c r="A2337" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B2337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2338" spans="1:2">
+      <c r="A2338" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B2338">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2339" spans="1:2">
+      <c r="A2339" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B2339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2340" spans="1:2">
+      <c r="A2340" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B2340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:2">
+      <c r="A2341" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B2341">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:2">
+      <c r="A2342" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B2342">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:2">
+      <c r="A2343" t="s">
+        <v>2202</v>
+      </c>
+      <c r="B2343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2344" spans="1:2">
+      <c r="A2344" t="s">
+        <v>2203</v>
+      </c>
+      <c r="B2344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2345" spans="1:2">
+      <c r="A2345" t="s">
+        <v>2204</v>
+      </c>
+      <c r="B2345">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2346" spans="1:2">
+      <c r="A2346" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B2346">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2347" spans="1:2">
+      <c r="A2347" t="s">
+        <v>2206</v>
+      </c>
+      <c r="B2347">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2348" spans="1:2">
+      <c r="A2348" t="s">
+        <v>2207</v>
+      </c>
+      <c r="B2348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2349" spans="1:2">
+      <c r="A2349" t="s">
+        <v>2208</v>
+      </c>
+      <c r="B2349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2350" spans="1:2">
+      <c r="A2350" t="s">
+        <v>2209</v>
+      </c>
+      <c r="B2350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2351" spans="1:2">
+      <c r="A2351" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B2351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2352" spans="1:2">
+      <c r="A2352" t="s">
+        <v>2211</v>
+      </c>
+      <c r="B2352">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2353" spans="1:2">
+      <c r="A2353" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B2353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2354" spans="1:2">
+      <c r="A2354" t="s">
+        <v>2213</v>
+      </c>
+      <c r="B2354">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2355" spans="1:2">
+      <c r="A2355" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B2355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2356" spans="1:2">
+      <c r="A2356" t="s">
+        <v>2215</v>
+      </c>
+      <c r="B2356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2357" spans="1:2">
+      <c r="A2357" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B2357">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2358" spans="1:2">
+      <c r="A2358" t="s">
+        <v>2217</v>
+      </c>
+      <c r="B2358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2359" spans="1:2">
+      <c r="A2359" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B2359">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2360" spans="1:2">
+      <c r="A2360" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B2360">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2361" spans="1:2">
+      <c r="A2361" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B2361">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:2">
+      <c r="A2362" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B2362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2363" spans="1:2">
+      <c r="A2363" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B2363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2364" spans="1:2">
+      <c r="A2364" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B2364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2365" spans="1:2">
+      <c r="A2365" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B2365">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2366" spans="1:2">
+      <c r="A2366" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B2366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2367" spans="1:2">
+      <c r="A2367" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B2367">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2368" spans="1:2">
+      <c r="A2368" t="s">
+        <v>2227</v>
+      </c>
+      <c r="B2368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2369" spans="1:2">
+      <c r="A2369" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B2369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2370" spans="1:2">
+      <c r="A2370" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B2370">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2371" spans="1:2">
+      <c r="A2371" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B2371">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2372" spans="1:2">
+      <c r="A2372" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B2372">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2373" spans="1:2">
+      <c r="A2373" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B2373">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2374" spans="1:2">
+      <c r="A2374" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B2374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:2">
+      <c r="A2375" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B2375">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:2">
+      <c r="A2376" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B2376">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:2">
+      <c r="A2377" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B2377">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:2">
+      <c r="A2378" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B2378">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:2">
+      <c r="A2379" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B2379">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:2">
+      <c r="A2380" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B2380">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:2">
+      <c r="A2381" t="s">
+        <v>2240</v>
+      </c>
+      <c r="B2381">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:2">
+      <c r="A2382" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B2382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:2">
+      <c r="A2383" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B2383">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:2">
+      <c r="A2384" t="s">
+        <v>2243</v>
+      </c>
+      <c r="B2384">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:2">
+      <c r="A2385" t="s">
+        <v>2244</v>
+      </c>
+      <c r="B2385">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:2">
+      <c r="A2386" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B2386">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:2">
+      <c r="A2387" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B2387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:2">
+      <c r="A2388" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B2388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:2">
+      <c r="A2389" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B2389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:2">
+      <c r="A2390" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B2390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:2">
+      <c r="A2391" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B2391">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2392" spans="1:2">
+      <c r="A2392" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B2392">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2393" spans="1:2">
+      <c r="A2393" t="s">
+        <v>2252</v>
+      </c>
+      <c r="B2393">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2394" spans="1:2">
+      <c r="A2394" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B2394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2395" spans="1:2">
+      <c r="A2395" t="s">
+        <v>2254</v>
+      </c>
+      <c r="B2395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2396" spans="1:2">
+      <c r="A2396" t="s">
+        <v>2255</v>
+      </c>
+      <c r="B2396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2397" spans="1:2">
+      <c r="A2397" t="s">
+        <v>2256</v>
+      </c>
+      <c r="B2397">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2398" spans="1:2">
+      <c r="A2398" t="s">
+        <v>2257</v>
+      </c>
+      <c r="B2398">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2399" spans="1:2">
+      <c r="A2399" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B2399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2400" spans="1:2">
+      <c r="A2400" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B2400">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2401" spans="1:2">
+      <c r="A2401" t="s">
+        <v>2260</v>
+      </c>
+      <c r="B2401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2402" spans="1:2">
+      <c r="A2402" t="s">
+        <v>2261</v>
+      </c>
+      <c r="B2402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2403" spans="1:2">
+      <c r="A2403" t="s">
+        <v>2262</v>
+      </c>
+      <c r="B2403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2404" spans="1:2">
+      <c r="A2404" t="s">
+        <v>2263</v>
+      </c>
+      <c r="B2404">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2405" spans="1:2">
+      <c r="A2405" t="s">
+        <v>2264</v>
+      </c>
+      <c r="B2405">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2406" spans="1:2">
+      <c r="A2406" t="s">
+        <v>2265</v>
+      </c>
+      <c r="B2406">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2407" spans="1:2">
+      <c r="A2407" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B2407">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2408" spans="1:2">
+      <c r="A2408" t="s">
+        <v>2267</v>
+      </c>
+      <c r="B2408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2409" spans="1:2">
+      <c r="A2409" t="s">
+        <v>2268</v>
+      </c>
+      <c r="B2409">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2410" spans="1:2">
+      <c r="A2410" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B2410">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2411" spans="1:2">
+      <c r="A2411" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B2411">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2412" spans="1:2">
+      <c r="A2412" t="s">
+        <v>2271</v>
+      </c>
+      <c r="B2412">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2413" spans="1:2">
+      <c r="A2413" t="s">
+        <v>2272</v>
+      </c>
+      <c r="B2413">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2414" spans="1:2">
+      <c r="A2414" t="s">
+        <v>2273</v>
+      </c>
+      <c r="B2414">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2415" spans="1:2">
+      <c r="A2415" t="s">
+        <v>2274</v>
+      </c>
+      <c r="B2415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2416" spans="1:2">
+      <c r="A2416" t="s">
+        <v>2275</v>
+      </c>
+      <c r="B2416">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2417" spans="1:2">
+      <c r="A2417" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B2417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:2">
+      <c r="A2418" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B2418">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2419" spans="1:2">
+      <c r="A2419" t="s">
+        <v>2278</v>
+      </c>
+      <c r="B2419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2420" spans="1:2">
+      <c r="A2420" t="s">
+        <v>2279</v>
+      </c>
+      <c r="B2420">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2421" spans="1:2">
+      <c r="A2421" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B2421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2422" spans="1:2">
+      <c r="A2422" t="s">
+        <v>2281</v>
+      </c>
+      <c r="B2422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2423" spans="1:2">
+      <c r="A2423" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B2423">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2424" spans="1:2">
+      <c r="A2424" t="s">
+        <v>2283</v>
+      </c>
+      <c r="B2424">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2425" spans="1:2">
+      <c r="A2425" t="s">
+        <v>2284</v>
+      </c>
+      <c r="B2425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2426" spans="1:2">
+      <c r="A2426" t="s">
+        <v>2285</v>
+      </c>
+      <c r="B2426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2427" spans="1:2">
+      <c r="A2427" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B2427">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2428" spans="1:2">
+      <c r="A2428" t="s">
+        <v>2287</v>
+      </c>
+      <c r="B2428">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2429" spans="1:2">
+      <c r="A2429" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B2429">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2430" spans="1:2">
+      <c r="A2430" t="s">
+        <v>2289</v>
+      </c>
+      <c r="B2430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2431" spans="1:2">
+      <c r="A2431" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B2431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2432" spans="1:2">
+      <c r="A2432" t="s">
+        <v>2291</v>
+      </c>
+      <c r="B2432">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2433" spans="1:2">
+      <c r="A2433" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B2433">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2434" spans="1:2">
+      <c r="A2434" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B2434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2435" spans="1:2">
+      <c r="A2435" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B2435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2436" spans="1:2">
+      <c r="A2436" t="s">
+        <v>2295</v>
+      </c>
+      <c r="B2436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2437" spans="1:2">
+      <c r="A2437" t="s">
+        <v>2296</v>
+      </c>
+      <c r="B2437">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2438" spans="1:2">
+      <c r="A2438" t="s">
+        <v>2297</v>
+      </c>
+      <c r="B2438">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2439" spans="1:2">
+      <c r="A2439" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B2439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2440" spans="1:2">
+      <c r="A2440" t="s">
+        <v>2299</v>
+      </c>
+      <c r="B2440">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2441" spans="1:2">
+      <c r="A2441" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B2441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2442" spans="1:2">
+      <c r="A2442" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B2442">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2443" spans="1:2">
+      <c r="A2443" t="s">
+        <v>2302</v>
+      </c>
+      <c r="B2443">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2444" spans="1:2">
+      <c r="A2444" t="s">
+        <v>2303</v>
+      </c>
+      <c r="B2444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:2">
+      <c r="A2445" t="s">
+        <v>2304</v>
+      </c>
+      <c r="B2445">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2446" spans="1:2">
+      <c r="A2446" t="s">
+        <v>2305</v>
+      </c>
+      <c r="B2446">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2447" spans="1:2">
+      <c r="A2447" t="s">
+        <v>2306</v>
+      </c>
+      <c r="B2447">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2448" spans="1:2">
+      <c r="A2448" t="s">
+        <v>2307</v>
+      </c>
+      <c r="B2448">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2449" spans="1:2">
+      <c r="A2449" t="s">
+        <v>2308</v>
+      </c>
+      <c r="B2449">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2450" spans="1:2">
+      <c r="A2450" t="s">
+        <v>2309</v>
+      </c>
+      <c r="B2450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2451" spans="1:2">
+      <c r="A2451" t="s">
+        <v>2310</v>
+      </c>
+      <c r="B2451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2452" spans="1:2">
+      <c r="A2452" t="s">
+        <v>2311</v>
+      </c>
+      <c r="B2452">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:2">
+      <c r="A2453" t="s">
+        <v>2312</v>
+      </c>
+      <c r="B2453">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2454" spans="1:2">
+      <c r="A2454" t="s">
+        <v>2313</v>
+      </c>
+      <c r="B2454">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2455" spans="1:2">
+      <c r="A2455" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B2455">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2456" spans="1:2">
+      <c r="A2456" t="s">
+        <v>2315</v>
+      </c>
+      <c r="B2456">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2457" spans="1:2">
+      <c r="A2457" t="s">
+        <v>2316</v>
+      </c>
+      <c r="B2457">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2458" spans="1:2">
+      <c r="A2458" t="s">
+        <v>2317</v>
+      </c>
+      <c r="B2458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2459" spans="1:2">
+      <c r="A2459" t="s">
+        <v>2318</v>
+      </c>
+      <c r="B2459">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2460" spans="1:2">
+      <c r="A2460" t="s">
+        <v>2319</v>
+      </c>
+      <c r="B2460">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2461" spans="1:2">
+      <c r="A2461" t="s">
+        <v>2320</v>
+      </c>
+      <c r="B2461">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2462" spans="1:2">
+      <c r="A2462" t="s">
+        <v>2321</v>
+      </c>
+      <c r="B2462">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2463" spans="1:2">
+      <c r="A2463" t="s">
+        <v>2322</v>
+      </c>
+      <c r="B2463">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2464" spans="1:2">
+      <c r="A2464" t="s">
+        <v>2323</v>
+      </c>
+      <c r="B2464">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2465" spans="1:2">
+      <c r="A2465" t="s">
+        <v>2324</v>
+      </c>
+      <c r="B2465">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2466" spans="1:2">
+      <c r="A2466" t="s">
+        <v>2325</v>
+      </c>
+      <c r="B2466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2467" spans="1:2">
+      <c r="A2467" t="s">
+        <v>2326</v>
+      </c>
+      <c r="B2467">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2468" spans="1:2">
+      <c r="A2468" t="s">
+        <v>2327</v>
+      </c>
+      <c r="B2468">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2469" spans="1:2">
+      <c r="A2469" t="s">
+        <v>2328</v>
+      </c>
+      <c r="B2469">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2470" spans="1:2">
+      <c r="A2470" t="s">
+        <v>2329</v>
+      </c>
+      <c r="B2470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:2">
+      <c r="A2471" t="s">
+        <v>2330</v>
+      </c>
+      <c r="B2471">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:2">
+      <c r="A2472" t="s">
+        <v>2331</v>
+      </c>
+      <c r="B2472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2473" spans="1:2">
+      <c r="A2473" t="s">
+        <v>2332</v>
+      </c>
+      <c r="B2473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2474" spans="1:2">
+      <c r="A2474" t="s">
+        <v>2333</v>
+      </c>
+      <c r="B2474">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2475" spans="1:2">
+      <c r="A2475" t="s">
+        <v>2334</v>
+      </c>
+      <c r="B2475">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2476" spans="1:2">
+      <c r="A2476" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B2476">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2477" spans="1:2">
+      <c r="A2477" t="s">
+        <v>2336</v>
+      </c>
+      <c r="B2477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2478" spans="1:2">
+      <c r="A2478" t="s">
+        <v>2337</v>
+      </c>
+      <c r="B2478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:2">
+      <c r="A2479" t="s">
+        <v>2338</v>
+      </c>
+      <c r="B2479">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:2">
+      <c r="A2480" t="s">
+        <v>2339</v>
+      </c>
+      <c r="B2480">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2481" spans="1:2">
+      <c r="A2481" t="s">
+        <v>2340</v>
+      </c>
+      <c r="B2481">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2482" spans="1:2">
+      <c r="A2482" t="s">
+        <v>2341</v>
+      </c>
+      <c r="B2482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2483" spans="1:2">
+      <c r="A2483" t="s">
+        <v>2342</v>
+      </c>
+      <c r="B2483">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2484" spans="1:2">
+      <c r="A2484" t="s">
+        <v>2343</v>
+      </c>
+      <c r="B2484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2485" spans="1:2">
+      <c r="A2485" t="s">
+        <v>2344</v>
+      </c>
+      <c r="B2485">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2486" spans="1:2">
+      <c r="A2486" t="s">
+        <v>2314</v>
+      </c>
+      <c r="B2486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2487" spans="1:2">
+      <c r="A2487" t="s">
+        <v>2345</v>
+      </c>
+      <c r="B2487">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2488" spans="1:2">
+      <c r="A2488" t="s">
+        <v>2346</v>
+      </c>
+      <c r="B2488">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2489" spans="1:2">
+      <c r="A2489" t="s">
+        <v>2347</v>
+      </c>
+      <c r="B2489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2490" spans="1:2">
+      <c r="A2490" t="s">
+        <v>2348</v>
+      </c>
+      <c r="B2490">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2491" spans="1:2">
+      <c r="A2491" t="s">
+        <v>2349</v>
+      </c>
+      <c r="B2491">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2492" spans="1:2">
+      <c r="A2492" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B2492">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2493" spans="1:2">
+      <c r="A2493" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B2493">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2494" spans="1:2">
+      <c r="A2494" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B2494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2495" spans="1:2">
+      <c r="A2495" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B2495">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2496" spans="1:2">
+      <c r="A2496" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B2496">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2497" spans="1:2">
+      <c r="A2497" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B2497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2498" spans="1:2">
+      <c r="A2498" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B2498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2499" spans="1:2">
+      <c r="A2499" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B2499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2500" spans="1:2">
+      <c r="A2500" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B2500">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2501" spans="1:2">
+      <c r="A2501" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B2501">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2502" spans="1:2">
+      <c r="A2502" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B2502">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2503" spans="1:2">
+      <c r="A2503" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B2503">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2504" spans="1:2">
+      <c r="A2504" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B2504">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2505" spans="1:2">
+      <c r="A2505" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B2505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2506" spans="1:2">
+      <c r="A2506" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B2506">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2507" spans="1:2">
+      <c r="A2507" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B2507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2508" spans="1:2">
+      <c r="A2508" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B2508">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2509" spans="1:2">
+      <c r="A2509" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B2509">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2510" spans="1:2">
+      <c r="A2510" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B2510">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2511" spans="1:2">
+      <c r="A2511" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B2511">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2512" spans="1:2">
+      <c r="A2512" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B2512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2513" spans="1:2">
+      <c r="A2513" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B2513">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2514" spans="1:2">
+      <c r="A2514" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B2514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2515" spans="1:2">
+      <c r="A2515" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B2515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2516" spans="1:2">
+      <c r="A2516" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B2516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2517" spans="1:2">
+      <c r="A2517" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B2517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:2">
+      <c r="A2518" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B2518">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:2">
+      <c r="A2519" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B2519">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:2">
+      <c r="A2520" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B2520">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:2">
+      <c r="A2521" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B2521">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:2">
+      <c r="A2522" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B2522">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:2">
+      <c r="A2523" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B2523">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:2">
+      <c r="A2524" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B2524">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:2">
+      <c r="A2525" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B2525">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:2">
+      <c r="A2526" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B2526">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:2">
+      <c r="A2527" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B2527">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:2">
+      <c r="A2528" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B2528">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:2">
+      <c r="A2529" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B2529">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:2">
+      <c r="A2530" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B2530">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:2">
+      <c r="A2531" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B2531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:2">
+      <c r="A2532" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B2532">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:2">
+      <c r="A2533" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B2533">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:2">
+      <c r="A2534" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B2534">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:2">
+      <c r="A2535" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B2535">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:2">
+      <c r="A2536" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B2536">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:2">
+      <c r="A2537" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B2537">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:2">
+      <c r="A2538" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B2538">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimhyeongseop/Documents/MalJunSang/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33225C4-29F1-3049-B365-9F1F5E68DD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788A0D66-6C90-194D-A9F3-C746C3DCE6C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10960" yWindow="560" windowWidth="14400" windowHeight="16060" xr2:uid="{0E4C0141-0D5E-2540-AC59-84C2071AAAB2}"/>
+    <workbookView xWindow="10960" yWindow="460" windowWidth="14400" windowHeight="16060" xr2:uid="{0E4C0141-0D5E-2540-AC59-84C2071AAAB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7934,8 +7934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F068723-DC2D-F74D-94E9-96ECF232E82F}">
   <dimension ref="A1:B2538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2134" workbookViewId="0">
-      <selection activeCell="D2149" sqref="D2149"/>
+    <sheetView tabSelected="1" topLeftCell="A1255" workbookViewId="0">
+      <selection activeCell="D1259" sqref="D1259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -13497,7 +13497,7 @@
         <v>692</v>
       </c>
       <c r="B695">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:2">
